--- a/data/products/card/card_credit.xlsx
+++ b/data/products/card/card_credit.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KB_ITYL_FINAL\data\products\card\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="5VNJ00+KwLcwvOYMi3V1td4El8Jp6yOMY24P7LPLPvQ="/>
@@ -16,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="432">
   <si>
     <t>ID</t>
   </si>
@@ -1285,28 +1293,116 @@
   </si>
   <si>
     <t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09084_img.png</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>여</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>기</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>에</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>프</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>넣자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1315,11 +1411,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border/>
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -1333,33 +1435,53 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1549,29 +1671,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C133" sqref="C133"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="4.29"/>
-    <col customWidth="1" min="2" max="2" width="36.14"/>
-    <col customWidth="1" min="3" max="3" width="71.14"/>
-    <col customWidth="1" min="4" max="4" width="83.29"/>
-    <col customWidth="1" min="5" max="5" width="78.57"/>
-    <col customWidth="1" min="6" max="6" width="14.57"/>
-    <col customWidth="1" min="7" max="26" width="8.71"/>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" customWidth="1"/>
+    <col min="3" max="3" width="71.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1590,10 +1714,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
@@ -1611,9 +1736,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
@@ -1631,9 +1756,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>15</v>
@@ -1651,9 +1776,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
@@ -1671,9 +1796,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>23</v>
@@ -1691,9 +1816,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>27</v>
@@ -1711,9 +1836,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>31</v>
@@ -1731,9 +1856,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>35</v>
@@ -1751,9 +1876,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>39</v>
@@ -1771,9 +1896,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>43</v>
@@ -1791,9 +1916,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>47</v>
@@ -1811,9 +1936,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>51</v>
@@ -1831,9 +1956,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>55</v>
@@ -1851,9 +1976,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>58</v>
@@ -1868,9 +1993,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>61</v>
@@ -1888,9 +2013,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>65</v>
@@ -1908,9 +2033,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>69</v>
@@ -1928,9 +2053,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>73</v>
@@ -1948,9 +2073,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>77</v>
@@ -1968,9 +2093,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>81</v>
@@ -1988,9 +2113,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>85</v>
@@ -2008,9 +2133,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>89</v>
@@ -2028,9 +2153,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>93</v>
@@ -2048,9 +2173,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>97</v>
@@ -2065,9 +2190,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>100</v>
@@ -2085,9 +2210,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>104</v>
@@ -2105,9 +2230,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>108</v>
@@ -2125,9 +2250,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>112</v>
@@ -2145,9 +2270,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>15</v>
@@ -2165,9 +2290,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>43</v>
@@ -2185,9 +2310,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>117</v>
@@ -2205,9 +2330,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>121</v>
@@ -2225,9 +2350,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>125</v>
@@ -2245,9 +2370,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>129</v>
@@ -2265,9 +2390,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>133</v>
@@ -2285,9 +2410,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>137</v>
@@ -2305,9 +2430,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>141</v>
@@ -2322,9 +2447,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>144</v>
@@ -2342,9 +2467,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>15</v>
@@ -2362,9 +2487,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>149</v>
@@ -2382,9 +2507,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>19</v>
@@ -2402,9 +2527,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>39</v>
@@ -2422,9 +2547,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>43</v>
@@ -2442,9 +2567,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>154</v>
@@ -2462,9 +2587,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>108</v>
@@ -2482,9 +2607,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>158</v>
@@ -2502,9 +2627,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>162</v>
@@ -2522,9 +2647,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>166</v>
@@ -2542,9 +2667,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>170</v>
@@ -2562,9 +2687,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>174</v>
@@ -2582,9 +2707,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>178</v>
@@ -2602,9 +2727,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>182</v>
@@ -2622,9 +2747,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>112</v>
@@ -2642,9 +2767,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>186</v>
@@ -2662,9 +2787,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>188</v>
@@ -2682,9 +2807,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>39</v>
@@ -2702,9 +2827,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>189</v>
@@ -2722,9 +2847,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>193</v>
@@ -2742,9 +2867,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>47</v>
@@ -2762,9 +2887,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>197</v>
@@ -2782,9 +2907,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>201</v>
@@ -2802,9 +2927,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>205</v>
@@ -2822,9 +2947,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>209</v>
@@ -2842,9 +2967,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>214</v>
@@ -2862,9 +2987,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>218</v>
@@ -2882,9 +3007,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>222</v>
@@ -2902,9 +3027,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>226</v>
@@ -2922,9 +3047,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>230</v>
@@ -2942,9 +3067,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>234</v>
@@ -2962,9 +3087,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>238</v>
@@ -2982,9 +3107,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>241</v>
@@ -3002,9 +3127,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>245</v>
@@ -3022,9 +3147,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>249</v>
@@ -3042,9 +3167,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>253</v>
@@ -3062,9 +3187,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>256</v>
@@ -3082,9 +3207,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>259</v>
@@ -3102,9 +3227,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>263</v>
@@ -3122,9 +3247,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>267</v>
@@ -3142,9 +3267,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>272</v>
@@ -3162,9 +3287,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>276</v>
@@ -3182,9 +3307,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>81.0</v>
+        <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>280</v>
@@ -3202,9 +3327,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>284</v>
@@ -3222,9 +3347,9 @@
         <v>288</v>
       </c>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>289</v>
@@ -3242,9 +3367,9 @@
         <v>288</v>
       </c>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>293</v>
@@ -3262,9 +3387,9 @@
         <v>288</v>
       </c>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>297</v>
@@ -3282,9 +3407,9 @@
         <v>288</v>
       </c>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>31</v>
@@ -3302,9 +3427,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>35</v>
@@ -3322,9 +3447,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>302</v>
@@ -3342,9 +3467,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>306</v>
@@ -3362,9 +3487,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>310</v>
@@ -3382,9 +3507,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>314</v>
@@ -3402,9 +3527,9 @@
         <v>318</v>
       </c>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>319</v>
@@ -3422,9 +3547,9 @@
         <v>318</v>
       </c>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>323</v>
@@ -3442,9 +3567,9 @@
         <v>318</v>
       </c>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>327</v>
@@ -3462,9 +3587,9 @@
         <v>318</v>
       </c>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>330</v>
@@ -3482,9 +3607,9 @@
         <v>318</v>
       </c>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>334</v>
@@ -3502,9 +3627,9 @@
         <v>318</v>
       </c>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>97.0</v>
+        <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>338</v>
@@ -3522,9 +3647,9 @@
         <v>318</v>
       </c>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>342</v>
@@ -3542,9 +3667,9 @@
         <v>318</v>
       </c>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>346</v>
@@ -3562,9 +3687,9 @@
         <v>318</v>
       </c>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>350</v>
@@ -3582,9 +3707,9 @@
         <v>318</v>
       </c>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>353</v>
@@ -3602,9 +3727,9 @@
         <v>318</v>
       </c>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>102.0</v>
+        <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>356</v>
@@ -3622,9 +3747,9 @@
         <v>318</v>
       </c>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>103.0</v>
+        <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>149</v>
@@ -3642,9 +3767,9 @@
         <v>359</v>
       </c>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>104.0</v>
+        <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>360</v>
@@ -3662,9 +3787,9 @@
         <v>359</v>
       </c>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>364</v>
@@ -3682,9 +3807,9 @@
         <v>359</v>
       </c>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>106.0</v>
+        <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>368</v>
@@ -3702,9 +3827,9 @@
         <v>359</v>
       </c>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>107.0</v>
+        <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>371</v>
@@ -3722,9 +3847,9 @@
         <v>359</v>
       </c>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>108.0</v>
+        <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>375</v>
@@ -3742,9 +3867,9 @@
         <v>359</v>
       </c>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>109.0</v>
+        <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>378</v>
@@ -3762,9 +3887,9 @@
         <v>359</v>
       </c>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>382</v>
@@ -3782,9 +3907,9 @@
         <v>359</v>
       </c>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <v>111.0</v>
+        <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>289</v>
@@ -3802,9 +3927,9 @@
         <v>359</v>
       </c>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>112.0</v>
+        <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>386</v>
@@ -3822,9 +3947,9 @@
         <v>390</v>
       </c>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>113.0</v>
+        <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>391</v>
@@ -3842,9 +3967,9 @@
         <v>390</v>
       </c>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
-        <v>114.0</v>
+        <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>395</v>
@@ -3862,9 +3987,9 @@
         <v>390</v>
       </c>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <v>115.0</v>
+        <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>399</v>
@@ -3882,9 +4007,9 @@
         <v>390</v>
       </c>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>116.0</v>
+        <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>403</v>
@@ -3902,9 +4027,9 @@
         <v>390</v>
       </c>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>117.0</v>
+        <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>407</v>
@@ -3922,9 +4047,9 @@
         <v>390</v>
       </c>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <v>118.0</v>
+        <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>411</v>
@@ -3942,9 +4067,9 @@
         <v>390</v>
       </c>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
-        <v>119.0</v>
+        <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>415</v>
@@ -3962,9 +4087,9 @@
         <v>390</v>
       </c>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>419</v>
@@ -3982,889 +4107,926 @@
         <v>390</v>
       </c>
     </row>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="122" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+    </row>
+    <row r="123" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="4" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/products/card/card_credit.xlsx
+++ b/data/products/card/card_credit.xlsx
@@ -19,1383 +19,1404 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="459">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="466">
+  <x:si>
+    <x:t>적립/할인,쇼핑,주유/충전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적립/할인,음식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>똑똑하게 할인 “톡톡”!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>H.Point KB국민카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Our WE:SH 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐시노트 KB 국민카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LGU＋ 심플라이트카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요기패스 신용카드(가로형)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Easy ring 티타늄카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Easy auto 티타늄카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KB Pay 챌린지+카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KB Pay 챌린지카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WE:SH Daily 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>청호나이스 KB국민카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>넥센타이어 KB국민카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다시 새롭게! 이마트!!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The CJ KB국민카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Easy fly 티타늄카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스카이패스 티타늄 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GS SHOP KB국민카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계열사가 많은 알찬 CJ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SK에너지 러브유 KB국민카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이용은 간편하게, 할인은 넉넉하게!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기차 이용자라면 꼭 필요한!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CU 할인! 한번에 빠르게 쉽게~</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데일리 스탬프 모으면 늘어나는 혜택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>변함없는 가치, HERITAGE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wavve 이용권 결제 할 땐 !</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이마트II KB국민카드(옐로우)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BeV Ⅴ카드 (스카이패스형)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>통신요금 매월 할인 받는 방법!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>나'의 행복을 위한 필수 혜택 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행복드림 롯데마트에서 할인 혜택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KB국민카드로 통신료를 아끼자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>갤러리아 혜택을 한 장에 담아</x:t>
+  </x:si>
+  <x:si>
+    <x:t>매월 학습비를 절약하는 방법!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스타트럭 플러스 HD현대오일뱅크카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>반려동물을 사랑하는 현명한 방법!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>T-economy KB국민카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교육비를 절약하는 현명한 선택!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>렌탈 요금 매월 할인 받는 방법!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>렌탈요금 매월 할인 받는 방법!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일상에서 사업까지 탄탄한 혜택!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KB국민 군인연금증 신용카드(사진)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적립/할인,여행,쇼핑</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화물운전자를 위한 유가보조금 및 HD현대오일뱅크 주유할인 지원카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여행은 Happy, 혜택은 Easy! Yes, you can fly!</x:t>
+  </x:si>
   <x:si>
     <x:t>주요 생활 영역부터 내가 Pick한 영역까지 모두 적립 Easy!</x:t>
   </x:si>
   <x:si>
-    <x:t>여행은 Happy, 혜택은 Easy! Yes, you can fly!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화물운전자를 위한 유가보조금 및 HD현대오일뱅크 주유할인 지원카드</x:t>
+    <x:t>대한항공 마일리지 기본적립에 해외/면세점 추가적립 혜택까지!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>국내 거주 외국인을 위한 일상에서 여가까지 다양한 할인 혜택!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>렌탈 요금, 스마트하게 할인 받고 영화·놀이공원 할인까지!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화물운전자를 위한 유가보조금 및 S-OIL 주유할인 지원카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E1 충전소 할인은 기본! 풍성한 혜택으로 생활에너지 충전!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보육료 및 임신·출산 진료비 지원 등 국가바우처 지원 가능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KB국민 훈민정음 두번째 이야기, 모두의 이야기를 담은 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>반려동물을 사랑하는 마음. KB국민 반려애카드가 함께합니다!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11번가에서 SK Pay 결제 하고 11% OK캐쉬백 적립!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유·정비·생활·보험! Easy하게 적립을 타고 달리는 기분!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04420</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04285</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09194</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=02229</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09321</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09291</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=01234</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09157</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04350</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04444</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04361</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04291</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04491</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04434</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04415</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09231</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09244</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09570</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09214</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09314</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=02228</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09245</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WE:SH All 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WE:SH Travel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Food on, Music on, Shopping on 모두 할인 Easy on!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KMVNO 알뜰폰 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알뜰폰 Hub Ⅱ 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>통신요금을 절약하는 방법!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HERITAGE Exclusive</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지방보조금 결제에 보탬이 되는</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모두투어 투어마일리지 KB국민카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>글로벌한 내 스타일을 담았다!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대한민국 군과 함께 풍요로운 노후</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가치 그 이상의 VVIP 라이프</x:t>
+  </x:si>
+  <x:si>
+    <x:t>K-사장님의 든든한 사업 파트너</x:t>
+  </x:si>
+  <x:si>
+    <x:t>직업 군인과 군무원 분들에게 꼭 필요한 세심한 혜택! KB국민 국방멤버쉽카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09113</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09116</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=00230</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09122</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09561</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09060</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09247</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04289</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04404</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09124</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09115</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09389</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09561_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09389_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04291_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09321_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09124_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09247_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09123_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04350_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09122_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09113_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09115_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09129_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09248_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09272_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09244_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09060_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09116_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/00230_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/02228_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09040_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09245_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04420_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04422_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04287_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04491_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09157_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04285_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/02229_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09167_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09231_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09176_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09194_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09114_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09291_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09314_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04434_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적립/할인,쇼핑</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Electric Vehicle Owners 전기차 오너들을 위한 친환경 생활, 기부 생활</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09305&amp;categoryCode=L0063&amp;sGroupCode=3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09200&amp;categoryCode=L0080&amp;sGroupCode=3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09310&amp;categoryCode=L0064&amp;sGroupCode=3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09306&amp;categoryCode=L0063&amp;sGroupCode=3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09152&amp;categoryCode=L0079&amp;sGroupCode=3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여행</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>통신</x:t>
+  </x:si>
+  <x:si>
+    <x:t>의료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선택형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쇼핑</x:t>
+  </x:si>
+  <x:si>
+    <x:t>렌탈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교육</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아시아나 올림카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Annual_fee</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Heritage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04260</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04322</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04484</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09253</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04432</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04241</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09180</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09040</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04287</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09176</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04290</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=01142</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09167</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=02171</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09383</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09272</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09114</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04431</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04351</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04345</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09248</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=02210</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04422</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04863</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09255</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04324</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04482</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09251</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04418</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04423</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04326</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/220608_04320_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=02076</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04451</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09283</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04459</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04489</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09267</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=02170</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04320</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04323</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09246</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=02245</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04288</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04483</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04425</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04331</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09084</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04336</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09252</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09243</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04284</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=00996</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04095</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04416</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04330</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04088</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09256</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04426</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09183</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04130</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09169</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04417</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04550</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04485</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09063</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04092</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=02065</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04325</x:t>
+  </x:si>
+  <x:si>
+    <x:t>매일 매일 기분 좋은 할인 혜택으로 더 풍요로운 생활!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>웰스로 건강한 습관 ! KB국민카드로 알뜰한 습관 !</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현대백화점그룹 멤버십 혜택에 KB국민카드 혜택을 더하다!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평소에는 주유비 할인 받고! 주말에는 캠핑 즐기고!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>더욱 든든해진 혜택으로 당신의 골든라이프를 응원합니다!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쇼핑에 강한 AK와 생활에 강한 KB의 특별한 만남!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Get all, Choose all. Easy all~!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화물운전자를 위한 유가보조금 및 SK주유할인 지원카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SK내트럭 유가보조금카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KB국민 펫코노미 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SK 7mobile카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교원 웰스 KB국민카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스타트럭Ⅱ GS칼텍스카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Easy link 티타늄카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KB손해보험 마이펫카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스타트럭플러스 S-OIL카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E1 LPG KB국민카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>토스모바일 KB국민카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BeV Ⅴ카드 (포인트형)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금쪽같은 우리 아이들을 위한</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Easy all 티타늄카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>STARTLUCK 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Easy pick 티타늄카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kt M mobile카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09126</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09128</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09125</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09127</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09129</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09256_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/00996_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04425_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09306_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04331_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09169_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09243_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04485_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04417_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09255_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04432_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09251_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09084_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04088_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04330_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04426_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04095_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04130_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04284_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09183_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04092_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/02076_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09152_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09126_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/02065_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09252_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04550_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Simple Life를 위한 모두의 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HERITAGE Smart [할인형]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>매월 알뜰폰 통신비를 절약하는 방법!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HERITAGE Reserve(포인트형)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KB Pay와 만나는 장밋빛 할인 혜택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHALLENGE BAG KB국민카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>품격있는 상조서비스를 KB로 만납니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>외화 충전·환전 없이 우대 환율로 결제되는</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG 헬로비전 요금 매월 할인 받는 방법!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>웅진씽크빅 요금 매월 할인 받는 방법!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성 페이로 간편하게 할인받는 방법!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아시아나 마일리지 적립의 혜택을 올림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비상온리원 요금 매월 할인 받는 방법!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>즐거운 레고랜드에서도, 평범한 일상에서도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>심플하고 쉽게 토스포인트 적립하는 방법!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐시노트 월정액과 사업지원 할인을 동시에</x:t>
+  </x:si>
+  <x:si>
+    <x:t>함께 사는 '우리'를 위한 필수 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>매월 Liiv M 통신비를 절약하는 방법!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SKT 통신요금을 알뜰하게 절약하는 방법!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자동납부 등록하면, 혜택이 더블 Easy!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운송사업자들을 위한 든든한 지원 혜택의 힘</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부담 없이 OK, 넥센타이어 렌탈 서비스!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유만해도 리터당 최대 80원 할인!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>매일 쓰는 영역 할인으로 내 생활에 착붙!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>#간편결제 #택시 #편의점 #쇼핑 #배달</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실적조건 없이 국내가맹점 적립, 해외가맹점 캐시백!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>국내가맹점 기본적립, 사업지원영역 및 고액결제 추가적립!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쓸 때마다 쌓이는 금융포인트로 다양한 종합금융 혜택을!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>#외식 #편의점 #마트 #주유 #통신 #쇼핑 #배달</x:t>
+  </x:si>
+  <x:si>
+    <x:t>American Express Rose Gold Card</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가온글로벌카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EV 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EV카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사장님카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VVIP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>밀크T 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적립/할인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CLiP카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>딜라이브 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보탬e전용카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에듀카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예다함 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>굿데이올림카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레고랜드카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>국방멤버쉽카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공공/정부지원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>국민행복카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유/충전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>플래티늄카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿠쿠렌탈Ⅱ카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>코웨이Ⅱ 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>K-패스카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04325_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04409_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04415_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09253_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04326_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09180_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04484_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09570_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04416_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04482_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04423_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/01234_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04418_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09267_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04451_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04241_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09246_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/01142_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04489_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04290_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09283_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04361_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04289_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04404_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/02210_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04323_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09383_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04288_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04260_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09063_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04444_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04336_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04351_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/02245_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04324_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09310_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04345_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04483_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/02171_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04431_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09305_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09125_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09128_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09200_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04459_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04322_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04863_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/02170_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09127_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09214_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이핏카드(적립형)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>톡톡 with 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>toss KB국민카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TMAP KB국민카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가온올림카드(실속형)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CU KB국민카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>My WE:SH 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Easy on카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이핏카드(할인형)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비상온리원 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성페이 KB국민카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>웅진씽크빅 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금융포인트리카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알뜰폰Hub 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>랭킹닭컴 신용카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스마트 지킴이카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image_URL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>골든라이프올림카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Category</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Page_URL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>톡톡 Pay카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가온 Biz카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>랭킹은 알고 있다!!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>반려愛카드(강아지)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>청호나이스Ⅱ카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세라젬 KB국민카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Easy pick카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스마트한 쇼핑 혜택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SK매직 올림카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다담카드(비 OTP)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탄탄대로 Biz카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>갤러리아 KB국민카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현대큐밍 KB국민카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>웰릭스렌탈Ⅱ카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wavve 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LFmall 신용카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 KB국민카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레고랜드매니아카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Easy all카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GS행복가득카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탄탄대로 웰컴카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Liiv M Ⅱ 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>롯데마트 KB국민카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>U＋유모바일카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하나투어 KB국민카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG 헬로비전 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EVO 티타늄카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AK KB국민카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐시노트 KB국민카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가온플래티늄카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BeV Ⅲ 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GS SHOP 12%, 월 최대 5만원 할인!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 베스트샵 가전제품 / 렌탈 요금 할인!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하나의 카드로 자동차관련 서비스를 한 번에!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>딜라이브 자동납부 요금 매월 할인 받는 방법!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교통비 SAVE!! 생활서비스 할인 혜택까지~</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제주항공 Refresh Point KB국민카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>코웨이 더블 혜택! 렌탈료 할인과 적립을 동시에!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KT 모든 통신요금을 KB국민카드로 알뜰하게!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알뜰폰 통신비를 더 알뜰하게 절약하는 방법!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>American Express Blue Card</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구독료 부담은 No! 요기패스 혜택은 Yes!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신용카드와 하나투어 마일리지 클럽서비스를 하나로!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>통신요금 할인은 기본, 다양한 혜택도 Easy!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레고에 진심인 분을 위한 혜택에 진심을 담은 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우리 가족의 안전을 지켜주는 스마트한 카드 생활!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HERITAGE Smart [대한항공 마일리지형]</x:t>
   </x:si>
   <x:si>
     <x:t>품격있는 당신을 위한 차원이 다른 포인트 적립카드</x:t>
   </x:si>
   <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04404</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04289</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09272_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04350_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09248_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09244_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09060_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/00230_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09129_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04291_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09116_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09389_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09561_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09321_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09122_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09123_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09124_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09113_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09247_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09115_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/02229_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/02228_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04285_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09245_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04422_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04420_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09194_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09040_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04491_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04287_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04434_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09157_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09314_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09167_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09231_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09176_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09114_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09291_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09200&amp;categoryCode=L0080&amp;sGroupCode=3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Food on, Music on, Shopping on 모두 할인 Easy on!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09124</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09561</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09115</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09123</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09116</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09389</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09113</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09247</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=00230</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09122</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09060</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04291</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09321</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04491</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09314</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=02228</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04285</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04350</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09194</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09570</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04409</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04444</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04415</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09214</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04434</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09157</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09231</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=02229</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09245</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09244</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04361</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04420</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09291</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=01234</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09272</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09114</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04287</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=01142</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04431</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09167</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09248</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04422</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09040</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09176</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09180</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04290</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04322</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04484</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09253</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04351</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04345</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=02171</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=02210</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09383</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04260</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04432</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04241</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/220608_04320_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04320</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04459</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04863</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04483</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04324</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04323</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04451</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09267</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09246</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=02245</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04288</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04489</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04482</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09283</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=02170</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아시아나 올림카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Annual_fee</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Electric Vehicle Owners 전기차 오너들을 위한 친환경 생활, 기부 생활</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Heritage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>직업 군인과 군무원 분들에게 꼭 필요한 세심한 혜택! KB국민 국방멤버쉽카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09127_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09125_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09200_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09128_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09310_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09305_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>변함없는 가치, HERITAGE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대한항공 마일리지 기본적립에 해외/면세점 추가적립 혜택까지!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11번가에서 SK Pay 결제 하고 11% OK캐쉬백 적립!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유·정비·생활·보험! Easy하게 적립을 타고 달리는 기분!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>국내 거주 외국인을 위한 일상에서 여가까지 다양한 할인 혜택!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E1 충전소 할인은 기본! 풍성한 혜택으로 생활에너지 충전!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09214_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04459_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/02245_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04324_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04322_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04345_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04483_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04351_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04863_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/02170_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/02171_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04431_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09180_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/02210_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04444_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04361_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/01142_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09267_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/01234_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04288_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04241_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09246_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04489_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04482_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04290_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04484_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09283_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04409_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04415_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04323_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09253_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09570_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04326_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04325_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04404_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04289_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04418_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04336_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04451_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09383_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04260_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04416_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09063_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04423_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04426_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04485_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04284_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04417_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04432_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04425_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WE:SH Travel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WE:SH All 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>똑똑하게 할인 “톡톡”!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Easy fly 티타늄카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다시 새롭게! 이마트!!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The CJ KB국민카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계열사가 많은 알찬 CJ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스카이패스 티타늄 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KB Pay 챌린지카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GS SHOP KB국민카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>H.Point KB국민카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KB Pay 챌린지+카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Our WE:SH 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WE:SH Daily 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐시노트 KB 국민카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>청호나이스 KB국민카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요기패스 신용카드(가로형)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LGU＋ 심플라이트카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Easy ring 티타늄카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>넥센타이어 KB국민카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Easy auto 티타늄카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알뜰폰 Hub Ⅱ 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>통신요금을 절약하는 방법!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KMVNO 알뜰폰 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Easy all 티타늄카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>kt M mobile카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SK 7mobile카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금쪽같은 우리 아이들을 위한</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E1 LPG KB국민카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>토스모바일 KB국민카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KB손해보험 마이펫카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KB국민 펫코노미 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교원 웰스 KB국민카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CU 할인! 한번에 빠르게 쉽게~</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기차 이용자라면 꼭 필요한!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나'의 행복을 위한 필수 혜택 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이용은 간편하게, 할인은 넉넉하게!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데일리 스탬프 모으면 늘어나는 혜택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wavve 이용권 결제 할 땐 !</x:t>
-  </x:si>
-  <x:si>
-    <x:t>갤러리아 혜택을 한 장에 담아</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이마트II KB국민카드(옐로우)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CU 할인! 한번에 빠르고 쉽게~</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행복드림 롯데마트에서 할인 혜택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SK에너지 러브유 KB국민카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KB국민카드로 통신료를 아끼자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>통신요금 매월 할인 받는 방법!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>매월 학습비를 절약하는 방법!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교육비를 절약하는 현명한 선택!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>T-economy KB국민카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>반려동물을 사랑하는 현명한 방법!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>렌탈 요금 매월 할인 받는 방법!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>렌탈요금 매월 할인 받는 방법!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일상에서 사업까지 탄탄한 혜택!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스타트럭 플러스 HD현대오일뱅크카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KB국민 군인연금증 신용카드(사진)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대한민국 군과 함께 풍요로운 노후</x:t>
-  </x:si>
-  <x:si>
-    <x:t>글로벌한 내 스타일을 담았다!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>K-사장님의 든든한 사업 파트너</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모두투어 투어마일리지 KB국민카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지방보조금 결제에 보탬이 되는</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09084_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04092_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09251_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09256_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04088_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09183_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09169_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09252_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04331_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09243_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09255_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04330_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04095_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/00996_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/02065_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04550_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/02076_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04130_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09306_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09152_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09126_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>American Express Rose Gold Card</x:t>
-  </x:si>
-  <x:si>
-    <x:t>#외식 #편의점 #마트 #주유 #통신 #쇼핑 #배달</x:t>
-  </x:si>
-  <x:si>
-    <x:t>국내가맹점 기본적립, 사업지원영역 및 고액결제 추가적립!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쓸 때마다 쌓이는 금융포인트로 다양한 종합금융 혜택을!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실적조건 없이 국내가맹점 적립, 해외가맹점 캐시백!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CU KB국민카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>My WE:SH 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Easy on카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마이핏카드(할인형)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TMAP KB국민카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>toss KB국민카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마이핏카드(적립형)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>톡톡 with 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가온올림카드(실속형)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삼성페이 KB국민카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금융포인트리카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가온 Biz카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>톡톡 Pay카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image_URL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Category</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Page_URL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스마트 지킴이카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>웅진씽크빅 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비상온리원 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알뜰폰Hub 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>랭킹은 알고 있다!!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>랭킹닭컴 신용카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>골든라이프올림카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>반려愛카드(강아지)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>청호나이스Ⅱ카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SK매직 올림카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>현대큐밍 KB국민카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탄탄대로 Biz카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>웰릭스렌탈Ⅱ카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>세라젬 KB국민카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 KB국민카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Easy pick카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다담카드(비 OTP)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Easy all카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wavve 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레고랜드매니아카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LFmall 신용카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스마트한 쇼핑 혜택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>갤러리아 KB국민카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Easy pick 티타늄카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여행</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>렌탈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선택형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교육</x:t>
-  </x:si>
-  <x:si>
-    <x:t>의료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>통신</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쇼핑</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐시노트 KB국민카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탄탄대로 웰컴카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>롯데마트 KB국민카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AK KB국민카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GS행복가득카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EVO 티타늄카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG 헬로비전 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Liiv M Ⅱ 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>U＋유모바일카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하나투어 KB국민카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HERITAGE Reserve(포인트형)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HERITAGE Smart [할인형]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보육료 및 임신·출산 진료비 지원 등 국가바우처 지원 가능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KB국민 훈민정음 두번째 이야기, 모두의 이야기를 담은 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>렌탈 요금, 스마트하게 할인 받고 영화·놀이공원 할인까지!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화물운전자를 위한 유가보조금 및 S-OIL 주유할인 지원카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>반려동물을 사랑하는 마음. KB국민 반려애카드가 함께합니다!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>STARTLUCK 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스타트럭플러스 S-OIL카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Easy link 티타늄카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스타트럭Ⅱ GS칼텍스카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SK내트럭 유가보조금카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VVIP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>플래티늄카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>코웨이Ⅱ 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>딜라이브 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보탬e전용카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EV카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적립/할인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사장님카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쿠쿠렌탈Ⅱ카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>K-패스카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CLiP카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Content</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공공/정부지원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>밀크T 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>국방멤버쉽카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가온글로벌카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에듀카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유/충전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예다함 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EV 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>굿데이올림카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>국민행복카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레고랜드카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>매일 쓰는 영역 할인으로 내 생활에 착붙!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KB Pay와 만나는 장밋빛 할인 혜택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>품격있는 상조서비스를 KB로 만납니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>외화 충전·환전 없이 우대 환율로 결제되는</x:t>
-  </x:si>
-  <x:si>
-    <x:t>함께 사는 '우리'를 위한 필수 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>매월 Liiv M 통신비를 절약하는 방법!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Simple Life를 위한 모두의 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>매월 알뜰폰 통신비를 절약하는 방법!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아시아나 마일리지 적립의 혜택을 올림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CHALLENGE BAG KB국민카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SKT 통신요금을 알뜰하게 절약하는 방법!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG 헬로비전 요금 매월 할인 받는 방법!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>웅진씽크빅 요금 매월 할인 받는 방법!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삼성 페이로 간편하게 할인받는 방법!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비상온리원 요금 매월 할인 받는 방법!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자동납부 등록하면, 혜택이 더블 Easy!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>즐거운 레고랜드에서도, 평범한 일상에서도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>#간편결제 #택시 #편의점 #쇼핑 #배달</x:t>
-  </x:si>
-  <x:si>
-    <x:t>심플하고 쉽게 토스포인트 적립하는 방법!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐시노트 월정액과 사업지원 할인을 동시에</x:t>
-  </x:si>
-  <x:si>
-    <x:t>운송사업자들을 위한 든든한 지원 혜택의 힘</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부담 없이 OK, 넥센타이어 렌탈 서비스!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유만해도 리터당 최대 80원 할인!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>매일 매일 기분 좋은 할인 혜택으로 더 풍요로운 생활!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>웰스로 건강한 습관 ! KB국민카드로 알뜰한 습관 !</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Get all, Choose all. Easy all~!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평소에는 주유비 할인 받고! 주말에는 캠핑 즐기고!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>현대백화점그룹 멤버십 혜택에 KB국민카드 혜택을 더하다!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쇼핑에 강한 AK와 생활에 강한 KB의 특별한 만남!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>더욱 든든해진 혜택으로 당신의 골든라이프를 응원합니다!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09306&amp;categoryCode=L0063&amp;sGroupCode=3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09152&amp;categoryCode=L0079&amp;sGroupCode=3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09310&amp;categoryCode=L0064&amp;sGroupCode=3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09305&amp;categoryCode=L0063&amp;sGroupCode=3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제주항공 Refresh Point KB국민카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 베스트샵 가전제품 / 렌탈 요금 할인!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>신용카드와 하나투어 마일리지 클럽서비스를 하나로!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알뜰폰 통신비를 더 알뜰하게 절약하는 방법!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>통신요금 할인은 기본, 다양한 혜택도 Easy!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KT 모든 통신요금을 KB국민카드로 알뜰하게!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하나의 카드로 자동차관련 서비스를 한 번에!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>딜라이브 자동납부 요금 매월 할인 받는 방법!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레고에 진심인 분을 위한 혜택에 진심을 담은 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우리 가족의 안전을 지켜주는 스마트한 카드 생활!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>American Express Blue Card</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구독료 부담은 No! 요기패스 혜택은 Yes!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교통비 SAVE!! 생활서비스 할인 혜택까지~</x:t>
+    <x:t>HERITAGE Reserve(스카이패스형)</x:t>
   </x:si>
   <x:si>
     <x:t>합리적 여행자를 위한 Must Have 카드</x:t>
   </x:si>
   <x:si>
-    <x:t>GS SHOP 12%, 월 최대 5만원 할인!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>코웨이 더블 혜택! 렌탈료 할인과 적립을 동시에!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04425</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04326</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09255</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09251</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04418</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04423</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=02076</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09252</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04092</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04088</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04130</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09243</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04284</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09256</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04485</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09169</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09183</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=00996</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04095</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04550</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=02065</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09084</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04416</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09063</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04336</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04417</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04426</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04325</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04331</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04330</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09126</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09127</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09129</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09128</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09125</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화물운전자를 위한 유가보조금 및 SK주유할인 지원카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HERITAGE Smart [대한항공 마일리지형]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HERITAGE Exclusive</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BeV Ⅴ카드 (포인트형)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BeV Ⅴ카드 (스카이패스형)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HERITAGE Reserve(스카이패스형)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가치 그 이상의 VVIP 라이프</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가온플래티늄카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BeV Ⅲ 카드</x:t>
+    <x:t>의료,선택형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쇼핑,선택형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적립/할인,주유/충전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가온 플래티늄바우처카드</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1448,10 +1469,6 @@
           <hs:underlineType val="1"/>
           <hs:underlineShape val="solid"/>
           <hs:underlineColor rgb="ff0000ff"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
         </x:font>
       </mc:Choice>
       <mc:Fallback>
@@ -1463,13 +1480,23 @@
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
+    <x:font>
+      <x:name val="Calibri"/>
+      <x:sz val="10"/>
+      <x:color rgb="ff000000"/>
+      <x:b val="1"/>
+    </x:font>
+    <x:font>
+      <x:name val="Calibri"/>
+      <x:sz val="10"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
           <x:name val="Calibri"/>
           <x:sz val="10"/>
-          <x:color rgb="ff000000"/>
-          <x:b val="1"/>
+          <x:color rgb="ff1f1f1f"/>
           <hs:size val="100"/>
           <hs:ratio val="100"/>
           <hs:spacing val="0"/>
@@ -1480,28 +1507,7 @@
         <x:font>
           <x:name val="Calibri"/>
           <x:sz val="10"/>
-          <x:color rgb="ff000000"/>
-          <x:b val="1"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="Calibri"/>
-          <x:sz val="10"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="Calibri"/>
-          <x:sz val="10"/>
-          <x:color rgb="ff000000"/>
+          <x:color rgb="ff1f1f1f"/>
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -1527,26 +1533,6 @@
           <x:sz val="10"/>
           <x:color rgb="ff0000ff"/>
           <x:u/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="Calibri"/>
-          <x:sz val="10"/>
-          <x:color rgb="ff1f1f1f"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="Calibri"/>
-          <x:sz val="10"/>
-          <x:color rgb="ff1f1f1f"/>
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -1617,7 +1603,7 @@
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="13">
+  <x:cellXfs count="14">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
@@ -1656,26 +1642,29 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
+    <x:xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center"/>
+    <x:xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
   </x:cellXfs>
   <x:cellStyles count="2">
@@ -1885,8 +1874,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:G131"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A34" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="C51" activeCellId="0" sqref="C51:C51"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="D129" activeCellId="0" sqref="D129:D129"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1894,32 +1883,33 @@
     <x:col min="1" max="1" width="4.296875" bestFit="1" customWidth="1"/>
     <x:col min="2" max="2" width="36.140625" customWidth="1"/>
     <x:col min="3" max="3" width="55.85546875" customWidth="1"/>
-    <x:col min="4" max="4" width="23.28515625" customWidth="1"/>
-    <x:col min="5" max="6" width="14.5703125" customWidth="1"/>
+    <x:col min="4" max="4" width="127.25390625" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="5" width="79.28125" bestFit="1" customWidth="1"/>
+    <x:col min="6" max="6" width="23.5234375" bestFit="1" customWidth="1"/>
     <x:col min="7" max="26" width="8.7109375" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7" ht="14.19999999999999928946">
       <x:c r="A1" s="4" t="s">
-        <x:v>310</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B1" s="4" t="s">
-        <x:v>343</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="C1" s="4" t="s">
-        <x:v>353</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="D1" s="4" t="s">
-        <x:v>285</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="E1" s="4" t="s">
-        <x:v>283</x:v>
+        <x:v>408</x:v>
       </x:c>
       <x:c r="F1" s="4" t="s">
-        <x:v>284</x:v>
+        <x:v>410</x:v>
       </x:c>
       <x:c r="G1" s="5" t="s">
-        <x:v>118</x:v>
+        <x:v>161</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:7" ht="14.19999999999999928946">
@@ -1927,19 +1917,19 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="6" t="s">
-        <x:v>347</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="C2" s="6" t="s">
-        <x:v>218</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D2" s="6" t="s">
-        <x:v>52</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E2" s="6" t="s">
-        <x:v>11</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="F2" s="6" t="s">
-        <x:v>348</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="G2" s="7">
         <x:v>20000</x:v>
@@ -1950,19 +1940,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B3" s="6" t="s">
-        <x:v>198</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C3" s="6" t="s">
-        <x:v>384</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="D3" s="6" t="s">
-        <x:v>55</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E3" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="F3" s="6" t="s">
-        <x:v>348</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="G3" s="7">
         <x:v>20000</x:v>
@@ -1973,19 +1963,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B4" s="6" t="s">
-        <x:v>184</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C4" s="6" t="s">
-        <x:v>368</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="D4" s="6" t="s">
-        <x:v>45</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E4" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="F4" s="6" t="s">
-        <x:v>348</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G4" s="7">
         <x:v>25000</x:v>
@@ -1996,19 +1986,19 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B5" s="6" t="s">
-        <x:v>270</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="C5" s="6" t="s">
-        <x:v>217</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D5" s="6" t="s">
-        <x:v>54</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E5" s="6" t="s">
-        <x:v>10</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F5" s="6" t="s">
-        <x:v>348</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="G5" s="7">
         <x:v>20000</x:v>
@@ -2019,19 +2009,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B6" s="6" t="s">
-        <x:v>351</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="C6" s="6" t="s">
-        <x:v>411</x:v>
+        <x:v>447</x:v>
       </x:c>
       <x:c r="D6" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E6" s="6" t="s">
-        <x:v>17</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="F6" s="6" t="s">
-        <x:v>348</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="G6" s="7">
         <x:v>8000</x:v>
@@ -2042,19 +2032,19 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B7" s="6" t="s">
-        <x:v>185</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C7" s="6" t="s">
-        <x:v>371</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="D7" s="6" t="s">
-        <x:v>53</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E7" s="6" t="s">
-        <x:v>18</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F7" s="6" t="s">
-        <x:v>348</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="G7" s="7">
         <x:v>20000</x:v>
@@ -2065,19 +2055,19 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B8" s="6" t="s">
-        <x:v>271</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="C8" s="6" t="s">
-        <x:v>219</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D8" s="6" t="s">
-        <x:v>47</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E8" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="F8" s="6" t="s">
-        <x:v>348</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G8" s="7">
         <x:v>15000</x:v>
@@ -2088,19 +2078,19 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B9" s="6" t="s">
-        <x:v>196</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C9" s="6" t="s">
-        <x:v>369</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="D9" s="6" t="s">
-        <x:v>44</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E9" s="6" t="s">
-        <x:v>20</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F9" s="6" t="s">
-        <x:v>348</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G9" s="7">
         <x:v>15000</x:v>
@@ -2111,19 +2101,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B10" s="6" t="s">
-        <x:v>409</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="C10" s="6" t="s">
-        <x:v>365</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="D10" s="6" t="s">
-        <x:v>46</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E10" s="6" t="s">
-        <x:v>23</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="F10" s="6" t="s">
-        <x:v>348</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G10" s="7">
         <x:v>19000</x:v>
@@ -2134,19 +2124,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B11" s="6" t="s">
-        <x:v>265</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="C11" s="6" t="s">
-        <x:v>366</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="D11" s="6" t="s">
-        <x:v>48</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E11" s="6" t="s">
-        <x:v>14</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F11" s="6" t="s">
-        <x:v>348</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G11" s="7">
         <x:v>19000</x:v>
@@ -2157,19 +2147,19 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B12" s="6" t="s">
-        <x:v>274</x:v>
+        <x:v>395</x:v>
       </x:c>
       <x:c r="C12" s="6" t="s">
-        <x:v>220</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D12" s="6" t="s">
-        <x:v>49</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E12" s="6" t="s">
-        <x:v>15</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F12" s="6" t="s">
-        <x:v>348</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="G12" s="7">
         <x:v>15000</x:v>
@@ -2180,19 +2170,19 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B13" s="6" t="s">
-        <x:v>192</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C13" s="6" t="s">
-        <x:v>382</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="D13" s="6" t="s">
-        <x:v>50</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E13" s="6" t="s">
-        <x:v>21</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F13" s="6" t="s">
-        <x:v>348</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="G13" s="7">
         <x:v>15000</x:v>
@@ -2203,19 +2193,19 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B14" s="6" t="s">
-        <x:v>276</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="C14" s="6" t="s">
-        <x:v>382</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="D14" s="6" t="s">
-        <x:v>51</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E14" s="6" t="s">
-        <x:v>22</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="F14" s="6" t="s">
-        <x:v>348</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="G14" s="7">
         <x:v>30000</x:v>
@@ -2226,17 +2216,17 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B15" s="6" t="s">
-        <x:v>277</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="C15" s="7"/>
       <x:c r="D15" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="E15" s="6" t="s">
-        <x:v>6</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="F15" s="6" t="s">
-        <x:v>348</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="G15" s="7">
         <x:v>12000</x:v>
@@ -2247,19 +2237,19 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B16" s="6" t="s">
-        <x:v>275</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="C16" s="6" t="s">
-        <x:v>383</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="D16" s="6" t="s">
-        <x:v>61</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E16" s="6" t="s">
-        <x:v>7</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="F16" s="6" t="s">
-        <x:v>348</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="G16" s="7">
         <x:v>20000</x:v>
@@ -2270,19 +2260,19 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="B17" s="6" t="s">
-        <x:v>273</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="C17" s="6" t="s">
-        <x:v>266</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="D17" s="6" t="s">
-        <x:v>84</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="E17" s="6" t="s">
-        <x:v>8</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="F17" s="6" t="s">
-        <x:v>348</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="G17" s="7">
         <x:v>10000</x:v>
@@ -2293,19 +2283,19 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="B18" s="6" t="s">
-        <x:v>272</x:v>
+        <x:v>399</x:v>
       </x:c>
       <x:c r="C18" s="6" t="s">
-        <x:v>43</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D18" s="6" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E18" s="6" t="s">
-        <x:v>9</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="F18" s="6" t="s">
-        <x:v>348</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="G18" s="7">
         <x:v>20000</x:v>
@@ -2316,19 +2306,19 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B19" s="6" t="s">
-        <x:v>279</x:v>
+        <x:v>402</x:v>
       </x:c>
       <x:c r="C19" s="6" t="s">
-        <x:v>378</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="D19" s="6" t="s">
-        <x:v>68</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E19" s="6" t="s">
-        <x:v>34</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="F19" s="6" t="s">
-        <x:v>348</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="G19" s="7">
         <x:v>15000</x:v>
@@ -2339,19 +2329,19 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="B20" s="6" t="s">
-        <x:v>278</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="C20" s="6" t="s">
-        <x:v>269</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="D20" s="6" t="s">
-        <x:v>69</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E20" s="6" t="s">
-        <x:v>35</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="F20" s="6" t="s">
-        <x:v>348</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="G20" s="7">
         <x:v>20000</x:v>
@@ -2362,19 +2352,19 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="B21" s="6" t="s">
-        <x:v>282</x:v>
+        <x:v>412</x:v>
       </x:c>
       <x:c r="C21" s="6" t="s">
-        <x:v>186</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D21" s="6" t="s">
-        <x:v>70</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E21" s="6" t="s">
-        <x:v>38</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="F21" s="6" t="s">
-        <x:v>348</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="G21" s="7">
         <x:v>20000</x:v>
@@ -2385,19 +2375,19 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B22" s="6" t="s">
-        <x:v>357</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="C22" s="6" t="s">
-        <x:v>240</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D22" s="6" t="s">
-        <x:v>83</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="E22" s="6" t="s">
-        <x:v>37</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="F22" s="6" t="s">
-        <x:v>348</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="G22" s="7">
         <x:v>20000</x:v>
@@ -2408,19 +2398,19 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B23" s="6" t="s">
-        <x:v>281</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="C23" s="6" t="s">
-        <x:v>267</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="D23" s="6" t="s">
-        <x:v>87</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="E23" s="6" t="s">
-        <x:v>39</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="F23" s="6" t="s">
-        <x:v>348</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="G23" s="7">
         <x:v>20000</x:v>
@@ -2431,19 +2421,19 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B24" s="6" t="s">
-        <x:v>280</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="C24" s="6" t="s">
-        <x:v>268</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="D24" s="6" t="s">
-        <x:v>86</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E24" s="6" t="s">
-        <x:v>31</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F24" s="6" t="s">
-        <x:v>348</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="G24" s="7">
         <x:v>10000</x:v>
@@ -2454,17 +2444,17 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B25" s="6" t="s">
-        <x:v>195</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C25" s="7"/>
       <x:c r="D25" s="6" t="s">
-        <x:v>79</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="E25" s="6" t="s">
-        <x:v>40</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="F25" s="6" t="s">
-        <x:v>348</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="G25" s="7">
         <x:v>30000</x:v>
@@ -2475,19 +2465,19 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="B26" s="6" t="s">
-        <x:v>304</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="C26" s="6" t="s">
-        <x:v>222</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D26" s="6" t="s">
-        <x:v>80</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="E26" s="6" t="s">
-        <x:v>33</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="F26" s="6" t="s">
-        <x:v>348</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="G26" s="7">
         <x:v>15000</x:v>
@@ -2498,19 +2488,19 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="B27" s="6" t="s">
-        <x:v>308</x:v>
+        <x:v>423</x:v>
       </x:c>
       <x:c r="C27" s="6" t="s">
-        <x:v>223</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D27" s="6" t="s">
-        <x:v>57</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E27" s="6" t="s">
-        <x:v>32</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F27" s="6" t="s">
-        <x:v>348</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="G27" s="7">
         <x:v>15000</x:v>
@@ -2521,19 +2511,19 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B28" s="6" t="s">
-        <x:v>306</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="C28" s="6" t="s">
-        <x:v>307</x:v>
+        <x:v>419</x:v>
       </x:c>
       <x:c r="D28" s="6" t="s">
-        <x:v>58</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E28" s="6" t="s">
-        <x:v>36</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="F28" s="6" t="s">
-        <x:v>348</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="G28" s="7">
         <x:v>15000</x:v>
@@ -2544,19 +2534,19 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="B29" s="6" t="s">
-        <x:v>349</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="C29" s="6" t="s">
-        <x:v>241</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D29" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E29" s="6" t="s">
-        <x:v>41</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="F29" s="6" t="s">
-        <x:v>348</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="G29" s="7">
         <x:v>20000</x:v>
@@ -2567,22 +2557,22 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="B30" s="6" t="s">
-        <x:v>184</x:v>
+        <x:v>429</x:v>
       </x:c>
       <x:c r="C30" s="6" t="s">
-        <x:v>368</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="D30" s="6" t="s">
-        <x:v>45</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E30" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="F30" s="6" t="s">
-        <x:v>311</x:v>
-      </x:c>
-      <x:c r="G30" s="7">
-        <x:v>25000</x:v>
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="G30" s="8">
+        <x:v>100000</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:7" ht="15.75" customHeight="1">
@@ -2590,22 +2580,22 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="B31" s="6" t="s">
-        <x:v>265</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="C31" s="6" t="s">
-        <x:v>366</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="D31" s="6" t="s">
-        <x:v>48</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E31" s="6" t="s">
-        <x:v>14</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F31" s="6" t="s">
-        <x:v>311</x:v>
-      </x:c>
-      <x:c r="G31" s="7">
-        <x:v>19000</x:v>
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="G31" s="8">
+        <x:v>20000</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:7" ht="15.75" customHeight="1">
@@ -2613,22 +2603,22 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="B32" s="6" t="s">
-        <x:v>305</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C32" s="6" t="s">
-        <x:v>407</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D32" s="6" t="s">
         <x:v>59</x:v>
       </x:c>
       <x:c r="E32" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F32" s="6" t="s">
-        <x:v>311</x:v>
-      </x:c>
-      <x:c r="G32" s="7">
-        <x:v>100000</x:v>
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="G32" s="8">
+        <x:v>45000</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:7" ht="15.75" customHeight="1">
@@ -2636,22 +2626,22 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="B33" s="6" t="s">
-        <x:v>364</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="C33" s="6" t="s">
-        <x:v>381</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="D33" s="6" t="s">
-        <x:v>71</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E33" s="6" t="s">
-        <x:v>24</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="F33" s="6" t="s">
-        <x:v>311</x:v>
-      </x:c>
-      <x:c r="G33" s="7">
-        <x:v>20000</x:v>
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="G33" s="8">
+        <x:v>30000</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:7" ht="15.75" customHeight="1">
@@ -2659,22 +2649,22 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="B34" s="6" t="s">
-        <x:v>191</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C34" s="6" t="s">
-        <x:v>129</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D34" s="6" t="s">
-        <x:v>60</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E34" s="6" t="s">
-        <x:v>26</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="F34" s="6" t="s">
-        <x:v>311</x:v>
-      </x:c>
-      <x:c r="G34" s="7">
-        <x:v>45000</x:v>
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="G34" s="8">
+        <x:v>35000</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:7" ht="15.75" customHeight="1">
@@ -2682,22 +2672,22 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="B35" s="6" t="s">
-        <x:v>117</x:v>
+        <x:v>448</x:v>
       </x:c>
       <x:c r="C35" s="6" t="s">
-        <x:v>373</x:v>
+        <x:v>461</x:v>
       </x:c>
       <x:c r="D35" s="6" t="s">
-        <x:v>62</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E35" s="6" t="s">
-        <x:v>30</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F35" s="6" t="s">
-        <x:v>311</x:v>
-      </x:c>
-      <x:c r="G35" s="7">
-        <x:v>30000</x:v>
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="G35" s="8">
+        <x:v>20000</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:7" ht="15.75" customHeight="1">
@@ -2705,22 +2695,20 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="B36" s="6" t="s">
-        <x:v>187</x:v>
-      </x:c>
-      <x:c r="C36" s="6" t="s">
-        <x:v>1</x:v>
-      </x:c>
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C36" s="8"/>
       <x:c r="D36" s="6" t="s">
-        <x:v>72</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="E36" s="6" t="s">
-        <x:v>27</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="F36" s="6" t="s">
-        <x:v>311</x:v>
-      </x:c>
-      <x:c r="G36" s="7">
-        <x:v>35000</x:v>
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="G36" s="8">
+        <x:v>15000</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:7" ht="15.75" customHeight="1">
@@ -2728,22 +2716,22 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="B37" s="6" t="s">
-        <x:v>399</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="C37" s="6" t="s">
-        <x:v>412</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="D37" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E37" s="6" t="s">
-        <x:v>29</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="F37" s="6" t="s">
-        <x:v>311</x:v>
-      </x:c>
-      <x:c r="G37" s="7">
-        <x:v>20000</x:v>
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="G37" s="8">
+        <x:v>10000</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:7" ht="15.75" customHeight="1">
@@ -2751,19 +2739,21 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="B38" s="6" t="s">
-        <x:v>242</x:v>
-      </x:c>
-      <x:c r="C38" s="7"/>
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C38" s="6" t="s">
+        <x:v>25</x:v>
+      </x:c>
       <x:c r="D38" s="6" t="s">
-        <x:v>85</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E38" s="6" t="s">
-        <x:v>28</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="F38" s="6" t="s">
-        <x:v>311</x:v>
-      </x:c>
-      <x:c r="G38" s="7">
+        <x:v>463</x:v>
+      </x:c>
+      <x:c r="G38" s="8">
         <x:v>15000</x:v>
       </x:c>
     </x:row>
@@ -2772,22 +2762,22 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="B39" s="6" t="s">
-        <x:v>328</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C39" s="6" t="s">
-        <x:v>401</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D39" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E39" s="6" t="s">
-        <x:v>152</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="F39" s="6" t="s">
-        <x:v>311</x:v>
-      </x:c>
-      <x:c r="G39" s="7">
-        <x:v>10000</x:v>
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="G39" s="8">
+        <x:v>15000</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:7" ht="15.75" customHeight="1">
@@ -2795,22 +2785,22 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="B40" s="6" t="s">
-        <x:v>184</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C40" s="6" t="s">
-        <x:v>368</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D40" s="6" t="s">
-        <x:v>45</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="E40" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="F40" s="6" t="s">
-        <x:v>318</x:v>
-      </x:c>
-      <x:c r="G40" s="7">
-        <x:v>25000</x:v>
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="G40" s="8">
+        <x:v>10000</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:7" ht="15.75" customHeight="1">
@@ -2818,22 +2808,22 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="B41" s="6" t="s">
-        <x:v>197</x:v>
+        <x:v>432</x:v>
       </x:c>
       <x:c r="C41" s="6" t="s">
-        <x:v>221</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D41" s="6" t="s">
-        <x:v>63</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E41" s="6" t="s">
-        <x:v>165</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="F41" s="6" t="s">
-        <x:v>318</x:v>
-      </x:c>
-      <x:c r="G41" s="7">
-        <x:v>15000</x:v>
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="G41" s="8">
+        <x:v>17000</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:7" ht="15.75" customHeight="1">
@@ -2841,22 +2831,22 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="B42" s="6" t="s">
-        <x:v>270</x:v>
+        <x:v>434</x:v>
       </x:c>
       <x:c r="C42" s="6" t="s">
-        <x:v>225</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D42" s="6" t="s">
-        <x:v>54</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="E42" s="6" t="s">
-        <x:v>10</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="F42" s="6" t="s">
-        <x:v>318</x:v>
-      </x:c>
-      <x:c r="G42" s="7">
-        <x:v>20000</x:v>
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="G42" s="8">
+        <x:v>15000</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:7" ht="15.75" customHeight="1">
@@ -2864,22 +2854,22 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="B43" s="6" t="s">
-        <x:v>409</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="C43" s="6" t="s">
-        <x:v>365</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D43" s="6" t="s">
-        <x:v>46</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E43" s="6" t="s">
-        <x:v>23</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="F43" s="6" t="s">
-        <x:v>318</x:v>
-      </x:c>
-      <x:c r="G43" s="7">
-        <x:v>19000</x:v>
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="G43" s="8">
+        <x:v>15000</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:7" ht="15.75" customHeight="1">
@@ -2887,22 +2877,22 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="B44" s="6" t="s">
-        <x:v>265</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C44" s="6" t="s">
-        <x:v>366</x:v>
+        <x:v>443</x:v>
       </x:c>
       <x:c r="D44" s="6" t="s">
-        <x:v>48</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="E44" s="6" t="s">
-        <x:v>14</x:v>
+        <x:v>381</x:v>
       </x:c>
       <x:c r="F44" s="6" t="s">
-        <x:v>318</x:v>
-      </x:c>
-      <x:c r="G44" s="7">
-        <x:v>19000</x:v>
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="G44" s="8">
+        <x:v>25000</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:7" ht="15.75" customHeight="1">
@@ -2910,22 +2900,22 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="B45" s="6" t="s">
-        <x:v>224</x:v>
+        <x:v>439</x:v>
       </x:c>
       <x:c r="C45" s="6" t="s">
-        <x:v>188</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="D45" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E45" s="6" t="s">
-        <x:v>149</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="F45" s="6" t="s">
-        <x:v>318</x:v>
-      </x:c>
-      <x:c r="G45" s="7">
-        <x:v>15000</x:v>
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="G45" s="8">
+        <x:v>12000</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:7" ht="15.75" customHeight="1">
@@ -2933,22 +2923,22 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="B46" s="6" t="s">
-        <x:v>306</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C46" s="6" t="s">
-        <x:v>307</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="D46" s="6" t="s">
-        <x:v>58</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E46" s="6" t="s">
-        <x:v>36</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="F46" s="6" t="s">
-        <x:v>318</x:v>
-      </x:c>
-      <x:c r="G46" s="7">
-        <x:v>15000</x:v>
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="G46" s="8">
+        <x:v>12000</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:7" ht="15.75" customHeight="1">
@@ -2956,22 +2946,22 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="B47" s="6" t="s">
-        <x:v>189</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="C47" s="6" t="s">
-        <x:v>190</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D47" s="6" t="s">
-        <x:v>81</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E47" s="6" t="s">
-        <x:v>150</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="F47" s="6" t="s">
-        <x:v>318</x:v>
-      </x:c>
-      <x:c r="G47" s="7">
-        <x:v>10000</x:v>
+        <x:v>337</x:v>
+      </x:c>
+      <x:c r="G47" s="8">
+        <x:v>20000</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:7" ht="15.75" customHeight="1">
@@ -2979,22 +2969,22 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="B48" s="6" t="s">
-        <x:v>320</x:v>
+        <x:v>440</x:v>
       </x:c>
       <x:c r="C48" s="6" t="s">
-        <x:v>132</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="D48" s="6" t="s">
-        <x:v>67</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E48" s="6" t="s">
-        <x:v>134</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="F48" s="6" t="s">
-        <x:v>318</x:v>
-      </x:c>
-      <x:c r="G48" s="7">
-        <x:v>17000</x:v>
+        <x:v>337</x:v>
+      </x:c>
+      <x:c r="G48" s="8">
+        <x:v>20000</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:7" ht="15.75" customHeight="1">
@@ -3002,22 +2992,22 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="B49" s="6" t="s">
-        <x:v>321</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="C49" s="6" t="s">
-        <x:v>226</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="D49" s="6" t="s">
-        <x:v>88</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E49" s="6" t="s">
-        <x:v>146</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="F49" s="6" t="s">
-        <x:v>318</x:v>
-      </x:c>
-      <x:c r="G49" s="7">
-        <x:v>15000</x:v>
+        <x:v>337</x:v>
+      </x:c>
+      <x:c r="G49" s="8">
+        <x:v>30000</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:7" ht="15.75" customHeight="1">
@@ -3025,22 +3015,22 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="B50" s="6" t="s">
-        <x:v>374</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C50" s="6" t="s">
-        <x:v>130</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D50" s="6" t="s">
-        <x:v>64</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="E50" s="6" t="s">
-        <x:v>161</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="F50" s="6" t="s">
-        <x:v>318</x:v>
-      </x:c>
-      <x:c r="G50" s="7">
-        <x:v>15000</x:v>
+        <x:v>337</x:v>
+      </x:c>
+      <x:c r="G50" s="8">
+        <x:v>30000</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:7" ht="15.75" customHeight="1">
@@ -3048,22 +3038,22 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="B51" s="6" t="s">
-        <x:v>193</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="C51" s="6" t="s">
-        <x:v>413</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D51" s="6" t="s">
-        <x:v>82</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="E51" s="6" t="s">
-        <x:v>145</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="F51" s="6" t="s">
-        <x:v>318</x:v>
-      </x:c>
-      <x:c r="G51" s="7">
-        <x:v>25000</x:v>
+        <x:v>337</x:v>
+      </x:c>
+      <x:c r="G51" s="8">
+        <x:v>20000</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:7" ht="15.75" customHeight="1">
@@ -3071,21 +3061,21 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="B52" s="6" t="s">
-        <x:v>322</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C52" s="6" t="s">
-        <x:v>393</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="D52" s="6" t="s">
-        <x:v>65</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="E52" s="6" t="s">
-        <x:v>148</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="F52" s="6" t="s">
-        <x:v>318</x:v>
-      </x:c>
-      <x:c r="G52" s="7">
+        <x:v>337</x:v>
+      </x:c>
+      <x:c r="G52" s="8">
         <x:v>12000</x:v>
       </x:c>
     </x:row>
@@ -3094,21 +3084,21 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="B53" s="6" t="s">
-        <x:v>194</x:v>
+        <x:v>431</x:v>
       </x:c>
       <x:c r="C53" s="6" t="s">
-        <x:v>392</x:v>
+        <x:v>445</x:v>
       </x:c>
       <x:c r="D53" s="6" t="s">
-        <x:v>66</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="E53" s="6" t="s">
-        <x:v>162</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="F53" s="6" t="s">
-        <x:v>318</x:v>
-      </x:c>
-      <x:c r="G53" s="7">
+        <x:v>337</x:v>
+      </x:c>
+      <x:c r="G53" s="8">
         <x:v>12000</x:v>
       </x:c>
     </x:row>
@@ -3117,22 +3107,22 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="B54" s="6" t="s">
-        <x:v>349</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C54" s="6" t="s">
-        <x:v>241</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="D54" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="E54" s="6" t="s">
-        <x:v>41</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="F54" s="6" t="s">
-        <x:v>318</x:v>
-      </x:c>
-      <x:c r="G54" s="7">
-        <x:v>20000</x:v>
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="G54" s="8">
+        <x:v>15000</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:7" ht="15.75" customHeight="1">
@@ -3140,22 +3130,22 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="B55" s="6" t="s">
-        <x:v>361</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="C55" s="6" t="s">
-        <x:v>218</x:v>
+        <x:v>450</x:v>
       </x:c>
       <x:c r="D55" s="6" t="s">
-        <x:v>52</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="E55" s="6" t="s">
-        <x:v>11</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="F55" s="6" t="s">
-        <x:v>359</x:v>
-      </x:c>
-      <x:c r="G55" s="7">
-        <x:v>20000</x:v>
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="G55" s="8">
+        <x:v>15000</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:7" ht="15.75" customHeight="1">
@@ -3163,22 +3153,22 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="B56" s="6" t="s">
-        <x:v>319</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C56" s="6" t="s">
-        <x:v>384</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D56" s="6" t="s">
-        <x:v>55</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="E56" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="F56" s="6" t="s">
-        <x:v>359</x:v>
-      </x:c>
-      <x:c r="G56" s="7">
-        <x:v>20000</x:v>
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="G56" s="8">
+        <x:v>15000</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:7" ht="15.75" customHeight="1">
@@ -3186,22 +3176,22 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="B57" s="6" t="s">
-        <x:v>409</x:v>
+        <x:v>437</x:v>
       </x:c>
       <x:c r="C57" s="6" t="s">
-        <x:v>365</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="D57" s="6" t="s">
-        <x:v>46</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="E57" s="6" t="s">
-        <x:v>23</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="F57" s="6" t="s">
-        <x:v>359</x:v>
-      </x:c>
-      <x:c r="G57" s="7">
-        <x:v>19000</x:v>
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="G57" s="8">
+        <x:v>15000</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:7" ht="15.75" customHeight="1">
@@ -3209,22 +3199,22 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="B58" s="6" t="s">
-        <x:v>324</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C58" s="6" t="s">
-        <x:v>119</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="D58" s="6" t="s">
-        <x:v>109</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="E58" s="6" t="s">
-        <x:v>151</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="F58" s="6" t="s">
-        <x:v>359</x:v>
-      </x:c>
-      <x:c r="G58" s="7">
-        <x:v>30000</x:v>
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="G58" s="8">
+        <x:v>15000</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:7" ht="15.75" customHeight="1">
@@ -3232,22 +3222,22 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="B59" s="6" t="s">
-        <x:v>204</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="C59" s="6" t="s">
-        <x:v>131</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D59" s="6" t="s">
-        <x:v>110</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="E59" s="6" t="s">
-        <x:v>155</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="F59" s="6" t="s">
-        <x:v>359</x:v>
-      </x:c>
-      <x:c r="G59" s="7">
-        <x:v>30000</x:v>
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="G59" s="8">
+        <x:v>15000</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:7" ht="15.75" customHeight="1">
@@ -3255,21 +3245,21 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="B60" s="6" t="s">
-        <x:v>274</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C60" s="6" t="s">
-        <x:v>220</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="D60" s="6" t="s">
-        <x:v>49</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="E60" s="6" t="s">
-        <x:v>15</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="F60" s="6" t="s">
-        <x:v>359</x:v>
-      </x:c>
-      <x:c r="G60" s="7">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="G60" s="8">
         <x:v>15000</x:v>
       </x:c>
     </x:row>
@@ -3278,22 +3268,22 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="B61" s="6" t="s">
-        <x:v>212</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="C61" s="6" t="s">
-        <x:v>133</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D61" s="6" t="s">
-        <x:v>103</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="E61" s="6" t="s">
-        <x:v>135</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="F61" s="6" t="s">
-        <x:v>359</x:v>
-      </x:c>
-      <x:c r="G61" s="7">
-        <x:v>20000</x:v>
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="G61" s="8">
+        <x:v>15000</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:7" ht="15.75" customHeight="1">
@@ -3301,22 +3291,22 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="B62" s="6" t="s">
-        <x:v>227</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C62" s="6" t="s">
-        <x:v>391</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="D62" s="6" t="s">
-        <x:v>111</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="E62" s="6" t="s">
-        <x:v>136</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="F62" s="6" t="s">
-        <x:v>359</x:v>
-      </x:c>
-      <x:c r="G62" s="7">
-        <x:v>12000</x:v>
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="G62" s="8">
+        <x:v>15000</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:7" ht="15.75" customHeight="1">
@@ -3324,22 +3314,22 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="B63" s="6" t="s">
-        <x:v>323</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C63" s="6" t="s">
-        <x:v>405</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="D63" s="6" t="s">
-        <x:v>104</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="E63" s="6" t="s">
-        <x:v>142</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="F63" s="6" t="s">
-        <x:v>359</x:v>
-      </x:c>
-      <x:c r="G63" s="7">
-        <x:v>12000</x:v>
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="G63" s="8">
+        <x:v>30000</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:7" ht="15.75" customHeight="1">
@@ -3347,21 +3337,21 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="B64" s="6" t="s">
-        <x:v>232</x:v>
+        <x:v>407</x:v>
       </x:c>
       <x:c r="C64" s="6" t="s">
-        <x:v>375</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="D64" s="6" t="s">
-        <x:v>112</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="E64" s="6" t="s">
-        <x:v>153</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="F64" s="6" t="s">
-        <x:v>317</x:v>
-      </x:c>
-      <x:c r="G64" s="7">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="G64" s="8">
         <x:v>15000</x:v>
       </x:c>
     </x:row>
@@ -3370,22 +3360,22 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="B65" s="6" t="s">
-        <x:v>352</x:v>
+        <x:v>405</x:v>
       </x:c>
       <x:c r="C65" s="6" t="s">
-        <x:v>404</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="D65" s="6" t="s">
-        <x:v>113</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="E65" s="6" t="s">
-        <x:v>156</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="F65" s="6" t="s">
-        <x:v>317</x:v>
-      </x:c>
-      <x:c r="G65" s="7">
-        <x:v>15000</x:v>
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="G65" s="8">
+        <x:v>20000</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:7" ht="15.75" customHeight="1">
@@ -3393,21 +3383,21 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="B66" s="6" t="s">
-        <x:v>201</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="C66" s="6" t="s">
-        <x:v>228</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D66" s="6" t="s">
-        <x:v>114</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="E66" s="6" t="s">
-        <x:v>157</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="F66" s="6" t="s">
-        <x:v>317</x:v>
-      </x:c>
-      <x:c r="G66" s="7">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="G66" s="8">
         <x:v>15000</x:v>
       </x:c>
     </x:row>
@@ -3416,21 +3406,21 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="B67" s="6" t="s">
-        <x:v>325</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="C67" s="6" t="s">
-        <x:v>376</x:v>
+        <x:v>446</x:v>
       </x:c>
       <x:c r="D67" s="6" t="s">
-        <x:v>116</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="E67" s="6" t="s">
-        <x:v>143</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="F67" s="6" t="s">
-        <x:v>317</x:v>
-      </x:c>
-      <x:c r="G67" s="7">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="G67" s="8">
         <x:v>15000</x:v>
       </x:c>
     </x:row>
@@ -3439,22 +3429,22 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="B68" s="6" t="s">
-        <x:v>326</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="C68" s="6" t="s">
-        <x:v>370</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D68" s="6" t="s">
-        <x:v>100</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="E68" s="6" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="F68" s="6" t="s">
         <x:v>154</x:v>
       </x:c>
-      <x:c r="F68" s="6" t="s">
-        <x:v>317</x:v>
-      </x:c>
-      <x:c r="G68" s="7">
-        <x:v>15000</x:v>
+      <x:c r="G68" s="8">
+        <x:v>20000</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:7" ht="15.75" customHeight="1">
@@ -3462,21 +3452,21 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="B69" s="6" t="s">
-        <x:v>209</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="C69" s="6" t="s">
-        <x:v>206</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D69" s="6" t="s">
-        <x:v>105</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="E69" s="6" t="s">
-        <x:v>140</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="F69" s="6" t="s">
-        <x:v>317</x:v>
-      </x:c>
-      <x:c r="G69" s="7">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="G69" s="8">
         <x:v>15000</x:v>
       </x:c>
     </x:row>
@@ -3485,21 +3475,21 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="B70" s="6" t="s">
-        <x:v>207</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="C70" s="6" t="s">
-        <x:v>372</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="D70" s="6" t="s">
-        <x:v>89</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="E70" s="6" t="s">
-        <x:v>158</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="F70" s="6" t="s">
-        <x:v>317</x:v>
-      </x:c>
-      <x:c r="G70" s="7">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="G70" s="8">
         <x:v>15000</x:v>
       </x:c>
     </x:row>
@@ -3508,21 +3498,21 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="B71" s="6" t="s">
-        <x:v>327</x:v>
+        <x:v>401</x:v>
       </x:c>
       <x:c r="C71" s="6" t="s">
-        <x:v>206</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="D71" s="6" t="s">
-        <x:v>91</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="E71" s="6" t="s">
+        <x:v>366</x:v>
+      </x:c>
+      <x:c r="F71" s="6" t="s">
         <x:v>159</x:v>
       </x:c>
-      <x:c r="F71" s="6" t="s">
-        <x:v>317</x:v>
-      </x:c>
-      <x:c r="G71" s="7">
+      <x:c r="G71" s="8">
         <x:v>15000</x:v>
       </x:c>
     </x:row>
@@ -3531,22 +3521,22 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="B72" s="6" t="s">
-        <x:v>205</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="C72" s="6" t="s">
-        <x:v>402</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D72" s="6" t="s">
-        <x:v>106</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="E72" s="6" t="s">
-        <x:v>137</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="F72" s="6" t="s">
-        <x:v>317</x:v>
-      </x:c>
-      <x:c r="G72" s="7">
-        <x:v>15000</x:v>
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="G72" s="8">
+        <x:v>35000</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:7" ht="15.75" customHeight="1">
@@ -3554,22 +3544,22 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="B73" s="6" t="s">
-        <x:v>202</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="C73" s="6" t="s">
-        <x:v>403</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="D73" s="6" t="s">
-        <x:v>92</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="E73" s="6" t="s">
-        <x:v>164</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="F73" s="6" t="s">
-        <x:v>317</x:v>
-      </x:c>
-      <x:c r="G73" s="7">
-        <x:v>30000</x:v>
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="G73" s="8">
+        <x:v>20000</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:7" ht="15.75" customHeight="1">
@@ -3577,22 +3567,22 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="B74" s="6" t="s">
-        <x:v>286</x:v>
+        <x:v>409</x:v>
       </x:c>
       <x:c r="C74" s="6" t="s">
-        <x:v>408</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="D74" s="6" t="s">
-        <x:v>115</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E74" s="6" t="s">
-        <x:v>160</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="F74" s="6" t="s">
-        <x:v>317</x:v>
-      </x:c>
-      <x:c r="G74" s="7">
-        <x:v>15000</x:v>
+        <x:v>462</x:v>
+      </x:c>
+      <x:c r="G74" s="8">
+        <x:v>20000</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:7" ht="15.75" customHeight="1">
@@ -3600,22 +3590,22 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="B75" s="6" t="s">
-        <x:v>289</x:v>
+        <x:v>415</x:v>
       </x:c>
       <x:c r="C75" s="6" t="s">
-        <x:v>372</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D75" s="6" t="s">
-        <x:v>107</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="E75" s="6" t="s">
-        <x:v>163</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="F75" s="6" t="s">
-        <x:v>317</x:v>
-      </x:c>
-      <x:c r="G75" s="7">
-        <x:v>20000</x:v>
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="G75" s="8">
+        <x:v>13000</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:7" ht="15.75" customHeight="1">
@@ -3623,22 +3613,22 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="B76" s="6" t="s">
-        <x:v>210</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C76" s="6" t="s">
-        <x:v>206</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D76" s="6" t="s">
-        <x:v>90</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E76" s="6" t="s">
-        <x:v>138</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="F76" s="6" t="s">
-        <x:v>317</x:v>
-      </x:c>
-      <x:c r="G76" s="7">
-        <x:v>15000</x:v>
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="G76" s="8">
+        <x:v>30000</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:7" ht="15.75" customHeight="1">
@@ -3646,21 +3636,21 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="B77" s="6" t="s">
-        <x:v>345</x:v>
+        <x:v>406</x:v>
       </x:c>
       <x:c r="C77" s="6" t="s">
-        <x:v>406</x:v>
+        <x:v>414</x:v>
       </x:c>
       <x:c r="D77" s="6" t="s">
-        <x:v>94</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E77" s="6" t="s">
-        <x:v>139</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="F77" s="6" t="s">
-        <x:v>317</x:v>
-      </x:c>
-      <x:c r="G77" s="7">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="G77" s="8">
         <x:v>15000</x:v>
       </x:c>
     </x:row>
@@ -3669,22 +3659,22 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="B78" s="6" t="s">
-        <x:v>213</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C78" s="6" t="s">
-        <x:v>229</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="D78" s="6" t="s">
-        <x:v>93</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="E78" s="6" t="s">
-        <x:v>141</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="F78" s="6" t="s">
-        <x:v>317</x:v>
-      </x:c>
-      <x:c r="G78" s="7">
-        <x:v>20000</x:v>
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="G78" s="8">
+        <x:v>15000</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:7" ht="15.75" customHeight="1">
@@ -3692,22 +3682,22 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="B79" s="6" t="s">
-        <x:v>355</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="C79" s="6" t="s">
-        <x:v>230</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="D79" s="6" t="s">
-        <x:v>102</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="E79" s="6" t="s">
-        <x:v>101</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="F79" s="6" t="s">
-        <x:v>315</x:v>
-      </x:c>
-      <x:c r="G79" s="7">
-        <x:v>15000</x:v>
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="G79" s="8">
+        <x:v>20000</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:7" ht="15.75" customHeight="1">
@@ -3715,21 +3705,21 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="B80" s="6" t="s">
-        <x:v>287</x:v>
+        <x:v>420</x:v>
       </x:c>
       <x:c r="C80" s="6" t="s">
-        <x:v>377</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D80" s="6" t="s">
-        <x:v>95</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="E80" s="6" t="s">
-        <x:v>144</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="F80" s="6" t="s">
-        <x:v>315</x:v>
-      </x:c>
-      <x:c r="G80" s="7">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="G80" s="8">
         <x:v>15000</x:v>
       </x:c>
     </x:row>
@@ -3738,22 +3728,22 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="B81" s="6" t="s">
-        <x:v>288</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="C81" s="6" t="s">
-        <x:v>379</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="D81" s="6" t="s">
-        <x:v>96</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="E81" s="6" t="s">
-        <x:v>147</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="F81" s="6" t="s">
-        <x:v>315</x:v>
-      </x:c>
-      <x:c r="G81" s="7">
-        <x:v>15000</x:v>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="G81" s="8">
+        <x:v>12000</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:7" ht="15.75" customHeight="1">
@@ -3761,22 +3751,22 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="B82" s="6" t="s">
-        <x:v>358</x:v>
+        <x:v>416</x:v>
       </x:c>
       <x:c r="C82" s="6" t="s">
-        <x:v>231</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D82" s="6" t="s">
-        <x:v>99</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="E82" s="6" t="s">
-        <x:v>182</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="F82" s="6" t="s">
-        <x:v>315</x:v>
-      </x:c>
-      <x:c r="G82" s="7">
-        <x:v>35000</x:v>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="G82" s="8">
+        <x:v>15000</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:7" ht="15.75" customHeight="1">
@@ -3784,22 +3774,22 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="B83" s="6" t="s">
-        <x:v>214</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C83" s="6" t="s">
-        <x:v>211</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D83" s="6" t="s">
-        <x:v>97</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="E83" s="6" t="s">
-        <x:v>173</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="F83" s="6" t="s">
-        <x:v>316</x:v>
-      </x:c>
-      <x:c r="G83" s="7">
-        <x:v>20000</x:v>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="G83" s="8">
+        <x:v>17000</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:7" ht="15.75" customHeight="1">
@@ -3807,22 +3797,22 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="B84" s="6" t="s">
-        <x:v>292</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="C84" s="6" t="s">
-        <x:v>394</x:v>
+        <x:v>449</x:v>
       </x:c>
       <x:c r="D84" s="6" t="s">
-        <x:v>108</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="E84" s="6" t="s">
-        <x:v>172</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="F84" s="6" t="s">
-        <x:v>316</x:v>
-      </x:c>
-      <x:c r="G84" s="7">
-        <x:v>20000</x:v>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="G84" s="8">
+        <x:v>30000</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:7" ht="15.75" customHeight="1">
@@ -3830,22 +3820,22 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="B85" s="6" t="s">
-        <x:v>293</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C85" s="6" t="s">
-        <x:v>335</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="D85" s="6" t="s">
-        <x:v>98</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="E85" s="6" t="s">
-        <x:v>174</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="F85" s="6" t="s">
-        <x:v>316</x:v>
-      </x:c>
-      <x:c r="G85" s="7">
-        <x:v>13000</x:v>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="G85" s="8">
+        <x:v>14000</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:7" ht="15.75" customHeight="1">
@@ -3853,22 +3843,22 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="B86" s="6" t="s">
-        <x:v>215</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="C86" s="6" t="s">
-        <x:v>233</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="D86" s="6" t="s">
-        <x:v>4</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="E86" s="6" t="s">
-        <x:v>168</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="F86" s="6" t="s">
-        <x:v>316</x:v>
-      </x:c>
-      <x:c r="G86" s="7">
-        <x:v>30000</x:v>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="G86" s="8">
+        <x:v>15000</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:7" ht="15.75" customHeight="1">
@@ -3876,21 +3866,21 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="B87" s="6" t="s">
-        <x:v>271</x:v>
+        <x:v>428</x:v>
       </x:c>
       <x:c r="C87" s="6" t="s">
-        <x:v>219</x:v>
+        <x:v>444</x:v>
       </x:c>
       <x:c r="D87" s="6" t="s">
-        <x:v>47</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="E87" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="F87" s="6" t="s">
-        <x:v>312</x:v>
-      </x:c>
-      <x:c r="G87" s="7">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="G87" s="8">
         <x:v>15000</x:v>
       </x:c>
     </x:row>
@@ -3899,21 +3889,21 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="B88" s="6" t="s">
-        <x:v>196</x:v>
+        <x:v>425</x:v>
       </x:c>
       <x:c r="C88" s="6" t="s">
-        <x:v>369</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D88" s="6" t="s">
-        <x:v>44</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="E88" s="6" t="s">
-        <x:v>20</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="F88" s="6" t="s">
-        <x:v>312</x:v>
-      </x:c>
-      <x:c r="G88" s="7">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="G88" s="8">
         <x:v>15000</x:v>
       </x:c>
     </x:row>
@@ -3922,21 +3912,21 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="B89" s="6" t="s">
-        <x:v>291</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="C89" s="6" t="s">
-        <x:v>290</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D89" s="6" t="s">
-        <x:v>5</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="E89" s="6" t="s">
-        <x:v>169</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="F89" s="6" t="s">
-        <x:v>312</x:v>
-      </x:c>
-      <x:c r="G89" s="7">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="G89" s="8">
         <x:v>15000</x:v>
       </x:c>
     </x:row>
@@ -3945,21 +3935,21 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="B90" s="6" t="s">
-        <x:v>200</x:v>
+        <x:v>417</x:v>
       </x:c>
       <x:c r="C90" s="6" t="s">
-        <x:v>410</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D90" s="6" t="s">
-        <x:v>427</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="E90" s="6" t="s">
-        <x:v>180</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="F90" s="6" t="s">
-        <x:v>312</x:v>
-      </x:c>
-      <x:c r="G90" s="7">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="G90" s="8">
         <x:v>15000</x:v>
       </x:c>
     </x:row>
@@ -3968,22 +3958,22 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="B91" s="6" t="s">
-        <x:v>362</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="C91" s="6" t="s">
-        <x:v>388</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D91" s="6" t="s">
-        <x:v>438</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="E91" s="6" t="s">
-        <x:v>176</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="F91" s="6" t="s">
-        <x:v>312</x:v>
-      </x:c>
-      <x:c r="G91" s="7">
-        <x:v>20000</x:v>
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="G91" s="8">
+        <x:v>15000</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:7" ht="15.75" customHeight="1">
@@ -3991,21 +3981,21 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="B92" s="6" t="s">
-        <x:v>295</x:v>
+        <x:v>422</x:v>
       </x:c>
       <x:c r="C92" s="6" t="s">
-        <x:v>333</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D92" s="6" t="s">
-        <x:v>419</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="E92" s="6" t="s">
-        <x:v>170</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="F92" s="6" t="s">
-        <x:v>313</x:v>
-      </x:c>
-      <x:c r="G92" s="7">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="G92" s="8">
         <x:v>15000</x:v>
       </x:c>
     </x:row>
@@ -4014,22 +4004,22 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="B93" s="6" t="s">
-        <x:v>216</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="C93" s="6" t="s">
-        <x:v>389</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="D93" s="6" t="s">
-        <x:v>440</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="E93" s="6" t="s">
-        <x:v>181</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="F93" s="6" t="s">
-        <x:v>313</x:v>
-      </x:c>
-      <x:c r="G93" s="7">
-        <x:v>12000</x:v>
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="G93" s="8">
+        <x:v>30000</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:7" ht="15.75" customHeight="1">
@@ -4037,22 +4027,22 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="B94" s="6" t="s">
-        <x:v>294</x:v>
+        <x:v>430</x:v>
       </x:c>
       <x:c r="C94" s="6" t="s">
-        <x:v>234</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="D94" s="6" t="s">
-        <x:v>439</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="E94" s="6" t="s">
-        <x:v>171</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="F94" s="6" t="s">
-        <x:v>313</x:v>
-      </x:c>
-      <x:c r="G94" s="7">
-        <x:v>15000</x:v>
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="G94" s="8">
+        <x:v>20000</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:7" ht="15.75" customHeight="1">
@@ -4060,22 +4050,22 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B95" s="6" t="s">
-        <x:v>199</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="C95" s="6" t="s">
-        <x:v>333</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D95" s="6" t="s">
-        <x:v>437</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="E95" s="6" t="s">
-        <x:v>175</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="F95" s="6" t="s">
-        <x:v>313</x:v>
-      </x:c>
-      <x:c r="G95" s="7">
-        <x:v>17000</x:v>
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="G95" s="8">
+        <x:v>30000</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:7" ht="15.75" customHeight="1">
@@ -4083,22 +4073,22 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="B96" s="6" t="s">
-        <x:v>344</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="C96" s="6" t="s">
-        <x:v>414</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D96" s="6" t="s">
-        <x:v>420</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="E96" s="6" t="s">
-        <x:v>177</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="F96" s="6" t="s">
-        <x:v>313</x:v>
-      </x:c>
-      <x:c r="G96" s="7">
-        <x:v>30000</x:v>
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="G96" s="8">
+        <x:v>20000</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="1:7" ht="15.75" customHeight="1">
@@ -4106,22 +4096,22 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B97" s="6" t="s">
-        <x:v>203</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="C97" s="6" t="s">
-        <x:v>386</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="D97" s="6" t="s">
-        <x:v>441</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="E97" s="6" t="s">
-        <x:v>178</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="F97" s="6" t="s">
-        <x:v>313</x:v>
-      </x:c>
-      <x:c r="G97" s="7">
-        <x:v>14000</x:v>
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="G97" s="8">
+        <x:v>32000</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:7" ht="15.75" customHeight="1">
@@ -4129,22 +4119,22 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B98" s="6" t="s">
-        <x:v>360</x:v>
+        <x:v>421</x:v>
       </x:c>
       <x:c r="C98" s="6" t="s">
-        <x:v>367</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D98" s="6" t="s">
-        <x:v>429</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="E98" s="6" t="s">
-        <x:v>179</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="F98" s="6" t="s">
-        <x:v>313</x:v>
-      </x:c>
-      <x:c r="G98" s="7">
-        <x:v>15000</x:v>
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="G98" s="8">
+        <x:v>20000</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:7" ht="15.75" customHeight="1">
@@ -4152,22 +4142,22 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B99" s="6" t="s">
-        <x:v>300</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="C99" s="6" t="s">
-        <x:v>400</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D99" s="6" t="s">
-        <x:v>415</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="E99" s="6" t="s">
-        <x:v>183</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="F99" s="6" t="s">
-        <x:v>313</x:v>
-      </x:c>
-      <x:c r="G99" s="7">
-        <x:v>15000</x:v>
+        <x:v>335</x:v>
+      </x:c>
+      <x:c r="G99" s="8">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:7" ht="15.75" customHeight="1">
@@ -4175,22 +4165,22 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B100" s="6" t="s">
-        <x:v>298</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="C100" s="6" t="s">
-        <x:v>235</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D100" s="6" t="s">
-        <x:v>416</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="E100" s="6" t="s">
-        <x:v>166</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="F100" s="6" t="s">
-        <x:v>313</x:v>
-      </x:c>
-      <x:c r="G100" s="7">
-        <x:v>15000</x:v>
+        <x:v>335</x:v>
+      </x:c>
+      <x:c r="G100" s="8">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:7" ht="15.75" customHeight="1">
@@ -4198,22 +4188,22 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B101" s="6" t="s">
-        <x:v>350</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="C101" s="6" t="s">
-        <x:v>234</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="D101" s="6" t="s">
-        <x:v>442</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="E101" s="6" t="s">
-        <x:v>167</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="F101" s="6" t="s">
-        <x:v>313</x:v>
-      </x:c>
-      <x:c r="G101" s="7">
-        <x:v>15000</x:v>
+        <x:v>335</x:v>
+      </x:c>
+      <x:c r="G101" s="8">
+        <x:v>5000</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:7" ht="15.75" customHeight="1">
@@ -4221,22 +4211,22 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="B102" s="6" t="s">
-        <x:v>299</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="C102" s="6" t="s">
-        <x:v>234</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D102" s="6" t="s">
-        <x:v>443</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="E102" s="6" t="s">
-        <x:v>252</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="F102" s="6" t="s">
-        <x:v>313</x:v>
-      </x:c>
-      <x:c r="G102" s="7">
-        <x:v>15000</x:v>
+        <x:v>335</x:v>
+      </x:c>
+      <x:c r="G102" s="8">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:7" ht="15.75" customHeight="1">
@@ -4244,22 +4234,22 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B103" s="6" t="s">
-        <x:v>296</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C103" s="6" t="s">
-        <x:v>234</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D103" s="6" t="s">
-        <x:v>444</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E103" s="6" t="s">
-        <x:v>255</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="F103" s="6" t="s">
-        <x:v>313</x:v>
-      </x:c>
-      <x:c r="G103" s="7">
-        <x:v>15000</x:v>
+        <x:v>335</x:v>
+      </x:c>
+      <x:c r="G103" s="8">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="104" spans="1:7" ht="15.75" customHeight="1">
@@ -4267,22 +4257,22 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B104" s="6" t="s">
-        <x:v>197</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C104" s="6" t="s">
-        <x:v>221</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D104" s="6" t="s">
-        <x:v>63</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="E104" s="6" t="s">
-        <x:v>165</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="F104" s="6" t="s">
-        <x:v>314</x:v>
-      </x:c>
-      <x:c r="G104" s="7">
-        <x:v>15000</x:v>
+        <x:v>335</x:v>
+      </x:c>
+      <x:c r="G104" s="8">
+        <x:v>10000</x:v>
       </x:c>
     </x:row>
     <x:row r="105" spans="1:7" ht="15.75" customHeight="1">
@@ -4290,22 +4280,22 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B105" s="6" t="s">
-        <x:v>297</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="C105" s="6" t="s">
-        <x:v>236</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="D105" s="6" t="s">
-        <x:v>431</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="E105" s="6" t="s">
-        <x:v>249</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="F105" s="6" t="s">
-        <x:v>314</x:v>
-      </x:c>
-      <x:c r="G105" s="7">
-        <x:v>15000</x:v>
+        <x:v>335</x:v>
+      </x:c>
+      <x:c r="G105" s="8">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:7" ht="15.75" customHeight="1">
@@ -4313,22 +4303,22 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="B106" s="6" t="s">
-        <x:v>208</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="C106" s="6" t="s">
-        <x:v>390</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="D106" s="6" t="s">
-        <x:v>428</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="E106" s="6" t="s">
-        <x:v>247</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="F106" s="6" t="s">
-        <x:v>314</x:v>
-      </x:c>
-      <x:c r="G106" s="7">
-        <x:v>30000</x:v>
+        <x:v>335</x:v>
+      </x:c>
+      <x:c r="G106" s="8">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="107" spans="1:7" ht="15.75" customHeight="1">
@@ -4336,22 +4326,22 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="B107" s="6" t="s">
-        <x:v>303</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="C107" s="6" t="s">
-        <x:v>390</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D107" s="6" t="s">
-        <x:v>417</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="E107" s="6" t="s">
-        <x:v>254</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="F107" s="6" t="s">
-        <x:v>314</x:v>
-      </x:c>
-      <x:c r="G107" s="7">
-        <x:v>20000</x:v>
+        <x:v>335</x:v>
+      </x:c>
+      <x:c r="G107" s="8">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="108" spans="1:7" ht="15.75" customHeight="1">
@@ -4359,91 +4349,91 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="B108" s="6" t="s">
-        <x:v>309</x:v>
-      </x:c>
-      <x:c r="C108" s="6" t="s">
-        <x:v>0</x:v>
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C108" s="9" t="s">
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D108" s="6" t="s">
-        <x:v>418</x:v>
-      </x:c>
-      <x:c r="E108" s="6" t="s">
-        <x:v>246</x:v>
-      </x:c>
-      <x:c r="F108" s="6" t="s">
-        <x:v>314</x:v>
-      </x:c>
-      <x:c r="G108" s="7">
-        <x:v>30000</x:v>
+        <x:v>260</x:v>
+      </x:c>
+      <x:c r="E108" s="10" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="F108" s="8" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="G108" s="8">
+        <x:v>2000000</x:v>
       </x:c>
     </x:row>
     <x:row r="109" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A109" s="6">
         <x:v>108</x:v>
       </x:c>
-      <x:c r="B109" s="6" t="s">
-        <x:v>301</x:v>
-      </x:c>
-      <x:c r="C109" s="6" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D109" s="6" t="s">
-        <x:v>426</x:v>
-      </x:c>
-      <x:c r="E109" s="6" t="s">
-        <x:v>253</x:v>
-      </x:c>
-      <x:c r="F109" s="6" t="s">
-        <x:v>314</x:v>
-      </x:c>
-      <x:c r="G109" s="7">
-        <x:v>20000</x:v>
+      <x:c r="B109" s="9" t="s">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="C109" s="9" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D109" s="8" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="E109" s="8" t="s">
+        <x:v>390</x:v>
+      </x:c>
+      <x:c r="F109" s="8" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="G109" s="8">
+        <x:v>800000</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A110" s="6">
         <x:v>109</x:v>
       </x:c>
-      <x:c r="B110" s="6" t="s">
-        <x:v>338</x:v>
-      </x:c>
-      <x:c r="C110" s="6" t="s">
-        <x:v>380</x:v>
-      </x:c>
-      <x:c r="D110" s="6" t="s">
-        <x:v>422</x:v>
-      </x:c>
-      <x:c r="E110" s="6" t="s">
-        <x:v>251</x:v>
-      </x:c>
-      <x:c r="F110" s="6" t="s">
-        <x:v>314</x:v>
-      </x:c>
-      <x:c r="G110" s="7">
-        <x:v>32000</x:v>
+      <x:c r="B110" s="9" t="s">
+        <x:v>460</x:v>
+      </x:c>
+      <x:c r="C110" s="9" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D110" s="8" t="s">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="E110" s="8" t="s">
+        <x:v>384</x:v>
+      </x:c>
+      <x:c r="F110" s="8" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="G110" s="8">
+        <x:v>800000</x:v>
       </x:c>
     </x:row>
     <x:row r="111" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A111" s="6">
         <x:v>110</x:v>
       </x:c>
-      <x:c r="B111" s="6" t="s">
-        <x:v>302</x:v>
-      </x:c>
-      <x:c r="C111" s="6" t="s">
-        <x:v>332</x:v>
-      </x:c>
-      <x:c r="D111" s="6" t="s">
-        <x:v>430</x:v>
-      </x:c>
-      <x:c r="E111" s="6" t="s">
-        <x:v>250</x:v>
-      </x:c>
-      <x:c r="F111" s="6" t="s">
-        <x:v>314</x:v>
-      </x:c>
-      <x:c r="G111" s="7">
-        <x:v>20000</x:v>
+      <x:c r="B111" s="9" t="s">
+        <x:v>289</x:v>
+      </x:c>
+      <x:c r="C111" s="9" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D111" s="11" t="s">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="E111" s="8" t="s">
+        <x:v>383</x:v>
+      </x:c>
+      <x:c r="F111" s="8" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="G111" s="8">
+        <x:v>200000</x:v>
       </x:c>
     </x:row>
     <x:row r="112" spans="1:7" ht="15.75" customHeight="1">
@@ -4451,451 +4441,223 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="B112" s="6" t="s">
-        <x:v>292</x:v>
-      </x:c>
-      <x:c r="C112" s="6" t="s">
-        <x:v>394</x:v>
-      </x:c>
-      <x:c r="D112" s="6" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="E112" s="6" t="s">
-        <x:v>172</x:v>
-      </x:c>
-      <x:c r="F112" s="6" t="s">
-        <x:v>314</x:v>
-      </x:c>
-      <x:c r="G112" s="7">
-        <x:v>20000</x:v>
+        <x:v>458</x:v>
+      </x:c>
+      <x:c r="C112" s="9" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D112" s="11" t="s">
+        <x:v>256</x:v>
+      </x:c>
+      <x:c r="E112" s="8" t="s">
+        <x:v>284</x:v>
+      </x:c>
+      <x:c r="F112" s="8" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="G112" s="8">
+        <x:v>200000</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A113" s="6">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="B113" s="6" t="s">
-        <x:v>363</x:v>
-      </x:c>
-      <x:c r="C113" s="6" t="s">
-        <x:v>331</x:v>
-      </x:c>
-      <x:c r="D113" s="6" t="s">
-        <x:v>435</x:v>
-      </x:c>
-      <x:c r="E113" s="6" t="s">
-        <x:v>258</x:v>
-      </x:c>
-      <x:c r="F113" s="6" t="s">
-        <x:v>354</x:v>
-      </x:c>
-      <x:c r="G113" s="7">
-        <x:v>0</x:v>
+      <x:c r="B113" s="1" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="C113" s="12" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D113" s="13" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="E113" s="13" t="s">
+        <x:v>382</x:v>
+      </x:c>
+      <x:c r="F113" s="12" t="s">
+        <x:v>323</x:v>
+      </x:c>
+      <x:c r="G113" s="12">
+        <x:v>300000</x:v>
       </x:c>
     </x:row>
     <x:row r="114" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A114" s="6">
         <x:v>113</x:v>
       </x:c>
-      <x:c r="B114" s="6" t="s">
-        <x:v>337</x:v>
-      </x:c>
-      <x:c r="C114" s="6" t="s">
-        <x:v>334</x:v>
-      </x:c>
-      <x:c r="D114" s="6" t="s">
-        <x:v>424</x:v>
-      </x:c>
-      <x:c r="E114" s="6" t="s">
-        <x:v>248</x:v>
-      </x:c>
-      <x:c r="F114" s="6" t="s">
-        <x:v>354</x:v>
-      </x:c>
-      <x:c r="G114" s="7">
-        <x:v>0</x:v>
+      <x:c r="B114" s="1" t="s">
+        <x:v>442</x:v>
+      </x:c>
+      <x:c r="C114" s="12" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D114" s="13" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="E114" s="13" t="s">
+        <x:v>377</x:v>
+      </x:c>
+      <x:c r="F114" s="12" t="s">
+        <x:v>323</x:v>
+      </x:c>
+      <x:c r="G114" s="12">
+        <x:v>210000</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A115" s="6">
         <x:v>114</x:v>
       </x:c>
-      <x:c r="B115" s="6" t="s">
-        <x:v>336</x:v>
-      </x:c>
-      <x:c r="C115" s="6" t="s">
-        <x:v>385</x:v>
-      </x:c>
-      <x:c r="D115" s="6" t="s">
-        <x:v>421</x:v>
-      </x:c>
-      <x:c r="E115" s="6" t="s">
-        <x:v>260</x:v>
-      </x:c>
-      <x:c r="F115" s="6" t="s">
-        <x:v>354</x:v>
-      </x:c>
-      <x:c r="G115" s="7">
-        <x:v>5000</x:v>
+      <x:c r="B115" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C115" s="12" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D115" s="13" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="E115" s="13" t="s">
+        <x:v>264</x:v>
+      </x:c>
+      <x:c r="F115" s="12" t="s">
+        <x:v>323</x:v>
+      </x:c>
+      <x:c r="G115" s="12">
+        <x:v>300000</x:v>
       </x:c>
     </x:row>
     <x:row r="116" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A116" s="6">
         <x:v>115</x:v>
       </x:c>
-      <x:c r="B116" s="6" t="s">
-        <x:v>356</x:v>
-      </x:c>
-      <x:c r="C116" s="6" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="D116" s="6" t="s">
-        <x:v>432</x:v>
-      </x:c>
-      <x:c r="E116" s="6" t="s">
-        <x:v>257</x:v>
-      </x:c>
-      <x:c r="F116" s="6" t="s">
-        <x:v>354</x:v>
-      </x:c>
-      <x:c r="G116" s="7">
-        <x:v>0</x:v>
+      <x:c r="B116" s="1" t="s">
+        <x:v>441</x:v>
+      </x:c>
+      <x:c r="C116" s="2" t="s">
+        <x:v>459</x:v>
+      </x:c>
+      <x:c r="D116" s="13" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="E116" s="13" t="s">
+        <x:v>283</x:v>
+      </x:c>
+      <x:c r="F116" s="12" t="s">
+        <x:v>338</x:v>
+      </x:c>
+      <x:c r="G116" s="12">
+        <x:v>100000</x:v>
       </x:c>
     </x:row>
     <x:row r="117" spans="1:7" ht="15.75" customHeight="1">
       <x:c r="A117" s="6">
         <x:v>116</x:v>
       </x:c>
-      <x:c r="B117" s="6" t="s">
-        <x:v>237</x:v>
-      </x:c>
-      <x:c r="C117" s="6" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D117" s="6" t="s">
-        <x:v>423</x:v>
-      </x:c>
-      <x:c r="E117" s="6" t="s">
-        <x:v>245</x:v>
-      </x:c>
-      <x:c r="F117" s="6" t="s">
-        <x:v>354</x:v>
-      </x:c>
-      <x:c r="G117" s="7">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="118" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="B117" s="12" t="s">
+        <x:v>465</x:v>
+      </x:c>
+      <x:c r="C117" s="12"/>
+      <x:c r="D117" s="13" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="E117" s="13" t="s">
+        <x:v>385</x:v>
+      </x:c>
+      <x:c r="F117" s="12" t="s">
+        <x:v>338</x:v>
+      </x:c>
+      <x:c r="G117" s="12">
+        <x:v>100000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="118" spans="1:3" ht="15.75" customHeight="1">
       <x:c r="A118" s="6">
         <x:v>117</x:v>
       </x:c>
-      <x:c r="B118" s="6" t="s">
-        <x:v>238</x:v>
-      </x:c>
-      <x:c r="C118" s="6" t="s">
-        <x:v>239</x:v>
-      </x:c>
-      <x:c r="D118" s="6" t="s">
-        <x:v>425</x:v>
-      </x:c>
-      <x:c r="E118" s="6" t="s">
-        <x:v>261</x:v>
-      </x:c>
-      <x:c r="F118" s="6" t="s">
-        <x:v>354</x:v>
-      </x:c>
-      <x:c r="G118" s="7">
-        <x:v>10000</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="119" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="B118" s="6"/>
+      <x:c r="C118" s="7"/>
+    </x:row>
+    <x:row r="119" spans="1:3" ht="15.75" customHeight="1">
       <x:c r="A119" s="6">
         <x:v>118</x:v>
       </x:c>
-      <x:c r="B119" s="6" t="s">
-        <x:v>339</x:v>
-      </x:c>
-      <x:c r="C119" s="6" t="s">
-        <x:v>387</x:v>
-      </x:c>
-      <x:c r="D119" s="6" t="s">
-        <x:v>433</x:v>
-      </x:c>
-      <x:c r="E119" s="6" t="s">
-        <x:v>256</x:v>
-      </x:c>
-      <x:c r="F119" s="6" t="s">
-        <x:v>354</x:v>
-      </x:c>
-      <x:c r="G119" s="7">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="120" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="B119" s="6"/>
+      <x:c r="C119" s="7"/>
+    </x:row>
+    <x:row r="120" spans="1:3" ht="15.75" customHeight="1">
       <x:c r="A120" s="6">
         <x:v>119</x:v>
       </x:c>
-      <x:c r="B120" s="6" t="s">
-        <x:v>340</x:v>
-      </x:c>
-      <x:c r="C120" s="6" t="s">
-        <x:v>450</x:v>
-      </x:c>
-      <x:c r="D120" s="6" t="s">
-        <x:v>434</x:v>
-      </x:c>
-      <x:c r="E120" s="6" t="s">
-        <x:v>259</x:v>
-      </x:c>
-      <x:c r="F120" s="6" t="s">
-        <x:v>354</x:v>
-      </x:c>
-      <x:c r="G120" s="7">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="121" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="B120" s="6"/>
+      <x:c r="C120" s="7"/>
+    </x:row>
+    <x:row r="121" spans="1:3" ht="15.75" customHeight="1">
       <x:c r="A121" s="6">
         <x:v>120</x:v>
       </x:c>
-      <x:c r="B121" s="6" t="s">
-        <x:v>346</x:v>
-      </x:c>
-      <x:c r="C121" s="6" t="s">
-        <x:v>243</x:v>
-      </x:c>
-      <x:c r="D121" s="6" t="s">
-        <x:v>436</x:v>
-      </x:c>
-      <x:c r="E121" s="6" t="s">
-        <x:v>244</x:v>
-      </x:c>
-      <x:c r="F121" s="6" t="s">
-        <x:v>354</x:v>
-      </x:c>
-      <x:c r="G121" s="7">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="122" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="B121" s="6"/>
+      <x:c r="C121" s="7"/>
+    </x:row>
+    <x:row r="122" spans="1:3" ht="15.75" customHeight="1">
       <x:c r="A122" s="6">
         <x:v>121</x:v>
       </x:c>
-      <x:c r="B122" s="8" t="s">
-        <x:v>452</x:v>
-      </x:c>
-      <x:c r="C122" s="11" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="D122" s="8" t="s">
-        <x:v>447</x:v>
-      </x:c>
-      <x:c r="E122" s="12" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F122" s="7" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="G122" s="7">
-        <x:v>2000000</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="123" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="B122" s="7"/>
+      <x:c r="C122" s="7"/>
+    </x:row>
+    <x:row r="123" spans="1:3" ht="15.75" customHeight="1">
       <x:c r="A123" s="6">
         <x:v>122</x:v>
       </x:c>
-      <x:c r="B123" s="11" t="s">
-        <x:v>329</x:v>
-      </x:c>
-      <x:c r="C123" s="11" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="D123" s="7" t="s">
-        <x:v>446</x:v>
-      </x:c>
-      <x:c r="E123" s="7" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="F123" s="7" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="G123" s="7">
-        <x:v>800000</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="124" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="B123" s="7"/>
+      <x:c r="C123" s="7"/>
+    </x:row>
+    <x:row r="124" spans="1:3" ht="15.75" customHeight="1">
       <x:c r="A124" s="6">
         <x:v>123</x:v>
       </x:c>
-      <x:c r="B124" s="11" t="s">
-        <x:v>455</x:v>
-      </x:c>
-      <x:c r="C124" s="11" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="D124" s="7" t="s">
-        <x:v>448</x:v>
-      </x:c>
-      <x:c r="E124" s="7" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="F124" s="7" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="G124" s="7">
-        <x:v>800000</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="125" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="B124" s="7"/>
+      <x:c r="C124" s="7"/>
+    </x:row>
+    <x:row r="125" spans="1:3" ht="15.75" customHeight="1">
       <x:c r="A125" s="6">
         <x:v>124</x:v>
       </x:c>
-      <x:c r="B125" s="11" t="s">
-        <x:v>330</x:v>
-      </x:c>
-      <x:c r="C125" s="11" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="D125" s="9" t="s">
-        <x:v>449</x:v>
-      </x:c>
-      <x:c r="E125" s="7" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="F125" s="7" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="G125" s="7">
-        <x:v>200000</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="126" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="B125" s="7"/>
+      <x:c r="C125" s="7"/>
+    </x:row>
+    <x:row r="126" spans="1:3" ht="15.75" customHeight="1">
       <x:c r="A126" s="6">
         <x:v>125</x:v>
       </x:c>
-      <x:c r="B126" s="8" t="s">
-        <x:v>451</x:v>
-      </x:c>
-      <x:c r="C126" s="11" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="D126" s="9" t="s">
-        <x:v>445</x:v>
-      </x:c>
-      <x:c r="E126" s="10" t="s">
-        <x:v>264</x:v>
-      </x:c>
-      <x:c r="F126" s="7" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="G126" s="7">
-        <x:v>200000</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="127" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="B126" s="7"/>
+      <x:c r="C126" s="7"/>
+    </x:row>
+    <x:row r="127" spans="1:1" ht="15.75" customHeight="1">
       <x:c r="A127" s="6">
         <x:v>126</x:v>
       </x:c>
-      <x:c r="B127" s="1" t="s">
-        <x:v>453</x:v>
-      </x:c>
-      <x:c r="C127" t="s">
-        <x:v>456</x:v>
-      </x:c>
-      <x:c r="D127" s="3" t="s">
-        <x:v>398</x:v>
-      </x:c>
-      <x:c r="E127" s="3" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="F127" t="s">
-        <x:v>341</x:v>
-      </x:c>
-      <x:c r="G127">
-        <x:v>300000</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="128" spans="1:7" ht="15.75" customHeight="1">
+    </x:row>
+    <x:row r="128" spans="1:1" ht="15.75" customHeight="1">
       <x:c r="A128" s="6">
         <x:v>127</x:v>
       </x:c>
-      <x:c r="B128" s="1" t="s">
-        <x:v>458</x:v>
-      </x:c>
-      <x:c r="C128" t="s">
-        <x:v>456</x:v>
-      </x:c>
-      <x:c r="D128" s="3" t="s">
-        <x:v>397</x:v>
-      </x:c>
-      <x:c r="E128" s="3" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="F128" t="s">
-        <x:v>341</x:v>
-      </x:c>
-      <x:c r="G128">
-        <x:v>210000</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="129" spans="1:7" ht="15.75" customHeight="1">
+    </x:row>
+    <x:row r="129" spans="1:1" ht="15.75" customHeight="1">
       <x:c r="A129" s="6">
         <x:v>128</x:v>
       </x:c>
-      <x:c r="B129" s="1" t="s">
-        <x:v>454</x:v>
-      </x:c>
-      <x:c r="C129" t="s">
-        <x:v>456</x:v>
-      </x:c>
-      <x:c r="D129" s="3" t="s">
-        <x:v>395</x:v>
-      </x:c>
-      <x:c r="E129" s="3" t="s">
-        <x:v>262</x:v>
-      </x:c>
-      <x:c r="F129" t="s">
-        <x:v>341</x:v>
-      </x:c>
-      <x:c r="G129">
-        <x:v>300000</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="130" spans="1:7" ht="15.75" customHeight="1">
+    </x:row>
+    <x:row r="130" spans="1:1" ht="15.75" customHeight="1">
       <x:c r="A130" s="6">
         <x:v>129</x:v>
       </x:c>
-      <x:c r="B130" s="1" t="s">
-        <x:v>457</x:v>
-      </x:c>
-      <x:c r="C130" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D130" s="3" t="s">
-        <x:v>396</x:v>
-      </x:c>
-      <x:c r="E130" s="3" t="s">
-        <x:v>263</x:v>
-      </x:c>
-      <x:c r="F130" t="s">
-        <x:v>342</x:v>
-      </x:c>
-      <x:c r="G130">
-        <x:v>100000</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="131" spans="4:7" ht="15.75" customHeight="1">
-      <x:c r="D131" s="3" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="E131" s="3" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="F131" t="s">
-        <x:v>342</x:v>
-      </x:c>
-      <x:c r="G131">
-        <x:v>100000</x:v>
-      </x:c>
+    </x:row>
+    <x:row r="131" spans="4:5" ht="15.75" customHeight="1">
+      <x:c r="D131" s="3"/>
+      <x:c r="E131" s="3"/>
     </x:row>
     <x:row r="132" ht="15.75" customHeight="1"/>
     <x:row r="133" ht="15.75" customHeight="1"/>
@@ -5768,19 +5530,19 @@
     <x:row r="1000" ht="15.75" customHeight="1"/>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="E122:E122" r:id="rId1"/>
-    <x:hyperlink ref="D125:D125" r:id="rId2"/>
-    <x:hyperlink ref="D126:D126" r:id="rId3"/>
-    <x:hyperlink ref="D127:D127" r:id="rId4"/>
-    <x:hyperlink ref="E127:E127" r:id="rId5"/>
-    <x:hyperlink ref="D128:D128" r:id="rId6"/>
-    <x:hyperlink ref="E128:E128" r:id="rId7"/>
-    <x:hyperlink ref="D129:D129" r:id="rId8"/>
-    <x:hyperlink ref="E129:E129" r:id="rId9"/>
-    <x:hyperlink ref="E130:E130" r:id="rId10"/>
-    <x:hyperlink ref="D130:D130" r:id="rId11"/>
-    <x:hyperlink ref="D131:D131" r:id="rId12"/>
-    <x:hyperlink ref="E131:E131" r:id="rId13"/>
+    <x:hyperlink ref="E108:E108" r:id="rId1"/>
+    <x:hyperlink ref="D111:D111" r:id="rId2"/>
+    <x:hyperlink ref="D112:D112" r:id="rId3"/>
+    <x:hyperlink ref="D113:D113" r:id="rId4"/>
+    <x:hyperlink ref="E113:E113" r:id="rId5"/>
+    <x:hyperlink ref="D114:D114" r:id="rId6"/>
+    <x:hyperlink ref="E114:E114" r:id="rId7"/>
+    <x:hyperlink ref="D115:D115" r:id="rId8"/>
+    <x:hyperlink ref="E115:E115" r:id="rId9"/>
+    <x:hyperlink ref="E116:E116" r:id="rId10"/>
+    <x:hyperlink ref="D116:D116" r:id="rId11"/>
+    <x:hyperlink ref="D117:D117" r:id="rId12"/>
+    <x:hyperlink ref="E117:E117" r:id="rId13"/>
   </x:hyperlinks>
   <x:pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <x:pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>

--- a/data/products/card/card_credit.xlsx
+++ b/data/products/card/card_credit.xlsx
@@ -19,1404 +19,1422 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="466">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="472">
+  <x:si>
+    <x:t>Electric Vehicle Owners 전기차 오너들을 위한 친환경 생활, 기부 생활</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09115_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04291_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09321_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09124_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09122_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09389_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09113_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09561_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09123_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09247_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04350_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>할인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Form</x:t>
+  </x:si>
+  <x:si>
+    <x:t>K-사장님의 든든한 사업 파트너</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대한민국 군과 함께 풍요로운 노후</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스타트럭 플러스 HD현대오일뱅크카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교육비를 절약하는 현명한 선택!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>반려동물을 사랑하는 현명한 방법!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가치 그 이상의 VVIP 라이프</x:t>
+  </x:si>
+  <x:si>
+    <x:t>T-economy KB국민카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>렌탈요금 매월 할인 받는 방법!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>렌탈 요금 매월 할인 받는 방법!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HERITAGE Exclusive</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일상에서 사업까지 탄탄한 혜택!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모두투어 투어마일리지 KB국민카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KB국민 군인연금증 신용카드(사진)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지방보조금 결제에 보탬이 되는</x:t>
+  </x:si>
+  <x:si>
+    <x:t>글로벌한 내 스타일을 담았다!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CU 할인! 한번에 빠르게 쉽게~</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데일리 스탬프 모으면 늘어나는 혜택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이용은 간편하게, 할인은 넉넉하게!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>통신요금 매월 할인 받는 방법!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>갤러리아 혜택을 한 장에 담아</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SK에너지 러브유 KB국민카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기차 이용자라면 꼭 필요한!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이마트II KB국민카드(옐로우)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>나'의 행복을 위한 필수 혜택 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>변함없는 가치, HERITAGE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wavve 이용권 결제 할 땐 !</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행복드림 롯데마트에서 할인 혜택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BeV Ⅴ카드 (스카이패스형)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>H.Point KB국민카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Our WE:SH 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐시노트 KB 국민카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LGU＋ 심플라이트카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>넥센타이어 KB국민카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스카이패스 티타늄 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Easy fly 티타늄카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WE:SH Travel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계열사가 많은 알찬 CJ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요기패스 신용카드(가로형)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WE:SH Daily 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>청호나이스 KB국민카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GS SHOP KB국민카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KMVNO 알뜰폰 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The CJ KB국민카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알뜰폰 Hub Ⅱ 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>통신요금을 절약하는 방법!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KB국민 펫코노미 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SK내트럭 유가보조금카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교원 웰스 KB국민카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스타트럭Ⅱ GS칼텍스카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KB Pay 챌린지+카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KB Pay 챌린지카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Easy ring 티타늄카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WE:SH All 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SK 7mobile카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다시 새롭게! 이마트!!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Easy auto 티타늄카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04420</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09194</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=01234</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=02229</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04285</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09157</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09291</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09321</x:t>
+  </x:si>
+  <x:si>
+    <x:t>직업 군인과 군무원 분들에게 꼭 필요한 세심한 혜택! KB국민 국방멤버쉽카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보육료 및 임신·출산 진료비 지원 등 국가바우처 지원 가능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>반려동물을 사랑하는 마음. KB국민 반려애카드가 함께합니다!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유·정비·생활·보험! Easy하게 적립을 타고 달리는 기분!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대한항공 마일리지 기본적립에 해외/면세점 추가적립 혜택까지!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11번가에서 SK Pay 결제 하고 11% OK캐쉬백 적립!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KB국민 훈민정음 두번째 이야기, 모두의 이야기를 담은 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>렌탈 요금, 스마트하게 할인 받고 영화·놀이공원 할인까지!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화물운전자를 위한 유가보조금 및 S-OIL 주유할인 지원카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>국내 거주 외국인을 위한 일상에서 여가까지 다양한 할인 혜택!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E1 충전소 할인은 기본! 풍성한 혜택으로 생활에너지 충전!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주요 생활 영역부터 내가 Pick한 영역까지 모두 적립 Easy!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화물운전자를 위한 유가보조금 및 HD현대오일뱅크 주유할인 지원카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여행은 Happy, 혜택은 Easy! Yes, you can fly!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09310&amp;categoryCode=L0064&amp;sGroupCode=3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09200&amp;categoryCode=L0080&amp;sGroupCode=3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09305&amp;categoryCode=L0063&amp;sGroupCode=3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09152&amp;categoryCode=L0079&amp;sGroupCode=3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09306&amp;categoryCode=L0063&amp;sGroupCode=3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Annual_fee</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Heritage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아시아나 올림카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>매월 학습비를 절약하는 방법!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KB국민카드로 통신료를 아끼자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>톡톡 with 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이핏카드(적립형)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가온올림카드(실속형)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TMAP KB국민카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CU KB국민카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>toss KB국민카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>My WE:SH 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적립</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적립/할인,쇼핑</x:t>
+  </x:si>
+  <x:si>
+    <x:t>똑똑하게 할인 “톡톡”!</x:t>
+  </x:si>
   <x:si>
     <x:t>적립/할인,쇼핑,주유/충전</x:t>
   </x:si>
   <x:si>
+    <x:t>Easy link 티타늄카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09194_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09314_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04285_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09167_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09231_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09114_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09129_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09291_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09244_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09272_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04422_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09157_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04434_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09248_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/02228_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09040_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09245_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04491_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09116_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/02229_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09176_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/00230_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04420_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09060_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04287_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=02228</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09113</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09231</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09116</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04415</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09060</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09247</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04350</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09561</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09245</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04434</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09244</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04291</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09570</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04444</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04361</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04491</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=00230</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09122</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09314</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09214</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09180</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04290</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04404</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04289</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09115</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09040</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04287</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09389</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04432</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09176</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09167</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09253</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=02171</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04260</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04322</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=01142</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09124</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09383</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09272</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09114</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04484</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04241</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04431</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Food on, Music on, Shopping on 모두 할인 Easy on!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여행</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선택형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>렌탈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>통신</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쇼핑</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교육</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>의료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화물운전자를 위한 유가보조금 및 SK주유할인 지원카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현대백화점그룹 멤버십 혜택에 KB국민카드 혜택을 더하다!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Get all, Choose all. Easy all~!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>매일 매일 기분 좋은 할인 혜택으로 더 풍요로운 생활!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>더욱 든든해진 혜택으로 당신의 골든라이프를 응원합니다!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쇼핑에 강한 AK와 생활에 강한 KB의 특별한 만남!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>웰스로 건강한 습관 ! KB국민카드로 알뜰한 습관 !</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평소에는 주유비 할인 받고! 주말에는 캠핑 즐기고!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04288</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=02245</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09084</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04416</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04284</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04088</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09246</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04095</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=00996</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04330</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09256</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09169</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09243</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09183</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04417</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04426</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04550</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04483</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04336</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04425</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09252</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04130</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04331</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04326</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04345</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=02210</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04459</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=02170</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04320</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04323</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09248</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04423</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04422</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09251</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/220608_04320_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09255</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04324</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=02076</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04863</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04351</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09283</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04489</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04482</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04451</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04418</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09267</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04325</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09128</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04092</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09129</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09126</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09063</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04485</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09125</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09127</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=02065</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09256_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04485_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04425_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04330_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09169_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09255_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04095_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09183_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04331_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04092_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/02076_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09152_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09084_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04088_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09126_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/02065_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04417_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09306_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/00996_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04426_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09243_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09251_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04130_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04432_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04284_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04336_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04483_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/02210_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04431_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04404_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04324_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09305_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04459_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04323_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04351_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09310_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/02170_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09200_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04322_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/02171_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09063_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04345_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04863_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09383_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04444_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/02245_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09125_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04288_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09128_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04260_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09180_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04416_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/01234_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04326_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04241_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/01142_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04325_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04484_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04418_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04415_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09253_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09570_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04423_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04409_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04550_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04482_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09267_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04451_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04489_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04290_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09283_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09246_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04361_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04289_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09252_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쓸 때마다 쌓이는 금융포인트로 다양한 종합금융 혜택을!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>국내가맹점 기본적립, 사업지원영역 및 고액결제 추가적립!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>#외식 #편의점 #마트 #주유 #통신 #쇼핑 #배달</x:t>
+  </x:si>
+  <x:si>
+    <x:t>American Express Rose Gold Card</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실적조건 없이 국내가맹점 적립, 해외가맹점 캐시백!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09127_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09214_img.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적립/할인,여행,쇼핑</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BeV Ⅲ 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탄탄대로 웰컴카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>롯데마트 KB국민카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가온플래티늄카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AK KB국민카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EVO 티타늄카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하나투어 KB국민카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Easy all카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GS행복가득카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG 헬로비전 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Liiv M Ⅱ 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>U＋유모바일카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐시노트 KB국민카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적립/할인,주유/충전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알뜰폰Hub 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>랭킹은 알고 있다!!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Page_URL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성페이 KB국민카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>웅진씽크빅 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>톡톡 Pay카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금융포인트리카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이핏카드(할인형)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스마트 지킴이카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image_URL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>골든라이프올림카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Easy on카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>랭킹닭컴 신용카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Category</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가온 Biz카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비상온리원 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다담카드(비 OTP)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스마트한 쇼핑 혜택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탄탄대로 Biz카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>웰릭스렌탈Ⅱ카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 KB국민카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LFmall 신용카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레고랜드매니아카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>반려愛카드(강아지)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세라젬 KB국민카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>청호나이스Ⅱ카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wavve 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Easy pick카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>갤러리아 KB국민카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SK매직 올림카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현대큐밍 KB국민카드</x:t>
+  </x:si>
+  <x:si>
     <x:t>적립/할인,음식</x:t>
   </x:si>
   <x:si>
-    <x:t>똑똑하게 할인 “톡톡”!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>H.Point KB국민카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Our WE:SH 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐시노트 KB 국민카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LGU＋ 심플라이트카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요기패스 신용카드(가로형)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Easy ring 티타늄카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Easy auto 티타늄카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KB Pay 챌린지+카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KB Pay 챌린지카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WE:SH Daily 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>청호나이스 KB국민카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>넥센타이어 KB국민카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다시 새롭게! 이마트!!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The CJ KB국민카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Easy fly 티타늄카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스카이패스 티타늄 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GS SHOP KB국민카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계열사가 많은 알찬 CJ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SK에너지 러브유 KB국민카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이용은 간편하게, 할인은 넉넉하게!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기차 이용자라면 꼭 필요한!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CU 할인! 한번에 빠르게 쉽게~</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데일리 스탬프 모으면 늘어나는 혜택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>변함없는 가치, HERITAGE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wavve 이용권 결제 할 땐 !</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이마트II KB국민카드(옐로우)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BeV Ⅴ카드 (스카이패스형)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>통신요금 매월 할인 받는 방법!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나'의 행복을 위한 필수 혜택 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행복드림 롯데마트에서 할인 혜택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KB국민카드로 통신료를 아끼자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>갤러리아 혜택을 한 장에 담아</x:t>
-  </x:si>
-  <x:si>
-    <x:t>매월 학습비를 절약하는 방법!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스타트럭 플러스 HD현대오일뱅크카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>반려동물을 사랑하는 현명한 방법!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>T-economy KB국민카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교육비를 절약하는 현명한 선택!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>렌탈 요금 매월 할인 받는 방법!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>렌탈요금 매월 할인 받는 방법!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일상에서 사업까지 탄탄한 혜택!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KB국민 군인연금증 신용카드(사진)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적립/할인,여행,쇼핑</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화물운전자를 위한 유가보조금 및 HD현대오일뱅크 주유할인 지원카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여행은 Happy, 혜택은 Easy! Yes, you can fly!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주요 생활 영역부터 내가 Pick한 영역까지 모두 적립 Easy!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대한항공 마일리지 기본적립에 해외/면세점 추가적립 혜택까지!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>국내 거주 외국인을 위한 일상에서 여가까지 다양한 할인 혜택!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>렌탈 요금, 스마트하게 할인 받고 영화·놀이공원 할인까지!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화물운전자를 위한 유가보조금 및 S-OIL 주유할인 지원카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E1 충전소 할인은 기본! 풍성한 혜택으로 생활에너지 충전!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보육료 및 임신·출산 진료비 지원 등 국가바우처 지원 가능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KB국민 훈민정음 두번째 이야기, 모두의 이야기를 담은 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>반려동물을 사랑하는 마음. KB국민 반려애카드가 함께합니다!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11번가에서 SK Pay 결제 하고 11% OK캐쉬백 적립!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유·정비·생활·보험! Easy하게 적립을 타고 달리는 기분!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04420</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04285</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09194</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=02229</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09321</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09291</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=01234</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09157</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04350</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04444</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04361</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04291</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04491</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04434</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04409</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04415</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09231</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09244</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09570</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09214</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09314</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=02228</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09245</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WE:SH All 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WE:SH Travel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Food on, Music on, Shopping on 모두 할인 Easy on!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KMVNO 알뜰폰 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알뜰폰 Hub Ⅱ 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>통신요금을 절약하는 방법!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HERITAGE Exclusive</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지방보조금 결제에 보탬이 되는</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모두투어 투어마일리지 KB국민카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>글로벌한 내 스타일을 담았다!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대한민국 군과 함께 풍요로운 노후</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가치 그 이상의 VVIP 라이프</x:t>
-  </x:si>
-  <x:si>
-    <x:t>K-사장님의 든든한 사업 파트너</x:t>
-  </x:si>
-  <x:si>
-    <x:t>직업 군인과 군무원 분들에게 꼭 필요한 세심한 혜택! KB국민 국방멤버쉽카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09113</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09116</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=00230</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09123</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09122</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09561</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09060</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09247</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04289</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04404</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09124</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09115</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09389</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09561_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09389_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04291_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09321_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09124_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09247_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09123_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04350_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09122_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09113_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09115_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09129_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09248_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09272_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09244_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09060_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09116_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/00230_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/02228_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09040_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09245_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04420_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04422_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04287_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04491_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09157_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04285_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/02229_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09167_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09231_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09176_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09194_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09114_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09291_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09314_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04434_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적립/할인,쇼핑</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Electric Vehicle Owners 전기차 오너들을 위한 친환경 생활, 기부 생활</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09305&amp;categoryCode=L0063&amp;sGroupCode=3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09200&amp;categoryCode=L0080&amp;sGroupCode=3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09310&amp;categoryCode=L0064&amp;sGroupCode=3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09306&amp;categoryCode=L0063&amp;sGroupCode=3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09152&amp;categoryCode=L0079&amp;sGroupCode=3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여행</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>통신</x:t>
-  </x:si>
-  <x:si>
-    <x:t>의료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선택형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쇼핑</x:t>
-  </x:si>
-  <x:si>
-    <x:t>렌탈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교육</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아시아나 올림카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Annual_fee</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Heritage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04260</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04322</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04484</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09253</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04432</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04241</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09180</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09040</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04287</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09176</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04290</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=01142</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09167</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=02171</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09383</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09272</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09114</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04431</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04351</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04345</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09248</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=02210</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04422</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04863</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09255</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04324</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04482</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09251</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04418</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04423</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04326</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/220608_04320_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=02076</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04451</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09283</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04459</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04489</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09267</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=02170</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04320</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04323</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09246</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=02245</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04288</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04483</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04425</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04331</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09084</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04336</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09252</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09243</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04284</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=00996</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04095</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04416</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04330</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04088</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09256</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04426</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09183</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04130</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09169</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04417</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04550</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04485</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09063</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04092</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=02065</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=04325</x:t>
-  </x:si>
-  <x:si>
-    <x:t>매일 매일 기분 좋은 할인 혜택으로 더 풍요로운 생활!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>웰스로 건강한 습관 ! KB국민카드로 알뜰한 습관 !</x:t>
-  </x:si>
-  <x:si>
-    <x:t>현대백화점그룹 멤버십 혜택에 KB국민카드 혜택을 더하다!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평소에는 주유비 할인 받고! 주말에는 캠핑 즐기고!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>더욱 든든해진 혜택으로 당신의 골든라이프를 응원합니다!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쇼핑에 강한 AK와 생활에 강한 KB의 특별한 만남!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Get all, Choose all. Easy all~!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화물운전자를 위한 유가보조금 및 SK주유할인 지원카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SK내트럭 유가보조금카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KB국민 펫코노미 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SK 7mobile카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교원 웰스 KB국민카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스타트럭Ⅱ GS칼텍스카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Easy link 티타늄카드</x:t>
-  </x:si>
-  <x:si>
     <x:t>KB손해보험 마이펫카드</x:t>
   </x:si>
   <x:si>
+    <x:t>Easy all 티타늄카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kt M mobile카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>토스모바일 KB국민카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Easy pick 티타늄카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가온 플래티늄바우처카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BeV Ⅴ카드 (포인트형)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E1 LPG KB국민카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금쪽같은 우리 아이들을 위한</x:t>
+  </x:si>
+  <x:si>
+    <x:t>STARTLUCK 카드</x:t>
+  </x:si>
+  <x:si>
     <x:t>스타트럭플러스 S-OIL카드</x:t>
   </x:si>
   <x:si>
-    <x:t>E1 LPG KB국민카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>토스모바일 KB국민카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BeV Ⅴ카드 (포인트형)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금쪽같은 우리 아이들을 위한</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Easy all 티타늄카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>STARTLUCK 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Easy pick 티타늄카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>kt M mobile카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09126</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09128</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09125</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09127</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://card.kbcard.com/CRD/DVIEW/HCAMCXPRICAC0076?mainCC=a&amp;cooperationcode=09129</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09256_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/00996_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04425_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09306_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04331_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09169_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09243_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04485_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04417_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09255_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04432_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09251_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09084_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04088_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04330_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04426_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04095_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04130_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04284_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09183_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04092_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/02076_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09152_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09126_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/02065_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09252_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04550_img.png</x:t>
+    <x:t>굿데이올림카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>딜라이브 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>국방멤버쉽카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주유/충전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VVIP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예다함 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EV 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EV카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>국민행복카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿠쿠렌탈Ⅱ카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>의료,선택형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>K-패스카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가온글로벌카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적립/할인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>코웨이Ⅱ 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CLiP카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공공/정부지원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사장님카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>밀크T 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보탬e전용카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에듀카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레고랜드카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>플래티늄카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쇼핑,선택형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아시아나 마일리지 적립의 혜택을 올림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>즐거운 레고랜드에서도, 평범한 일상에서도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>심플하고 쉽게 토스포인트 적립하는 방법!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐시노트 월정액과 사업지원 할인을 동시에</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자동납부 등록하면, 혜택이 더블 Easy!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HERITAGE Smart [할인형]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>매일 쓰는 영역 할인으로 내 생활에 착붙!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>#간편결제 #택시 #편의점 #쇼핑 #배달</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HERITAGE Reserve(포인트형)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>품격있는 상조서비스를 KB로 만납니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>함께 사는 '우리'를 위한 필수 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>매월 알뜰폰 통신비를 절약하는 방법!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHALLENGE BAG KB국민카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KB Pay와 만나는 장밋빛 할인 혜택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG 헬로비전 요금 매월 할인 받는 방법!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성 페이로 간편하게 할인받는 방법!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비상온리원 요금 매월 할인 받는 방법!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부담 없이 OK, 넥센타이어 렌탈 서비스!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>외화 충전·환전 없이 우대 환율로 결제되는</x:t>
+  </x:si>
+  <x:si>
+    <x:t>웅진씽크빅 요금 매월 할인 받는 방법!</x:t>
   </x:si>
   <x:si>
     <x:t>Simple Life를 위한 모두의 카드</x:t>
   </x:si>
   <x:si>
-    <x:t>HERITAGE Smart [할인형]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>매월 알뜰폰 통신비를 절약하는 방법!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HERITAGE Reserve(포인트형)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KB Pay와 만나는 장밋빛 할인 혜택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CHALLENGE BAG KB국민카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>품격있는 상조서비스를 KB로 만납니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>외화 충전·환전 없이 우대 환율로 결제되는</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG 헬로비전 요금 매월 할인 받는 방법!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>웅진씽크빅 요금 매월 할인 받는 방법!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삼성 페이로 간편하게 할인받는 방법!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아시아나 마일리지 적립의 혜택을 올림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비상온리원 요금 매월 할인 받는 방법!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>즐거운 레고랜드에서도, 평범한 일상에서도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>심플하고 쉽게 토스포인트 적립하는 방법!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐시노트 월정액과 사업지원 할인을 동시에</x:t>
-  </x:si>
-  <x:si>
-    <x:t>함께 사는 '우리'를 위한 필수 카드</x:t>
-  </x:si>
-  <x:si>
     <x:t>매월 Liiv M 통신비를 절약하는 방법!</x:t>
   </x:si>
   <x:si>
+    <x:t>주유만해도 리터당 최대 80원 할인!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운송사업자들을 위한 든든한 지원 혜택의 힘</x:t>
+  </x:si>
+  <x:si>
     <x:t>SKT 통신요금을 알뜰하게 절약하는 방법!</x:t>
   </x:si>
   <x:si>
-    <x:t>자동납부 등록하면, 혜택이 더블 Easy!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>운송사업자들을 위한 든든한 지원 혜택의 힘</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부담 없이 OK, 넥센타이어 렌탈 서비스!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유만해도 리터당 최대 80원 할인!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>매일 쓰는 영역 할인으로 내 생활에 착붙!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>#간편결제 #택시 #편의점 #쇼핑 #배달</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실적조건 없이 국내가맹점 적립, 해외가맹점 캐시백!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>국내가맹점 기본적립, 사업지원영역 및 고액결제 추가적립!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쓸 때마다 쌓이는 금융포인트로 다양한 종합금융 혜택을!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>#외식 #편의점 #마트 #주유 #통신 #쇼핑 #배달</x:t>
-  </x:si>
-  <x:si>
-    <x:t>American Express Rose Gold Card</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가온글로벌카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EV 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EV카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사장님카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Content</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VVIP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>밀크T 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적립/할인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CLiP카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>딜라이브 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보탬e전용카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에듀카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예다함 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>굿데이올림카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레고랜드카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>국방멤버쉽카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공공/정부지원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>국민행복카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주유/충전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>플래티늄카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쿠쿠렌탈Ⅱ카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>코웨이Ⅱ 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>K-패스카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04325_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04409_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04415_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09253_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04326_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09180_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04484_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09570_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04416_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04482_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04423_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/01234_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04418_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09267_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04451_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04241_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09246_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/01142_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04489_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04290_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09283_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04361_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04289_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04404_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/02210_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04323_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09383_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04288_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04260_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09063_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04444_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04336_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04351_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/02245_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04324_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09310_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04345_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04483_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/02171_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04431_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09305_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09125_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09128_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09200_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04459_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04322_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/04863_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/02170_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09127_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://img1.kbcard.com/ST/img/cxc/kbcard/upload/img/product/09214_img.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마이핏카드(적립형)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>톡톡 with 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>toss KB국민카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TMAP KB국민카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가온올림카드(실속형)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CU KB국민카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>My WE:SH 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Easy on카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마이핏카드(할인형)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비상온리원 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삼성페이 KB국민카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>웅진씽크빅 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금융포인트리카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알뜰폰Hub 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>랭킹닭컴 신용카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스마트 지킴이카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Image_URL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>골든라이프올림카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Category</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Page_URL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>톡톡 Pay카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가온 Biz카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>랭킹은 알고 있다!!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>반려愛카드(강아지)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>청호나이스Ⅱ카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>세라젬 KB국민카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Easy pick카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스마트한 쇼핑 혜택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SK매직 올림카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다담카드(비 OTP)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탄탄대로 Biz카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>갤러리아 KB국민카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>현대큐밍 KB국민카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>웰릭스렌탈Ⅱ카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wavve 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LFmall 신용카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 KB국민카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레고랜드매니아카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Easy all카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GS행복가득카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탄탄대로 웰컴카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Liiv M Ⅱ 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>롯데마트 KB국민카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>U＋유모바일카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하나투어 KB국민카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG 헬로비전 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EVO 티타늄카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AK KB국민카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐시노트 KB국민카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가온플래티늄카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BeV Ⅲ 카드</x:t>
+    <x:t>적립,할인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레고에 진심인 분을 위한 혜택에 진심을 담은 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 베스트샵 가전제품 / 렌탈 요금 할인!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제주항공 Refresh Point KB국민카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>American Express Blue Card</x:t>
   </x:si>
   <x:si>
     <x:t>GS SHOP 12%, 월 최대 5만원 할인!</x:t>
   </x:si>
   <x:si>
-    <x:t>LG전자 베스트샵 가전제품 / 렌탈 요금 할인!</x:t>
+    <x:t>구독료 부담은 No! 요기패스 혜택은 Yes!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>통신요금 할인은 기본, 다양한 혜택도 Easy!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HERITAGE Reserve(스카이패스형)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>합리적 여행자를 위한 Must Have 카드</x:t>
   </x:si>
   <x:si>
     <x:t>하나의 카드로 자동차관련 서비스를 한 번에!</x:t>
   </x:si>
   <x:si>
+    <x:t>KT 모든 통신요금을 KB국민카드로 알뜰하게!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알뜰폰 통신비를 더 알뜰하게 절약하는 방법!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우리 가족의 안전을 지켜주는 스마트한 카드 생활!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>품격있는 당신을 위한 차원이 다른 포인트 적립카드</x:t>
+  </x:si>
+  <x:si>
     <x:t>딜라이브 자동납부 요금 매월 할인 받는 방법!</x:t>
   </x:si>
   <x:si>
+    <x:t>코웨이 더블 혜택! 렌탈료 할인과 적립을 동시에!</x:t>
+  </x:si>
+  <x:si>
     <x:t>교통비 SAVE!! 생활서비스 할인 혜택까지~</x:t>
   </x:si>
   <x:si>
-    <x:t>제주항공 Refresh Point KB국민카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>코웨이 더블 혜택! 렌탈료 할인과 적립을 동시에!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KT 모든 통신요금을 KB국민카드로 알뜰하게!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알뜰폰 통신비를 더 알뜰하게 절약하는 방법!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>American Express Blue Card</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구독료 부담은 No! 요기패스 혜택은 Yes!</x:t>
-  </x:si>
-  <x:si>
     <x:t>신용카드와 하나투어 마일리지 클럽서비스를 하나로!</x:t>
   </x:si>
   <x:si>
-    <x:t>통신요금 할인은 기본, 다양한 혜택도 Easy!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레고에 진심인 분을 위한 혜택에 진심을 담은 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우리 가족의 안전을 지켜주는 스마트한 카드 생활!</x:t>
-  </x:si>
-  <x:si>
     <x:t>HERITAGE Smart [대한항공 마일리지형]</x:t>
   </x:si>
   <x:si>
-    <x:t>품격있는 당신을 위한 차원이 다른 포인트 적립카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HERITAGE Reserve(스카이패스형)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>합리적 여행자를 위한 Must Have 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>의료,선택형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쇼핑,선택형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적립/할인,주유/충전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가온 플래티늄바우처카드</x:t>
+    <x:t>마일리지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적립,마일리지</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1872,10 +1890,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:G131"/>
+  <x:dimension ref="A1:H131"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D129" activeCellId="0" sqref="D129:D129"/>
+      <x:selection activeCell="R21" activeCellId="0" sqref="R21:R21"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1883,673 +1901,762 @@
     <x:col min="1" max="1" width="4.296875" bestFit="1" customWidth="1"/>
     <x:col min="2" max="2" width="36.140625" customWidth="1"/>
     <x:col min="3" max="3" width="55.85546875" customWidth="1"/>
-    <x:col min="4" max="4" width="127.25390625" bestFit="1" customWidth="1"/>
-    <x:col min="5" max="5" width="79.28125" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="4" width="24" customWidth="1"/>
+    <x:col min="5" max="5" width="20.28515625" customWidth="1"/>
     <x:col min="6" max="6" width="23.5234375" bestFit="1" customWidth="1"/>
-    <x:col min="7" max="26" width="8.7109375" customWidth="1"/>
+    <x:col min="7" max="7" width="10.72265625" bestFit="1" customWidth="1"/>
+    <x:col min="8" max="8" width="14.68359375" bestFit="1" customWidth="1"/>
+    <x:col min="9" max="26" width="8.7109375" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:7" ht="14.19999999999999928946">
+    <x:row r="1" spans="1:8" ht="14.19999999999999928946">
       <x:c r="A1" s="4" t="s">
-        <x:v>153</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="B1" s="4" t="s">
-        <x:v>325</x:v>
+        <x:v>412</x:v>
       </x:c>
       <x:c r="C1" s="4" t="s">
-        <x:v>322</x:v>
+        <x:v>420</x:v>
       </x:c>
       <x:c r="D1" s="4" t="s">
-        <x:v>411</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="E1" s="4" t="s">
-        <x:v>408</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="F1" s="4" t="s">
-        <x:v>410</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="G1" s="5" t="s">
-        <x:v>161</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:7" ht="14.19999999999999928946">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="H1" s="4" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:8" ht="14.19999999999999928946">
       <x:c r="A2" s="6">
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="6" t="s">
-        <x:v>320</x:v>
+        <x:v>406</x:v>
       </x:c>
       <x:c r="C2" s="6" t="s">
-        <x:v>23</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D2" s="6" t="s">
-        <x:v>97</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="E2" s="6" t="s">
-        <x:v>125</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F2" s="6" t="s">
-        <x:v>326</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="G2" s="7">
         <x:v>20000</x:v>
       </x:c>
-    </x:row>
-    <x:row r="3" spans="1:7" ht="14.19999999999999928946">
+      <x:c r="H2" t="s">
+        <x:v>450</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:8" ht="14.19999999999999928946">
       <x:c r="A3" s="6">
         <x:v>2</x:v>
       </x:c>
       <x:c r="B3" s="6" t="s">
-        <x:v>5</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C3" s="6" t="s">
-        <x:v>303</x:v>
+        <x:v>428</x:v>
       </x:c>
       <x:c r="D3" s="6" t="s">
-        <x:v>69</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="E3" s="6" t="s">
-        <x:v>110</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F3" s="6" t="s">
-        <x:v>326</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="G3" s="7">
         <x:v>20000</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="1:7" ht="14.19999999999999928946">
+      <x:c r="H3" t="s">
+        <x:v>450</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:8" ht="14.19999999999999928946">
       <x:c r="A4" s="6">
         <x:v>3</x:v>
       </x:c>
       <x:c r="B4" s="6" t="s">
-        <x:v>82</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C4" s="6" t="s">
-        <x:v>295</x:v>
+        <x:v>443</x:v>
       </x:c>
       <x:c r="D4" s="6" t="s">
-        <x:v>100</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="E4" s="6" t="s">
-        <x:v>108</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F4" s="6" t="s">
-        <x:v>44</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="G4" s="7">
         <x:v>25000</x:v>
       </x:c>
-    </x:row>
-    <x:row r="5" spans="1:7" ht="14.19999999999999928946">
+      <x:c r="H4" t="s">
+        <x:v>450</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:8" ht="14.19999999999999928946">
       <x:c r="A5" s="6">
         <x:v>4</x:v>
       </x:c>
       <x:c r="B5" s="6" t="s">
-        <x:v>397</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C5" s="6" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D5" s="6" t="s">
-        <x:v>101</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="E5" s="6" t="s">
-        <x:v>123</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="F5" s="6" t="s">
-        <x:v>144</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="G5" s="7">
         <x:v>20000</x:v>
       </x:c>
-    </x:row>
-    <x:row r="6" spans="1:7" ht="14.19999999999999928946">
+      <x:c r="H5" t="s">
+        <x:v>450</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:8" ht="14.19999999999999928946">
       <x:c r="A6" s="6">
         <x:v>5</x:v>
       </x:c>
       <x:c r="B6" s="6" t="s">
-        <x:v>341</x:v>
+        <x:v>410</x:v>
       </x:c>
       <x:c r="C6" s="6" t="s">
-        <x:v>447</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="D6" s="6" t="s">
-        <x:v>62</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E6" s="6" t="s">
-        <x:v>111</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F6" s="6" t="s">
-        <x:v>326</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="G6" s="7">
         <x:v>8000</x:v>
       </x:c>
-    </x:row>
-    <x:row r="7" spans="1:7" ht="14.19999999999999928946">
+      <x:c r="H6" t="s">
+        <x:v>450</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:8" ht="14.19999999999999928946">
       <x:c r="A7" s="6">
         <x:v>6</x:v>
       </x:c>
       <x:c r="B7" s="6" t="s">
-        <x:v>81</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C7" s="6" t="s">
-        <x:v>288</x:v>
+        <x:v>445</x:v>
       </x:c>
       <x:c r="D7" s="6" t="s">
-        <x:v>99</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="E7" s="6" t="s">
-        <x:v>116</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F7" s="6" t="s">
-        <x:v>326</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="G7" s="7">
         <x:v>20000</x:v>
       </x:c>
-    </x:row>
-    <x:row r="8" spans="1:7" ht="14.19999999999999928946">
+      <x:c r="H7" t="s">
+        <x:v>450</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:8" ht="14.19999999999999928946">
       <x:c r="A8" s="6">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B8" s="6" t="s">
-        <x:v>398</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C8" s="6" t="s">
-        <x:v>31</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D8" s="6" t="s">
-        <x:v>98</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="E8" s="6" t="s">
-        <x:v>114</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F8" s="6" t="s">
-        <x:v>1</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="G8" s="7">
         <x:v>15000</x:v>
       </x:c>
-    </x:row>
-    <x:row r="9" spans="1:7" ht="14.19999999999999928946">
+      <x:c r="H8" t="s">
+        <x:v>450</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:8" ht="14.19999999999999928946">
       <x:c r="A9" s="6">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B9" s="6" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C9" s="6" t="s">
+        <x:v>435</x:v>
+      </x:c>
+      <x:c r="D9" s="6" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="E9" s="6" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C9" s="6" t="s">
-        <x:v>304</x:v>
-      </x:c>
-      <x:c r="D9" s="6" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="E9" s="6" t="s">
-        <x:v>112</x:v>
-      </x:c>
       <x:c r="F9" s="6" t="s">
-        <x:v>1</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="G9" s="7">
         <x:v>15000</x:v>
       </x:c>
-    </x:row>
-    <x:row r="10" spans="1:7" ht="14.19999999999999928946">
+      <x:c r="H9" t="s">
+        <x:v>450</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:8" ht="14.19999999999999928946">
       <x:c r="A10" s="6">
         <x:v>9</x:v>
       </x:c>
       <x:c r="B10" s="6" t="s">
-        <x:v>452</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="C10" s="6" t="s">
-        <x:v>311</x:v>
+        <x:v>431</x:v>
       </x:c>
       <x:c r="D10" s="6" t="s">
-        <x:v>106</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="E10" s="6" t="s">
-        <x:v>118</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F10" s="6" t="s">
-        <x:v>0</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="G10" s="7">
         <x:v>19000</x:v>
       </x:c>
-    </x:row>
-    <x:row r="11" spans="1:7" ht="14.19999999999999928946">
+      <x:c r="H10" t="s">
+        <x:v>450</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:8" ht="14.19999999999999928946">
       <x:c r="A11" s="6">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B11" s="6" t="s">
-        <x:v>317</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="C11" s="6" t="s">
-        <x:v>292</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="D11" s="6" t="s">
-        <x:v>96</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="E11" s="6" t="s">
-        <x:v>124</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F11" s="6" t="s">
-        <x:v>44</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="G11" s="7">
         <x:v>19000</x:v>
       </x:c>
-    </x:row>
-    <x:row r="12" spans="1:7" ht="14.19999999999999928946">
+      <x:c r="H11" t="s">
+        <x:v>450</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:8" ht="14.19999999999999928946">
       <x:c r="A12" s="6">
         <x:v>11</x:v>
       </x:c>
       <x:c r="B12" s="6" t="s">
-        <x:v>395</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C12" s="6" t="s">
-        <x:v>22</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D12" s="6" t="s">
-        <x:v>107</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="E12" s="6" t="s">
-        <x:v>109</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F12" s="6" t="s">
-        <x:v>464</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="G12" s="7">
         <x:v>15000</x:v>
       </x:c>
-    </x:row>
-    <x:row r="13" spans="1:7" ht="14.19999999999999928946">
+      <x:c r="H12" t="s">
+        <x:v>450</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:8" ht="14.19999999999999928946">
       <x:c r="A13" s="6">
         <x:v>12</x:v>
       </x:c>
       <x:c r="B13" s="6" t="s">
-        <x:v>11</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C13" s="6" t="s">
-        <x:v>312</x:v>
+        <x:v>432</x:v>
       </x:c>
       <x:c r="D13" s="6" t="s">
-        <x:v>95</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="E13" s="6" t="s">
-        <x:v>117</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F13" s="6" t="s">
-        <x:v>326</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="G13" s="7">
         <x:v>15000</x:v>
       </x:c>
-    </x:row>
-    <x:row r="14" spans="1:7" ht="14.19999999999999928946">
+      <x:c r="H13" t="s">
+        <x:v>450</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:8" ht="14.19999999999999928946">
       <x:c r="A14" s="6">
         <x:v>13</x:v>
       </x:c>
       <x:c r="B14" s="6" t="s">
-        <x:v>392</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C14" s="6" t="s">
-        <x:v>312</x:v>
+        <x:v>432</x:v>
       </x:c>
       <x:c r="D14" s="6" t="s">
-        <x:v>102</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="E14" s="6" t="s">
-        <x:v>113</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F14" s="6" t="s">
-        <x:v>326</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="G14" s="7">
         <x:v>30000</x:v>
       </x:c>
-    </x:row>
-    <x:row r="15" spans="1:7" ht="14.19999999999999928946">
+      <x:c r="H14" t="s">
+        <x:v>450</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:8" ht="14.19999999999999928946">
       <x:c r="A15" s="6">
         <x:v>14</x:v>
       </x:c>
       <x:c r="B15" s="6" t="s">
-        <x:v>393</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C15" s="7"/>
       <x:c r="D15" s="6" t="s">
-        <x:v>178</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="E15" s="6" t="s">
-        <x:v>121</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F15" s="6" t="s">
-        <x:v>326</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="G15" s="7">
         <x:v>12000</x:v>
       </x:c>
-    </x:row>
-    <x:row r="16" spans="1:7" ht="14.19999999999999928946">
+      <x:c r="H15" t="s">
+        <x:v>450</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:8" ht="14.19999999999999928946">
       <x:c r="A16" s="6">
         <x:v>15</x:v>
       </x:c>
       <x:c r="B16" s="6" t="s">
-        <x:v>394</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C16" s="6" t="s">
-        <x:v>302</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="D16" s="6" t="s">
-        <x:v>66</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="E16" s="6" t="s">
-        <x:v>115</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F16" s="6" t="s">
-        <x:v>326</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="G16" s="7">
         <x:v>20000</x:v>
       </x:c>
-    </x:row>
-    <x:row r="17" spans="1:7" ht="14.19999999999999928946">
+      <x:c r="H16" t="s">
+        <x:v>450</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:8" ht="14.19999999999999928946">
       <x:c r="A17" s="6">
         <x:v>16</x:v>
       </x:c>
       <x:c r="B17" s="6" t="s">
-        <x:v>400</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="C17" s="6" t="s">
-        <x:v>316</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="D17" s="6" t="s">
-        <x:v>183</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="E17" s="6" t="s">
-        <x:v>120</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F17" s="6" t="s">
-        <x:v>326</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="G17" s="7">
         <x:v>10000</x:v>
       </x:c>
-    </x:row>
-    <x:row r="18" spans="1:7" ht="14.19999999999999928946">
+      <x:c r="H17" t="s">
+        <x:v>450</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:8" ht="14.19999999999999928946">
       <x:c r="A18" s="6">
         <x:v>17</x:v>
       </x:c>
       <x:c r="B18" s="6" t="s">
-        <x:v>399</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="C18" s="6" t="s">
-        <x:v>83</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="D18" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="E18" s="6" t="s">
         <x:v>122</x:v>
       </x:c>
       <x:c r="F18" s="6" t="s">
-        <x:v>326</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="G18" s="7">
         <x:v>20000</x:v>
       </x:c>
-    </x:row>
-    <x:row r="19" spans="1:7" ht="14.19999999999999928946">
+      <x:c r="H18" t="s">
+        <x:v>450</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:8" ht="14.19999999999999928946">
       <x:c r="A19" s="6">
         <x:v>18</x:v>
       </x:c>
       <x:c r="B19" s="6" t="s">
-        <x:v>402</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="C19" s="6" t="s">
-        <x:v>298</x:v>
+        <x:v>440</x:v>
       </x:c>
       <x:c r="D19" s="6" t="s">
-        <x:v>71</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="E19" s="6" t="s">
-        <x:v>143</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="F19" s="6" t="s">
-        <x:v>326</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="G19" s="7">
         <x:v>15000</x:v>
       </x:c>
-    </x:row>
-    <x:row r="20" spans="1:7" ht="14.19999999999999928946">
+      <x:c r="H19" t="s">
+        <x:v>450</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:8" ht="14.19999999999999928946">
       <x:c r="A20" s="6">
         <x:v>19</x:v>
       </x:c>
       <x:c r="B20" s="6" t="s">
-        <x:v>396</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C20" s="6" t="s">
-        <x:v>313</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="D20" s="6" t="s">
-        <x:v>65</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E20" s="6" t="s">
-        <x:v>133</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="F20" s="6" t="s">
-        <x:v>326</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="G20" s="7">
         <x:v>20000</x:v>
       </x:c>
-    </x:row>
-    <x:row r="21" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="H20" t="s">
+        <x:v>450</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:8" ht="15.75" customHeight="1">
       <x:c r="A21" s="6">
         <x:v>20</x:v>
       </x:c>
       <x:c r="B21" s="6" t="s">
-        <x:v>412</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="C21" s="6" t="s">
-        <x:v>2</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D21" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="E21" s="6" t="s">
-        <x:v>137</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="F21" s="6" t="s">
-        <x:v>326</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="G21" s="7">
         <x:v>20000</x:v>
       </x:c>
-    </x:row>
-    <x:row r="22" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="H21" t="s">
+        <x:v>450</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:8" ht="15.75" customHeight="1">
       <x:c r="A22" s="6">
         <x:v>21</x:v>
       </x:c>
       <x:c r="B22" s="6" t="s">
-        <x:v>318</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="C22" s="6" t="s">
-        <x:v>90</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D22" s="6" t="s">
-        <x:v>175</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="E22" s="6" t="s">
-        <x:v>136</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F22" s="6" t="s">
-        <x:v>326</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="G22" s="7">
         <x:v>20000</x:v>
       </x:c>
-    </x:row>
-    <x:row r="23" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="H22" t="s">
+        <x:v>450</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:8" ht="15.75" customHeight="1">
       <x:c r="A23" s="6">
         <x:v>22</x:v>
       </x:c>
       <x:c r="B23" s="6" t="s">
+        <x:v>370</x:v>
+      </x:c>
+      <x:c r="C23" s="6" t="s">
+        <x:v>335</x:v>
+      </x:c>
+      <x:c r="D23" s="6" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="E23" s="6" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="F23" s="6" t="s">
         <x:v>413</x:v>
-      </x:c>
-      <x:c r="C23" s="6" t="s">
-        <x:v>314</x:v>
-      </x:c>
-      <x:c r="D23" s="6" t="s">
-        <x:v>172</x:v>
-      </x:c>
-      <x:c r="E23" s="6" t="s">
-        <x:v>138</x:v>
-      </x:c>
-      <x:c r="F23" s="6" t="s">
-        <x:v>326</x:v>
       </x:c>
       <x:c r="G23" s="7">
         <x:v>20000</x:v>
       </x:c>
-    </x:row>
-    <x:row r="24" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="H23" t="s">
+        <x:v>450</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:8" ht="15.75" customHeight="1">
       <x:c r="A24" s="6">
         <x:v>23</x:v>
       </x:c>
       <x:c r="B24" s="6" t="s">
-        <x:v>404</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="C24" s="6" t="s">
-        <x:v>315</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="D24" s="6" t="s">
-        <x:v>170</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="E24" s="6" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F24" s="6" t="s">
-        <x:v>326</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="G24" s="7">
         <x:v>10000</x:v>
       </x:c>
-    </x:row>
-    <x:row r="25" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="H24" t="s">
+        <x:v>450</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:8" ht="15.75" customHeight="1">
       <x:c r="A25" s="6">
         <x:v>24</x:v>
       </x:c>
       <x:c r="B25" s="6" t="s">
-        <x:v>10</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C25" s="7"/>
       <x:c r="D25" s="6" t="s">
-        <x:v>179</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="E25" s="6" t="s">
-        <x:v>140</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="F25" s="6" t="s">
-        <x:v>326</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="G25" s="7">
         <x:v>30000</x:v>
       </x:c>
-    </x:row>
-    <x:row r="26" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="H25" t="s">
+        <x:v>450</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:8" ht="15.75" customHeight="1">
       <x:c r="A26" s="6">
         <x:v>25</x:v>
       </x:c>
       <x:c r="B26" s="6" t="s">
-        <x:v>426</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="C26" s="6" t="s">
-        <x:v>27</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D26" s="6" t="s">
-        <x:v>171</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="E26" s="6" t="s">
-        <x:v>131</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="F26" s="6" t="s">
-        <x:v>326</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="G26" s="7">
         <x:v>15000</x:v>
       </x:c>
-    </x:row>
-    <x:row r="27" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="H26" t="s">
+        <x:v>450</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:8" ht="15.75" customHeight="1">
       <x:c r="A27" s="6">
         <x:v>26</x:v>
       </x:c>
       <x:c r="B27" s="6" t="s">
-        <x:v>423</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="C27" s="6" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D27" s="6" t="s">
-        <x:v>70</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="E27" s="6" t="s">
-        <x:v>132</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="F27" s="6" t="s">
-        <x:v>326</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="G27" s="7">
         <x:v>15000</x:v>
       </x:c>
-    </x:row>
-    <x:row r="28" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="H27" t="s">
+        <x:v>450</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:8" ht="15.75" customHeight="1">
       <x:c r="A28" s="6">
         <x:v>27</x:v>
       </x:c>
       <x:c r="B28" s="6" t="s">
-        <x:v>427</x:v>
+        <x:v>377</x:v>
       </x:c>
       <x:c r="C28" s="6" t="s">
-        <x:v>419</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="D28" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="E28" s="6" t="s">
-        <x:v>142</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="F28" s="6" t="s">
-        <x:v>144</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="G28" s="7">
         <x:v>15000</x:v>
       </x:c>
-    </x:row>
-    <x:row r="29" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="H28" t="s">
+        <x:v>450</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:8" ht="15.75" customHeight="1">
       <x:c r="A29" s="6">
         <x:v>28</x:v>
       </x:c>
       <x:c r="B29" s="6" t="s">
-        <x:v>321</x:v>
+        <x:v>417</x:v>
       </x:c>
       <x:c r="C29" s="6" t="s">
-        <x:v>93</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D29" s="6" t="s">
-        <x:v>63</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E29" s="6" t="s">
-        <x:v>141</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="F29" s="6" t="s">
-        <x:v>144</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="G29" s="7">
         <x:v>20000</x:v>
+      </x:c>
+      <x:c r="H29" t="s">
+        <x:v>450</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:7" ht="15.75" customHeight="1">
@@ -2557,19 +2664,19 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="B30" s="6" t="s">
-        <x:v>429</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="C30" s="6" t="s">
-        <x:v>456</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="D30" s="6" t="s">
-        <x:v>79</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="E30" s="6" t="s">
-        <x:v>126</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="F30" s="6" t="s">
-        <x:v>152</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="G30" s="8">
         <x:v>100000</x:v>
@@ -2580,68 +2687,74 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="B31" s="6" t="s">
-        <x:v>333</x:v>
+        <x:v>422</x:v>
       </x:c>
       <x:c r="C31" s="6" t="s">
-        <x:v>301</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="D31" s="6" t="s">
-        <x:v>61</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E31" s="6" t="s">
-        <x:v>135</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="F31" s="6" t="s">
-        <x:v>152</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="G31" s="8">
         <x:v>20000</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:7" ht="15.75" customHeight="1">
+    <x:row r="32" spans="1:8" ht="15.75" customHeight="1">
       <x:c r="A32" s="6">
         <x:v>31</x:v>
       </x:c>
       <x:c r="B32" s="6" t="s">
-        <x:v>18</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C32" s="6" t="s">
-        <x:v>48</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D32" s="6" t="s">
-        <x:v>59</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E32" s="6" t="s">
-        <x:v>134</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F32" s="6" t="s">
-        <x:v>152</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="G32" s="8">
         <x:v>45000</x:v>
       </x:c>
-    </x:row>
-    <x:row r="33" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="H32" t="s">
+        <x:v>471</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:8" ht="15.75" customHeight="1">
       <x:c r="A33" s="6">
         <x:v>32</x:v>
       </x:c>
       <x:c r="B33" s="6" t="s">
-        <x:v>160</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C33" s="6" t="s">
-        <x:v>299</x:v>
+        <x:v>425</x:v>
       </x:c>
       <x:c r="D33" s="6" t="s">
-        <x:v>60</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E33" s="6" t="s">
-        <x:v>139</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="F33" s="6" t="s">
-        <x:v>152</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="G33" s="8">
         <x:v>30000</x:v>
+      </x:c>
+      <x:c r="H33" t="s">
+        <x:v>471</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:7" ht="15.75" customHeight="1">
@@ -2649,19 +2762,19 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="B34" s="6" t="s">
-        <x:v>17</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C34" s="6" t="s">
-        <x:v>46</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D34" s="6" t="s">
-        <x:v>80</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="E34" s="6" t="s">
-        <x:v>128</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="F34" s="6" t="s">
-        <x:v>152</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="G34" s="8">
         <x:v>35000</x:v>
@@ -2672,66 +2785,72 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="B35" s="6" t="s">
-        <x:v>448</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="C35" s="6" t="s">
-        <x:v>461</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="D35" s="6" t="s">
-        <x:v>58</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E35" s="6" t="s">
-        <x:v>129</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="F35" s="6" t="s">
-        <x:v>152</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="G35" s="8">
         <x:v>20000</x:v>
       </x:c>
     </x:row>
-    <x:row r="36" spans="1:7" ht="15.75" customHeight="1">
+    <x:row r="36" spans="1:8" ht="15.75" customHeight="1">
       <x:c r="A36" s="6">
         <x:v>35</x:v>
       </x:c>
       <x:c r="B36" s="6" t="s">
-        <x:v>89</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C36" s="8"/>
       <x:c r="D36" s="6" t="s">
-        <x:v>185</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="E36" s="6" t="s">
-        <x:v>130</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F36" s="6" t="s">
-        <x:v>152</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="G36" s="8">
         <x:v>15000</x:v>
       </x:c>
-    </x:row>
-    <x:row r="37" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="H36" t="s">
+        <x:v>470</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:8" ht="15.75" customHeight="1">
       <x:c r="A37" s="6">
         <x:v>36</x:v>
       </x:c>
       <x:c r="B37" s="6" t="s">
-        <x:v>436</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="C37" s="6" t="s">
-        <x:v>454</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="D37" s="6" t="s">
-        <x:v>64</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E37" s="6" t="s">
-        <x:v>353</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="F37" s="6" t="s">
-        <x:v>152</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="G37" s="8">
         <x:v>10000</x:v>
+      </x:c>
+      <x:c r="H37" t="s">
+        <x:v>470</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:7" ht="15.75" customHeight="1">
@@ -2739,19 +2858,19 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="B38" s="6" t="s">
-        <x:v>12</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C38" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D38" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="E38" s="6" t="s">
-        <x:v>349</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="F38" s="6" t="s">
-        <x:v>463</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="G38" s="8">
         <x:v>15000</x:v>
@@ -2762,19 +2881,19 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="B39" s="6" t="s">
-        <x:v>28</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C39" s="6" t="s">
-        <x:v>15</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D39" s="6" t="s">
-        <x:v>68</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="E39" s="6" t="s">
-        <x:v>363</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="F39" s="6" t="s">
-        <x:v>157</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="G39" s="8">
         <x:v>15000</x:v>
@@ -2785,114 +2904,126 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="B40" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C40" s="6" t="s">
-        <x:v>20</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D40" s="6" t="s">
-        <x:v>174</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="E40" s="6" t="s">
-        <x:v>359</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="F40" s="6" t="s">
-        <x:v>157</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="G40" s="8">
         <x:v>10000</x:v>
       </x:c>
     </x:row>
-    <x:row r="41" spans="1:7" ht="15.75" customHeight="1">
+    <x:row r="41" spans="1:8" ht="15.75" customHeight="1">
       <x:c r="A41" s="6">
         <x:v>40</x:v>
       </x:c>
       <x:c r="B41" s="6" t="s">
-        <x:v>432</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="C41" s="6" t="s">
-        <x:v>49</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D41" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="E41" s="6" t="s">
-        <x:v>391</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="F41" s="6" t="s">
-        <x:v>157</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="G41" s="8">
         <x:v>17000</x:v>
       </x:c>
-    </x:row>
-    <x:row r="42" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="H41" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:8" ht="15.75" customHeight="1">
       <x:c r="A42" s="6">
         <x:v>41</x:v>
       </x:c>
       <x:c r="B42" s="6" t="s">
-        <x:v>434</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="C42" s="6" t="s">
-        <x:v>32</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D42" s="6" t="s">
-        <x:v>169</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="E42" s="6" t="s">
-        <x:v>347</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="F42" s="6" t="s">
-        <x:v>157</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="G42" s="8">
         <x:v>15000</x:v>
       </x:c>
-    </x:row>
-    <x:row r="43" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="H42" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:8" ht="15.75" customHeight="1">
       <x:c r="A43" s="6">
         <x:v>42</x:v>
       </x:c>
       <x:c r="B43" s="6" t="s">
-        <x:v>293</x:v>
+        <x:v>437</x:v>
       </x:c>
       <x:c r="C43" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D43" s="6" t="s">
-        <x:v>72</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="E43" s="6" t="s">
-        <x:v>343</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="F43" s="6" t="s">
-        <x:v>157</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="G43" s="8">
         <x:v>15000</x:v>
       </x:c>
-    </x:row>
-    <x:row r="44" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="H43" t="s">
+        <x:v>109</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:8" ht="15.75" customHeight="1">
       <x:c r="A44" s="6">
         <x:v>43</x:v>
       </x:c>
       <x:c r="B44" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C44" s="6" t="s">
-        <x:v>443</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="D44" s="6" t="s">
-        <x:v>180</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="E44" s="6" t="s">
-        <x:v>381</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="F44" s="6" t="s">
-        <x:v>157</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="G44" s="8">
         <x:v>25000</x:v>
+      </x:c>
+      <x:c r="H44" t="s">
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:7" ht="15.75" customHeight="1">
@@ -2900,19 +3031,19 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="B45" s="6" t="s">
-        <x:v>439</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="C45" s="6" t="s">
-        <x:v>237</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="D45" s="6" t="s">
-        <x:v>67</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="E45" s="6" t="s">
-        <x:v>372</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="F45" s="6" t="s">
-        <x:v>157</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="G45" s="8">
         <x:v>12000</x:v>
@@ -2923,19 +3054,19 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="B46" s="6" t="s">
-        <x:v>3</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C46" s="6" t="s">
-        <x:v>234</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="D46" s="6" t="s">
-        <x:v>73</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="E46" s="6" t="s">
-        <x:v>344</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="F46" s="6" t="s">
-        <x:v>157</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="G46" s="8">
         <x:v>12000</x:v>
@@ -2946,45 +3077,48 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="B47" s="6" t="s">
-        <x:v>319</x:v>
+        <x:v>405</x:v>
       </x:c>
       <x:c r="C47" s="6" t="s">
-        <x:v>23</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D47" s="6" t="s">
-        <x:v>97</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="E47" s="6" t="s">
-        <x:v>125</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F47" s="6" t="s">
-        <x:v>337</x:v>
+        <x:v>402</x:v>
       </x:c>
       <x:c r="G47" s="8">
         <x:v>20000</x:v>
       </x:c>
     </x:row>
-    <x:row r="48" spans="1:7" ht="15.75" customHeight="1">
+    <x:row r="48" spans="1:8" ht="15.75" customHeight="1">
       <x:c r="A48" s="6">
         <x:v>47</x:v>
       </x:c>
       <x:c r="B48" s="6" t="s">
-        <x:v>440</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="C48" s="6" t="s">
-        <x:v>303</x:v>
+        <x:v>428</x:v>
       </x:c>
       <x:c r="D48" s="6" t="s">
-        <x:v>69</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="E48" s="6" t="s">
-        <x:v>110</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F48" s="6" t="s">
-        <x:v>337</x:v>
+        <x:v>402</x:v>
       </x:c>
       <x:c r="G48" s="8">
         <x:v>20000</x:v>
+      </x:c>
+      <x:c r="H48" t="s">
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:7" ht="15.75" customHeight="1">
@@ -2992,91 +3126,100 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="B49" s="6" t="s">
-        <x:v>438</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="C49" s="6" t="s">
-        <x:v>145</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D49" s="6" t="s">
-        <x:v>200</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="E49" s="6" t="s">
-        <x:v>355</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="F49" s="6" t="s">
-        <x:v>337</x:v>
+        <x:v>402</x:v>
       </x:c>
       <x:c r="G49" s="8">
         <x:v>30000</x:v>
       </x:c>
     </x:row>
-    <x:row r="50" spans="1:7" ht="15.75" customHeight="1">
+    <x:row r="50" spans="1:8" ht="15.75" customHeight="1">
       <x:c r="A50" s="6">
         <x:v>49</x:v>
       </x:c>
       <x:c r="B50" s="6" t="s">
-        <x:v>9</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C50" s="6" t="s">
-        <x:v>57</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D50" s="6" t="s">
-        <x:v>204</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="E50" s="6" t="s">
-        <x:v>358</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="F50" s="6" t="s">
-        <x:v>337</x:v>
+        <x:v>402</x:v>
       </x:c>
       <x:c r="G50" s="8">
         <x:v>30000</x:v>
       </x:c>
-    </x:row>
-    <x:row r="51" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="H50" t="s">
+        <x:v>109</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:8" ht="15.75" customHeight="1">
       <x:c r="A51" s="6">
         <x:v>50</x:v>
       </x:c>
       <x:c r="B51" s="6" t="s">
-        <x:v>248</x:v>
+        <x:v>395</x:v>
       </x:c>
       <x:c r="C51" s="6" t="s">
-        <x:v>52</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D51" s="6" t="s">
-        <x:v>198</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E51" s="6" t="s">
-        <x:v>386</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="F51" s="6" t="s">
-        <x:v>337</x:v>
+        <x:v>402</x:v>
       </x:c>
       <x:c r="G51" s="8">
         <x:v>20000</x:v>
       </x:c>
-    </x:row>
-    <x:row r="52" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="H51" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:8" ht="15.75" customHeight="1">
       <x:c r="A52" s="6">
         <x:v>51</x:v>
       </x:c>
       <x:c r="B52" s="6" t="s">
-        <x:v>21</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C52" s="6" t="s">
-        <x:v>235</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="D52" s="6" t="s">
-        <x:v>205</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="E52" s="6" t="s">
-        <x:v>375</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="F52" s="6" t="s">
-        <x:v>337</x:v>
+        <x:v>402</x:v>
       </x:c>
       <x:c r="G52" s="8">
         <x:v>12000</x:v>
+      </x:c>
+      <x:c r="H52" t="s">
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:7" ht="15.75" customHeight="1">
@@ -3084,19 +3227,19 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="B53" s="6" t="s">
-        <x:v>431</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="C53" s="6" t="s">
-        <x:v>445</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="D53" s="6" t="s">
-        <x:v>186</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="E53" s="6" t="s">
-        <x:v>388</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="F53" s="6" t="s">
-        <x:v>337</x:v>
+        <x:v>402</x:v>
       </x:c>
       <x:c r="G53" s="8">
         <x:v>12000</x:v>
@@ -3107,19 +3250,19 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="B54" s="6" t="s">
-        <x:v>38</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C54" s="6" t="s">
+        <x:v>449</x:v>
+      </x:c>
+      <x:c r="D54" s="6" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="E54" s="6" t="s">
         <x:v>306</x:v>
       </x:c>
-      <x:c r="D54" s="6" t="s">
-        <x:v>206</x:v>
-      </x:c>
-      <x:c r="E54" s="6" t="s">
-        <x:v>369</x:v>
-      </x:c>
       <x:c r="F54" s="6" t="s">
-        <x:v>154</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="G54" s="8">
         <x:v>15000</x:v>
@@ -3130,19 +3273,19 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="B55" s="6" t="s">
+        <x:v>415</x:v>
+      </x:c>
+      <x:c r="C55" s="6" t="s">
+        <x:v>461</x:v>
+      </x:c>
+      <x:c r="D55" s="6" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="E55" s="6" t="s">
         <x:v>327</x:v>
       </x:c>
-      <x:c r="C55" s="6" t="s">
-        <x:v>450</x:v>
-      </x:c>
-      <x:c r="D55" s="6" t="s">
-        <x:v>199</x:v>
-      </x:c>
-      <x:c r="E55" s="6" t="s">
-        <x:v>360</x:v>
-      </x:c>
       <x:c r="F55" s="6" t="s">
-        <x:v>154</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="G55" s="8">
         <x:v>15000</x:v>
@@ -3153,45 +3296,48 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="B56" s="6" t="s">
-        <x:v>6</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C56" s="6" t="s">
-        <x:v>33</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D56" s="6" t="s">
-        <x:v>189</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="E56" s="6" t="s">
-        <x:v>351</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="F56" s="6" t="s">
-        <x:v>154</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="G56" s="8">
         <x:v>15000</x:v>
       </x:c>
     </x:row>
-    <x:row r="57" spans="1:7" ht="15.75" customHeight="1">
+    <x:row r="57" spans="1:8" ht="15.75" customHeight="1">
       <x:c r="A57" s="6">
         <x:v>56</x:v>
       </x:c>
       <x:c r="B57" s="6" t="s">
-        <x:v>437</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="C57" s="6" t="s">
-        <x:v>296</x:v>
+        <x:v>439</x:v>
       </x:c>
       <x:c r="D57" s="6" t="s">
-        <x:v>201</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="E57" s="6" t="s">
-        <x:v>389</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="F57" s="6" t="s">
-        <x:v>154</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="G57" s="8">
         <x:v>15000</x:v>
+      </x:c>
+      <x:c r="H57" t="s">
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:7" ht="15.75" customHeight="1">
@@ -3199,19 +3345,19 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="B58" s="6" t="s">
-        <x:v>433</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="C58" s="6" t="s">
-        <x:v>305</x:v>
+        <x:v>446</x:v>
       </x:c>
       <x:c r="D58" s="6" t="s">
-        <x:v>168</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="E58" s="6" t="s">
-        <x:v>357</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="F58" s="6" t="s">
-        <x:v>154</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="G58" s="8">
         <x:v>15000</x:v>
@@ -3222,19 +3368,19 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="B59" s="6" t="s">
-        <x:v>255</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="C59" s="6" t="s">
-        <x:v>86</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D59" s="6" t="s">
-        <x:v>207</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="E59" s="6" t="s">
-        <x:v>379</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="F59" s="6" t="s">
-        <x:v>154</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="G59" s="8">
         <x:v>15000</x:v>
@@ -3245,19 +3391,19 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="B60" s="6" t="s">
-        <x:v>84</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C60" s="6" t="s">
-        <x:v>290</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="D60" s="6" t="s">
-        <x:v>173</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="E60" s="6" t="s">
-        <x:v>361</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="F60" s="6" t="s">
-        <x:v>154</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="G60" s="8">
         <x:v>15000</x:v>
@@ -3268,19 +3414,19 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="B61" s="6" t="s">
-        <x:v>435</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="C61" s="6" t="s">
-        <x:v>86</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D61" s="6" t="s">
-        <x:v>165</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="E61" s="6" t="s">
-        <x:v>348</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="F61" s="6" t="s">
-        <x:v>154</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="G61" s="8">
         <x:v>15000</x:v>
@@ -3291,45 +3437,48 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="B62" s="6" t="s">
-        <x:v>85</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C62" s="6" t="s">
-        <x:v>451</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="D62" s="6" t="s">
-        <x:v>188</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="E62" s="6" t="s">
-        <x:v>376</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="F62" s="6" t="s">
-        <x:v>154</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="G62" s="8">
         <x:v>15000</x:v>
       </x:c>
     </x:row>
-    <x:row r="63" spans="1:7" ht="15.75" customHeight="1">
+    <x:row r="63" spans="1:8" ht="15.75" customHeight="1">
       <x:c r="A63" s="6">
         <x:v>62</x:v>
       </x:c>
       <x:c r="B63" s="6" t="s">
-        <x:v>8</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C63" s="6" t="s">
-        <x:v>455</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="D63" s="6" t="s">
-        <x:v>166</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="E63" s="6" t="s">
-        <x:v>345</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="F63" s="6" t="s">
-        <x:v>154</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="G63" s="8">
         <x:v>30000</x:v>
+      </x:c>
+      <x:c r="H63" t="s">
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:7" ht="15.75" customHeight="1">
@@ -3337,19 +3486,19 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="B64" s="6" t="s">
-        <x:v>407</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="C64" s="6" t="s">
-        <x:v>457</x:v>
+        <x:v>463</x:v>
       </x:c>
       <x:c r="D64" s="6" t="s">
-        <x:v>197</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="E64" s="6" t="s">
-        <x:v>362</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="F64" s="6" t="s">
-        <x:v>154</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="G64" s="8">
         <x:v>15000</x:v>
@@ -3360,19 +3509,19 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="B65" s="6" t="s">
-        <x:v>405</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="C65" s="6" t="s">
-        <x:v>290</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="D65" s="6" t="s">
-        <x:v>203</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="E65" s="6" t="s">
-        <x:v>367</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="F65" s="6" t="s">
-        <x:v>154</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="G65" s="8">
         <x:v>20000</x:v>
@@ -3383,45 +3532,48 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="B66" s="6" t="s">
-        <x:v>242</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C66" s="6" t="s">
-        <x:v>86</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D66" s="6" t="s">
-        <x:v>164</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="E66" s="6" t="s">
-        <x:v>387</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="F66" s="6" t="s">
-        <x:v>154</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="G66" s="8">
         <x:v>15000</x:v>
       </x:c>
     </x:row>
-    <x:row r="67" spans="1:7" ht="15.75" customHeight="1">
+    <x:row r="67" spans="1:8" ht="15.75" customHeight="1">
       <x:c r="A67" s="6">
         <x:v>66</x:v>
       </x:c>
       <x:c r="B67" s="6" t="s">
-        <x:v>328</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="C67" s="6" t="s">
-        <x:v>446</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="D67" s="6" t="s">
-        <x:v>182</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="E67" s="6" t="s">
-        <x:v>378</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="F67" s="6" t="s">
-        <x:v>154</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="G67" s="8">
         <x:v>15000</x:v>
+      </x:c>
+      <x:c r="H67" t="s">
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:7" ht="15.75" customHeight="1">
@@ -3429,19 +3581,19 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="B68" s="6" t="s">
-        <x:v>249</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="C68" s="6" t="s">
-        <x:v>30</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D68" s="6" t="s">
-        <x:v>181</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="E68" s="6" t="s">
-        <x:v>374</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="F68" s="6" t="s">
-        <x:v>154</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="G68" s="8">
         <x:v>20000</x:v>
@@ -3452,68 +3604,74 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="B69" s="6" t="s">
-        <x:v>324</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="C69" s="6" t="s">
-        <x:v>35</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D69" s="6" t="s">
-        <x:v>202</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="E69" s="6" t="s">
-        <x:v>194</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="F69" s="6" t="s">
-        <x:v>159</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="G69" s="8">
         <x:v>15000</x:v>
       </x:c>
     </x:row>
-    <x:row r="70" spans="1:7" ht="15.75" customHeight="1">
+    <x:row r="70" spans="1:8" ht="15.75" customHeight="1">
       <x:c r="A70" s="6">
         <x:v>69</x:v>
       </x:c>
       <x:c r="B70" s="6" t="s">
-        <x:v>403</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="C70" s="6" t="s">
-        <x:v>297</x:v>
+        <x:v>444</x:v>
       </x:c>
       <x:c r="D70" s="6" t="s">
-        <x:v>176</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="E70" s="6" t="s">
-        <x:v>380</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="F70" s="6" t="s">
-        <x:v>159</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="G70" s="8">
         <x:v>15000</x:v>
       </x:c>
-    </x:row>
-    <x:row r="71" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="H70" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:8" ht="15.75" customHeight="1">
       <x:c r="A71" s="6">
         <x:v>70</x:v>
       </x:c>
       <x:c r="B71" s="6" t="s">
-        <x:v>401</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="C71" s="6" t="s">
-        <x:v>300</x:v>
+        <x:v>441</x:v>
       </x:c>
       <x:c r="D71" s="6" t="s">
-        <x:v>184</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="E71" s="6" t="s">
-        <x:v>366</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="F71" s="6" t="s">
-        <x:v>159</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="G71" s="8">
         <x:v>15000</x:v>
+      </x:c>
+      <x:c r="H71" t="s">
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:7" ht="15.75" customHeight="1">
@@ -3521,19 +3679,19 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="B72" s="6" t="s">
-        <x:v>330</x:v>
+        <x:v>421</x:v>
       </x:c>
       <x:c r="C72" s="6" t="s">
-        <x:v>39</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D72" s="6" t="s">
-        <x:v>167</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E72" s="6" t="s">
-        <x:v>271</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="F72" s="6" t="s">
-        <x:v>159</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="G72" s="8">
         <x:v>35000</x:v>
@@ -3544,19 +3702,19 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="B73" s="6" t="s">
-        <x:v>246</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="C73" s="6" t="s">
-        <x:v>251</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="D73" s="6" t="s">
-        <x:v>177</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="E73" s="6" t="s">
-        <x:v>368</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="F73" s="6" t="s">
-        <x:v>155</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="G73" s="8">
         <x:v>20000</x:v>
@@ -3567,19 +3725,19 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="B74" s="6" t="s">
+        <x:v>366</x:v>
+      </x:c>
+      <x:c r="C74" s="6" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="D74" s="6" t="s">
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="E74" s="6" t="s">
+        <x:v>326</x:v>
+      </x:c>
+      <x:c r="F74" s="6" t="s">
         <x:v>409</x:v>
-      </x:c>
-      <x:c r="C74" s="6" t="s">
-        <x:v>236</x:v>
-      </x:c>
-      <x:c r="D74" s="6" t="s">
-        <x:v>196</x:v>
-      </x:c>
-      <x:c r="E74" s="6" t="s">
-        <x:v>356</x:v>
-      </x:c>
-      <x:c r="F74" s="6" t="s">
-        <x:v>462</x:v>
       </x:c>
       <x:c r="G74" s="8">
         <x:v>20000</x:v>
@@ -3590,19 +3748,19 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="B75" s="6" t="s">
-        <x:v>415</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="C75" s="6" t="s">
-        <x:v>55</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D75" s="6" t="s">
-        <x:v>163</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="E75" s="6" t="s">
-        <x:v>370</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="F75" s="6" t="s">
-        <x:v>155</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="G75" s="8">
         <x:v>13000</x:v>
@@ -3613,19 +3771,19 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="B76" s="6" t="s">
-        <x:v>241</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C76" s="6" t="s">
-        <x:v>37</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D76" s="6" t="s">
-        <x:v>104</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="E76" s="6" t="s">
-        <x:v>365</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="F76" s="6" t="s">
-        <x:v>155</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="G76" s="8">
         <x:v>30000</x:v>
@@ -3636,19 +3794,19 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="B77" s="6" t="s">
-        <x:v>406</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="C77" s="6" t="s">
-        <x:v>414</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="D77" s="6" t="s">
-        <x:v>103</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="E77" s="6" t="s">
-        <x:v>364</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="F77" s="6" t="s">
-        <x:v>151</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="G77" s="8">
         <x:v>15000</x:v>
@@ -3659,68 +3817,74 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="B78" s="6" t="s">
-        <x:v>7</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C78" s="6" t="s">
-        <x:v>453</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="D78" s="6" t="s">
-        <x:v>214</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="E78" s="6" t="s">
-        <x:v>279</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="F78" s="6" t="s">
-        <x:v>151</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="G78" s="8">
         <x:v>15000</x:v>
       </x:c>
     </x:row>
-    <x:row r="79" spans="1:7" ht="15.75" customHeight="1">
+    <x:row r="79" spans="1:8" ht="15.75" customHeight="1">
       <x:c r="A79" s="6">
         <x:v>78</x:v>
       </x:c>
       <x:c r="B79" s="6" t="s">
-        <x:v>332</x:v>
+        <x:v>399</x:v>
       </x:c>
       <x:c r="C79" s="6" t="s">
-        <x:v>232</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="D79" s="6" t="s">
-        <x:v>228</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="E79" s="6" t="s">
-        <x:v>371</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="F79" s="6" t="s">
-        <x:v>151</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="G79" s="8">
         <x:v>20000</x:v>
       </x:c>
-    </x:row>
-    <x:row r="80" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="H79" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:8" ht="15.75" customHeight="1">
       <x:c r="A80" s="6">
         <x:v>79</x:v>
       </x:c>
       <x:c r="B80" s="6" t="s">
-        <x:v>420</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="C80" s="6" t="s">
-        <x:v>50</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D80" s="6" t="s">
-        <x:v>191</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="E80" s="6" t="s">
-        <x:v>354</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="F80" s="6" t="s">
-        <x:v>158</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="G80" s="8">
         <x:v>15000</x:v>
+      </x:c>
+      <x:c r="H80" t="s">
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:7" ht="15.75" customHeight="1">
@@ -3728,91 +3892,100 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="B81" s="6" t="s">
-        <x:v>243</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C81" s="6" t="s">
-        <x:v>233</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="D81" s="6" t="s">
-        <x:v>225</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="E81" s="6" t="s">
-        <x:v>269</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="F81" s="6" t="s">
-        <x:v>158</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="G81" s="8">
         <x:v>12000</x:v>
       </x:c>
     </x:row>
-    <x:row r="82" spans="1:7" ht="15.75" customHeight="1">
+    <x:row r="82" spans="1:8" ht="15.75" customHeight="1">
       <x:c r="A82" s="6">
         <x:v>81</x:v>
       </x:c>
       <x:c r="B82" s="6" t="s">
-        <x:v>416</x:v>
+        <x:v>381</x:v>
       </x:c>
       <x:c r="C82" s="6" t="s">
-        <x:v>40</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D82" s="6" t="s">
-        <x:v>211</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="E82" s="6" t="s">
-        <x:v>373</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="F82" s="6" t="s">
-        <x:v>158</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="G82" s="8">
         <x:v>15000</x:v>
       </x:c>
-    </x:row>
-    <x:row r="83" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="H82" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:8" ht="15.75" customHeight="1">
       <x:c r="A83" s="6">
         <x:v>82</x:v>
       </x:c>
       <x:c r="B83" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C83" s="6" t="s">
-        <x:v>50</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D83" s="6" t="s">
-        <x:v>217</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="E83" s="6" t="s">
-        <x:v>350</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="F83" s="6" t="s">
-        <x:v>158</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="G83" s="8">
         <x:v>17000</x:v>
       </x:c>
-    </x:row>
-    <x:row r="84" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="H83" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:8" ht="15.75" customHeight="1">
       <x:c r="A84" s="6">
         <x:v>83</x:v>
       </x:c>
       <x:c r="B84" s="6" t="s">
-        <x:v>340</x:v>
+        <x:v>414</x:v>
       </x:c>
       <x:c r="C84" s="6" t="s">
-        <x:v>449</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="D84" s="6" t="s">
-        <x:v>192</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="E84" s="6" t="s">
-        <x:v>352</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="F84" s="6" t="s">
-        <x:v>158</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="G84" s="8">
         <x:v>30000</x:v>
+      </x:c>
+      <x:c r="H84" t="s">
+        <x:v>450</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:7" ht="15.75" customHeight="1">
@@ -3820,19 +3993,19 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="B85" s="6" t="s">
-        <x:v>14</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C85" s="6" t="s">
-        <x:v>309</x:v>
+        <x:v>442</x:v>
       </x:c>
       <x:c r="D85" s="6" t="s">
-        <x:v>221</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="E85" s="6" t="s">
-        <x:v>276</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="F85" s="6" t="s">
-        <x:v>158</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="G85" s="8">
         <x:v>14000</x:v>
@@ -3843,137 +4016,152 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="B86" s="6" t="s">
-        <x:v>331</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="C86" s="6" t="s">
-        <x:v>294</x:v>
+        <x:v>434</x:v>
       </x:c>
       <x:c r="D86" s="6" t="s">
-        <x:v>227</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="E86" s="6" t="s">
-        <x:v>268</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="F86" s="6" t="s">
-        <x:v>158</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="G86" s="8">
         <x:v>15000</x:v>
       </x:c>
     </x:row>
-    <x:row r="87" spans="1:7" ht="15.75" customHeight="1">
+    <x:row r="87" spans="1:8" ht="15.75" customHeight="1">
       <x:c r="A87" s="6">
         <x:v>86</x:v>
       </x:c>
       <x:c r="B87" s="6" t="s">
-        <x:v>428</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="C87" s="6" t="s">
-        <x:v>444</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="D87" s="6" t="s">
-        <x:v>208</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="E87" s="6" t="s">
-        <x:v>263</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="F87" s="6" t="s">
-        <x:v>158</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="G87" s="8">
         <x:v>15000</x:v>
       </x:c>
-    </x:row>
-    <x:row r="88" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="H87" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88" spans="1:8" ht="15.75" customHeight="1">
       <x:c r="A88" s="6">
         <x:v>87</x:v>
       </x:c>
       <x:c r="B88" s="6" t="s">
-        <x:v>425</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="C88" s="6" t="s">
-        <x:v>41</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D88" s="6" t="s">
-        <x:v>193</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="E88" s="6" t="s">
-        <x:v>346</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="F88" s="6" t="s">
-        <x:v>158</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="G88" s="8">
         <x:v>15000</x:v>
       </x:c>
-    </x:row>
-    <x:row r="89" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="H88" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89" spans="1:8" ht="15.75" customHeight="1">
       <x:c r="A89" s="6">
         <x:v>88</x:v>
       </x:c>
       <x:c r="B89" s="6" t="s">
-        <x:v>339</x:v>
+        <x:v>408</x:v>
       </x:c>
       <x:c r="C89" s="6" t="s">
-        <x:v>40</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D89" s="6" t="s">
-        <x:v>231</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="E89" s="6" t="s">
-        <x:v>342</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="F89" s="6" t="s">
-        <x:v>158</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="G89" s="8">
         <x:v>15000</x:v>
       </x:c>
-    </x:row>
-    <x:row r="90" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="H89" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" spans="1:8" ht="15.75" customHeight="1">
       <x:c r="A90" s="6">
         <x:v>89</x:v>
       </x:c>
       <x:c r="B90" s="6" t="s">
-        <x:v>417</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="C90" s="6" t="s">
-        <x:v>40</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D90" s="6" t="s">
-        <x:v>209</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="E90" s="6" t="s">
-        <x:v>265</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="F90" s="6" t="s">
-        <x:v>158</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="G90" s="8">
         <x:v>15000</x:v>
       </x:c>
-    </x:row>
-    <x:row r="91" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="H90" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="1:8" ht="15.75" customHeight="1">
       <x:c r="A91" s="6">
         <x:v>90</x:v>
       </x:c>
       <x:c r="B91" s="6" t="s">
-        <x:v>424</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="C91" s="6" t="s">
-        <x:v>40</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D91" s="6" t="s">
-        <x:v>218</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="E91" s="6" t="s">
-        <x:v>275</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="F91" s="6" t="s">
-        <x:v>158</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="G91" s="8">
         <x:v>15000</x:v>
+      </x:c>
+      <x:c r="H91" t="s">
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:7" ht="15.75" customHeight="1">
@@ -3981,19 +4169,19 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="B92" s="6" t="s">
-        <x:v>422</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="C92" s="6" t="s">
-        <x:v>42</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D92" s="6" t="s">
-        <x:v>222</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="E92" s="6" t="s">
-        <x:v>280</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="F92" s="6" t="s">
-        <x:v>156</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="G92" s="8">
         <x:v>15000</x:v>
@@ -4004,19 +4192,19 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="B93" s="6" t="s">
-        <x:v>252</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="C93" s="6" t="s">
-        <x:v>238</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="D93" s="6" t="s">
-        <x:v>220</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="E93" s="6" t="s">
-        <x:v>261</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="F93" s="6" t="s">
-        <x:v>156</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="G93" s="8">
         <x:v>30000</x:v>
@@ -4027,68 +4215,74 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="B94" s="6" t="s">
-        <x:v>430</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="C94" s="6" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="D94" s="6" t="s">
         <x:v>238</x:v>
       </x:c>
-      <x:c r="D94" s="6" t="s">
-        <x:v>187</x:v>
-      </x:c>
       <x:c r="E94" s="6" t="s">
-        <x:v>270</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="F94" s="6" t="s">
-        <x:v>156</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="G94" s="8">
         <x:v>20000</x:v>
       </x:c>
     </x:row>
-    <x:row r="95" spans="1:7" ht="15.75" customHeight="1">
+    <x:row r="95" spans="1:8" ht="15.75" customHeight="1">
       <x:c r="A95" s="6">
         <x:v>94</x:v>
       </x:c>
       <x:c r="B95" s="6" t="s">
-        <x:v>254</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="C95" s="6" t="s">
-        <x:v>47</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D95" s="6" t="s">
-        <x:v>190</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="E95" s="6" t="s">
-        <x:v>272</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="F95" s="6" t="s">
-        <x:v>156</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="G95" s="8">
         <x:v>30000</x:v>
       </x:c>
-    </x:row>
-    <x:row r="96" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="H95" t="s">
+        <x:v>109</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96" spans="1:8" ht="15.75" customHeight="1">
       <x:c r="A96" s="6">
         <x:v>95</x:v>
       </x:c>
       <x:c r="B96" s="6" t="s">
-        <x:v>418</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="C96" s="6" t="s">
-        <x:v>47</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D96" s="6" t="s">
-        <x:v>213</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="E96" s="6" t="s">
-        <x:v>267</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="F96" s="6" t="s">
-        <x:v>156</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="G96" s="8">
         <x:v>20000</x:v>
+      </x:c>
+      <x:c r="H96" t="s">
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="1:7" ht="15.75" customHeight="1">
@@ -4096,19 +4290,19 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B97" s="6" t="s">
-        <x:v>245</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C97" s="6" t="s">
-        <x:v>307</x:v>
+        <x:v>429</x:v>
       </x:c>
       <x:c r="D97" s="6" t="s">
-        <x:v>212</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="E97" s="6" t="s">
-        <x:v>286</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="F97" s="6" t="s">
-        <x:v>156</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="G97" s="8">
         <x:v>32000</x:v>
@@ -4119,19 +4313,19 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B98" s="6" t="s">
-        <x:v>421</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="C98" s="6" t="s">
-        <x:v>54</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D98" s="6" t="s">
-        <x:v>224</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="E98" s="6" t="s">
-        <x:v>266</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="F98" s="6" t="s">
-        <x:v>156</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="G98" s="8">
         <x:v>20000</x:v>
@@ -4142,45 +4336,48 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B99" s="6" t="s">
-        <x:v>336</x:v>
+        <x:v>407</x:v>
       </x:c>
       <x:c r="C99" s="6" t="s">
-        <x:v>53</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D99" s="6" t="s">
-        <x:v>230</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="E99" s="6" t="s">
-        <x:v>285</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="F99" s="6" t="s">
-        <x:v>335</x:v>
+        <x:v>416</x:v>
       </x:c>
       <x:c r="G99" s="8">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="100" spans="1:7" ht="15.75" customHeight="1">
+    <x:row r="100" spans="1:8" ht="15.75" customHeight="1">
       <x:c r="A100" s="6">
         <x:v>99</x:v>
       </x:c>
       <x:c r="B100" s="6" t="s">
-        <x:v>247</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="C100" s="6" t="s">
-        <x:v>51</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D100" s="6" t="s">
-        <x:v>219</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="E100" s="6" t="s">
-        <x:v>274</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="F100" s="6" t="s">
-        <x:v>335</x:v>
+        <x:v>416</x:v>
       </x:c>
       <x:c r="G100" s="8">
         <x:v>0</x:v>
+      </x:c>
+      <x:c r="H100" t="s">
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:7" ht="15.75" customHeight="1">
@@ -4188,19 +4385,19 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B101" s="6" t="s">
-        <x:v>253</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="C101" s="6" t="s">
-        <x:v>308</x:v>
+        <x:v>448</x:v>
       </x:c>
       <x:c r="D101" s="6" t="s">
-        <x:v>195</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="E101" s="6" t="s">
-        <x:v>282</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="F101" s="6" t="s">
-        <x:v>335</x:v>
+        <x:v>416</x:v>
       </x:c>
       <x:c r="G101" s="8">
         <x:v>5000</x:v>
@@ -4211,45 +4408,48 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="B102" s="6" t="s">
-        <x:v>334</x:v>
+        <x:v>401</x:v>
       </x:c>
       <x:c r="C102" s="6" t="s">
-        <x:v>94</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D102" s="6" t="s">
-        <x:v>215</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="E102" s="6" t="s">
-        <x:v>262</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="F102" s="6" t="s">
-        <x:v>335</x:v>
+        <x:v>416</x:v>
       </x:c>
       <x:c r="G102" s="8">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="103" spans="1:7" ht="15.75" customHeight="1">
+    <x:row r="103" spans="1:8" ht="15.75" customHeight="1">
       <x:c r="A103" s="6">
         <x:v>102</x:v>
       </x:c>
       <x:c r="B103" s="6" t="s">
-        <x:v>36</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C103" s="6" t="s">
-        <x:v>45</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D103" s="6" t="s">
-        <x:v>229</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="E103" s="6" t="s">
-        <x:v>281</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="F103" s="6" t="s">
-        <x:v>335</x:v>
+        <x:v>416</x:v>
       </x:c>
       <x:c r="G103" s="8">
         <x:v>0</x:v>
+      </x:c>
+      <x:c r="H103" t="s">
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="104" spans="1:7" ht="15.75" customHeight="1">
@@ -4257,68 +4457,74 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B104" s="6" t="s">
-        <x:v>43</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C104" s="6" t="s">
-        <x:v>91</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D104" s="6" t="s">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="E104" s="6" t="s">
-        <x:v>278</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="F104" s="6" t="s">
-        <x:v>335</x:v>
+        <x:v>416</x:v>
       </x:c>
       <x:c r="G104" s="8">
         <x:v>10000</x:v>
       </x:c>
     </x:row>
-    <x:row r="105" spans="1:7" ht="15.75" customHeight="1">
+    <x:row r="105" spans="1:8" ht="15.75" customHeight="1">
       <x:c r="A105" s="6">
         <x:v>104</x:v>
       </x:c>
       <x:c r="B105" s="6" t="s">
-        <x:v>244</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C105" s="6" t="s">
-        <x:v>310</x:v>
+        <x:v>447</x:v>
       </x:c>
       <x:c r="D105" s="6" t="s">
-        <x:v>216</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="E105" s="6" t="s">
-        <x:v>277</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="F105" s="6" t="s">
-        <x:v>335</x:v>
+        <x:v>416</x:v>
       </x:c>
       <x:c r="G105" s="8">
         <x:v>0</x:v>
       </x:c>
-    </x:row>
-    <x:row r="106" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="H105" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="106" spans="1:8" ht="15.75" customHeight="1">
       <x:c r="A106" s="6">
         <x:v>105</x:v>
       </x:c>
       <x:c r="B106" s="6" t="s">
-        <x:v>240</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C106" s="6" t="s">
-        <x:v>239</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="D106" s="6" t="s">
-        <x:v>226</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="E106" s="6" t="s">
-        <x:v>287</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="F106" s="6" t="s">
-        <x:v>335</x:v>
+        <x:v>416</x:v>
       </x:c>
       <x:c r="G106" s="8">
         <x:v>0</x:v>
+      </x:c>
+      <x:c r="H106" t="s">
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="107" spans="1:7" ht="15.75" customHeight="1">
@@ -4326,19 +4532,19 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="B107" s="6" t="s">
-        <x:v>329</x:v>
+        <x:v>419</x:v>
       </x:c>
       <x:c r="C107" s="6" t="s">
-        <x:v>88</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D107" s="6" t="s">
-        <x:v>210</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="E107" s="6" t="s">
-        <x:v>273</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="F107" s="6" t="s">
-        <x:v>335</x:v>
+        <x:v>416</x:v>
       </x:c>
       <x:c r="G107" s="8">
         <x:v>0</x:v>
@@ -4349,19 +4555,19 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="B108" s="6" t="s">
-        <x:v>87</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C108" s="9" t="s">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D108" s="6" t="s">
-        <x:v>260</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="E108" s="10" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="F108" s="8" t="s">
-        <x:v>162</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G108" s="8">
         <x:v>2000000</x:v>
@@ -4372,19 +4578,19 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="B109" s="9" t="s">
-        <x:v>291</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C109" s="9" t="s">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D109" s="8" t="s">
-        <x:v>259</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="E109" s="8" t="s">
-        <x:v>390</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="F109" s="8" t="s">
-        <x:v>162</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G109" s="8">
         <x:v>800000</x:v>
@@ -4395,68 +4601,74 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="B110" s="9" t="s">
-        <x:v>460</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="C110" s="9" t="s">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D110" s="8" t="s">
-        <x:v>257</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="E110" s="8" t="s">
-        <x:v>384</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="F110" s="8" t="s">
-        <x:v>162</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G110" s="8">
         <x:v>800000</x:v>
       </x:c>
     </x:row>
-    <x:row r="111" spans="1:7" ht="15.75" customHeight="1">
+    <x:row r="111" spans="1:8" ht="15.75" customHeight="1">
       <x:c r="A111" s="6">
         <x:v>110</x:v>
       </x:c>
       <x:c r="B111" s="9" t="s">
-        <x:v>289</x:v>
+        <x:v>430</x:v>
       </x:c>
       <x:c r="C111" s="9" t="s">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D111" s="11" t="s">
-        <x:v>258</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="E111" s="8" t="s">
-        <x:v>383</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="F111" s="8" t="s">
-        <x:v>162</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G111" s="8">
         <x:v>200000</x:v>
       </x:c>
-    </x:row>
-    <x:row r="112" spans="1:7" ht="15.75" customHeight="1">
+      <x:c r="H111" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="112" spans="1:8" ht="15.75" customHeight="1">
       <x:c r="A112" s="6">
         <x:v>111</x:v>
       </x:c>
       <x:c r="B112" s="6" t="s">
-        <x:v>458</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="C112" s="9" t="s">
-        <x:v>26</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D112" s="11" t="s">
-        <x:v>256</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="E112" s="8" t="s">
-        <x:v>284</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="F112" s="8" t="s">
-        <x:v>162</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G112" s="8">
         <x:v>200000</x:v>
+      </x:c>
+      <x:c r="H112" t="s">
+        <x:v>470</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="1:7" ht="15.75" customHeight="1">
@@ -4464,19 +4676,19 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="B113" s="1" t="s">
-        <x:v>250</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="C113" s="12" t="s">
-        <x:v>92</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D113" s="13" t="s">
-        <x:v>146</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E113" s="13" t="s">
-        <x:v>382</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="F113" s="12" t="s">
-        <x:v>323</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="G113" s="12">
         <x:v>300000</x:v>
@@ -4487,19 +4699,19 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B114" s="1" t="s">
-        <x:v>442</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="C114" s="12" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D114" s="13" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="D114" s="13" t="s">
-        <x:v>148</x:v>
-      </x:c>
       <x:c r="E114" s="13" t="s">
-        <x:v>377</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="F114" s="12" t="s">
-        <x:v>323</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="G114" s="12">
         <x:v>210000</x:v>
@@ -4510,45 +4722,48 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="B115" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C115" s="12" t="s">
-        <x:v>92</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D115" s="13" t="s">
-        <x:v>149</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E115" s="13" t="s">
-        <x:v>264</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="F115" s="12" t="s">
-        <x:v>323</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="G115" s="12">
         <x:v>300000</x:v>
       </x:c>
     </x:row>
-    <x:row r="116" spans="1:7" ht="15.75" customHeight="1">
+    <x:row r="116" spans="1:8" ht="15.75" customHeight="1">
       <x:c r="A116" s="6">
         <x:v>115</x:v>
       </x:c>
       <x:c r="B116" s="1" t="s">
-        <x:v>441</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="C116" s="2" t="s">
-        <x:v>459</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="D116" s="13" t="s">
-        <x:v>150</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E116" s="13" t="s">
-        <x:v>283</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="F116" s="12" t="s">
-        <x:v>338</x:v>
+        <x:v>423</x:v>
       </x:c>
       <x:c r="G116" s="12">
         <x:v>100000</x:v>
+      </x:c>
+      <x:c r="H116" t="s">
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="117" spans="1:7" ht="15.75" customHeight="1">
@@ -4556,17 +4771,17 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="B117" s="12" t="s">
-        <x:v>465</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="C117" s="12"/>
       <x:c r="D117" s="13" t="s">
-        <x:v>147</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E117" s="13" t="s">
-        <x:v>385</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="F117" s="12" t="s">
-        <x:v>338</x:v>
+        <x:v>423</x:v>
       </x:c>
       <x:c r="G117" s="12">
         <x:v>100000</x:v>
